--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\作業フォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6ABAD-E6B6-4E03-9869-85DE50ED5D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9493CC77-AB29-4CE6-85E4-FA2319238344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="87">
   <si>
     <t>①ネオdeいりょう</t>
   </si>
@@ -352,6 +352,66 @@
   <si>
     <t>藤井　晶</t>
   </si>
+  <si>
+    <t>ACの金額の70%がゆうきくんが貰っている金額</t>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023年2月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>川田  慎也</t>
+  </si>
+  <si>
+    <t>堀田  輝貴</t>
+  </si>
+  <si>
+    <t>木村  勇貴</t>
+  </si>
+  <si>
+    <t>自由がん</t>
+  </si>
+  <si>
+    <t>小椋  ＊太</t>
+  </si>
+  <si>
+    <t>川田  ＊也</t>
+  </si>
+  <si>
+    <t>木村  ＊志</t>
+  </si>
+  <si>
+    <t>2023年3月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +423,7 @@
     <numFmt numFmtId="178" formatCode="\¥#,##0"/>
     <numFmt numFmtId="179" formatCode="\¥0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +491,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -581,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -651,9 +718,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -696,6 +760,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -978,10 +1047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:S514"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A194" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204:E208"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4714,13 +4786,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:J39"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4779,10 +4851,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="40">
+      <c r="A4" s="39">
         <v>44896</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>44951</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -4794,29 +4866,29 @@
       <c r="E4" s="32">
         <v>20221108</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>44664</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="34">
         <v>0.5</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <f>I4*J4</f>
         <v>22332</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="41"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="31" t="s">
         <v>48</v>
       </c>
@@ -4826,29 +4898,29 @@
       <c r="E5" s="32">
         <v>20221108</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="50" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>7776</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <v>0.5</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <f t="shared" ref="K5:K38" si="0">I5*J5</f>
         <v>3888</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="31" t="s">
         <v>48</v>
       </c>
@@ -4858,29 +4930,29 @@
       <c r="E6" s="32">
         <v>20221109</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>81228</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>0.5</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <f t="shared" si="0"/>
         <v>40614</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="41"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="31" t="s">
         <v>48</v>
       </c>
@@ -4890,29 +4962,29 @@
       <c r="E7" s="32">
         <v>20221111</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <v>46296</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <v>0.5</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f t="shared" si="0"/>
         <v>23148</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="31" t="s">
         <v>48</v>
       </c>
@@ -4922,29 +4994,29 @@
       <c r="E8" s="32">
         <v>20221111</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="50" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="33">
         <v>7944</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <v>0.5</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <f t="shared" si="0"/>
         <v>3972</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="31" t="s">
         <v>48</v>
       </c>
@@ -4954,29 +5026,29 @@
       <c r="E9" s="32">
         <v>20221111</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="50" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <v>34452</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>0.5</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <f t="shared" si="0"/>
         <v>17226</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="31" t="s">
         <v>48</v>
       </c>
@@ -4986,29 +5058,29 @@
       <c r="E10" s="32">
         <v>20221111</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="50" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <v>10392</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>0.5</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <f t="shared" si="0"/>
         <v>5196</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="31" t="s">
         <v>48</v>
       </c>
@@ -5018,29 +5090,29 @@
       <c r="E11" s="32">
         <v>20221111</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <v>70104</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <v>0.5</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="33">
         <f t="shared" si="0"/>
         <v>35052</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="31" t="s">
         <v>48</v>
       </c>
@@ -5050,29 +5122,29 @@
       <c r="E12" s="32">
         <v>20221115</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <v>82548</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>0.5</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="33">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="31" t="s">
         <v>48</v>
       </c>
@@ -5082,29 +5154,29 @@
       <c r="E13" s="32">
         <v>20220901</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <v>3873</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>0.5</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f t="shared" si="0"/>
         <v>1936.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="31" t="s">
         <v>48</v>
       </c>
@@ -5114,29 +5186,29 @@
       <c r="E14" s="32">
         <v>20220901</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>2407</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>0.5</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <f t="shared" si="0"/>
         <v>1203.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="31" t="s">
         <v>48</v>
       </c>
@@ -5146,770 +5218,1433 @@
       <c r="E15" s="32">
         <v>20220901</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="31" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>2578</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <v>0.5</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <f t="shared" si="0"/>
         <v>1289</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="36">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="35">
         <f>SUM(K4:K15)</f>
         <v>197131</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>44958</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>20221219</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>44664</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <v>0.7</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <f t="shared" si="0"/>
         <v>31264.799999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>20221219</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <v>7776</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <v>0.7</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <f t="shared" si="0"/>
         <v>5443.2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>20221219</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>81228</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <v>0.7</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <f t="shared" si="0"/>
         <v>56859.6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="37" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>20221220</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="33">
         <v>68136</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>0.7</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <f t="shared" si="0"/>
         <v>47695.199999999997</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="37" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>20221220</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <v>10536</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <v>0.7</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <f t="shared" si="0"/>
         <v>7375.2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="37" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>20221221</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="33">
         <v>96744</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <v>0.7</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <f t="shared" si="0"/>
         <v>67720.800000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>20220901</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>3530</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="34">
         <v>0.7</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <f t="shared" si="0"/>
         <v>2471</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="37" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>20220901</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="37">
         <v>343</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <v>0.7</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="33">
         <f t="shared" si="0"/>
         <v>240.1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>20220901</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <v>2065</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="34">
         <v>0.7</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <f t="shared" si="0"/>
         <v>1445.5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="37" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>20220901</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <v>342</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="34">
         <v>0.7</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <f t="shared" si="0"/>
         <v>239.39999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <v>20220901</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <v>2236</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="34">
         <v>0.7</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <f t="shared" si="0"/>
         <v>1565.1999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="37" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="36">
         <v>20220901</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="37">
         <v>342</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="34">
         <v>0.7</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="33">
         <f t="shared" si="0"/>
         <v>239.39999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="37" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="36">
         <v>20221101</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <v>2427</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="34">
         <v>0.7</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <f t="shared" si="0"/>
         <v>1698.8999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="37" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>20221101</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="37">
         <v>342</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="34">
         <v>0.7</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="33">
         <f t="shared" si="0"/>
         <v>239.39999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="37" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>20221101</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="33">
         <v>1219</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="34">
         <v>0.7</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="33">
         <f t="shared" si="0"/>
         <v>853.3</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="37" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>20221101</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="37">
         <v>372</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <v>0.7</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="33">
         <f t="shared" si="0"/>
         <v>260.39999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="37" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>20230101</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <v>1065</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="34">
         <v>0.7</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="33">
         <f t="shared" si="0"/>
         <v>745.5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="37" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>20230101</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="37">
         <v>387</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="34">
         <v>0.7</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="33">
         <f t="shared" si="0"/>
         <v>270.89999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="37" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>20230101</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <v>2624</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="34">
         <v>0.7</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <f t="shared" si="0"/>
         <v>1836.8</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="37" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="36">
         <v>20230101</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="37">
         <v>386</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="34">
         <v>0.7</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="33">
         <f t="shared" si="0"/>
         <v>270.2</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="37" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <v>20230101</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="33">
         <v>2286</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="34">
         <v>0.7</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="33">
         <f t="shared" si="0"/>
         <v>1600.1999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="37" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <v>20230101</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="37">
         <v>387</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="34">
         <v>0.7</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="33">
         <f t="shared" si="0"/>
         <v>270.89999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="36">
+      <c r="A39" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="35">
         <f>SUM(K17:K38)</f>
         <v>230605.89999999997</v>
       </c>
     </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="45">
+        <v>44986</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="48">
+        <v>20221228</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="37">
+        <v>9600</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K40" s="33">
+        <f>I40*J40</f>
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="48">
+        <v>20230125</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="37">
+        <v>62868</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K41" s="33">
+        <f t="shared" ref="K41:K59" si="1">I41*J41</f>
+        <v>44007.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="48">
+        <v>20230125</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="37">
+        <v>9888</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K42" s="33">
+        <f t="shared" si="1"/>
+        <v>6921.5999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="48">
+        <v>20230125</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="37">
+        <v>93168</v>
+      </c>
+      <c r="J43" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K43" s="33">
+        <f t="shared" si="1"/>
+        <v>65217.599999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="48">
+        <v>20230127</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="37">
+        <v>85428</v>
+      </c>
+      <c r="J44" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K44" s="33">
+        <f t="shared" si="1"/>
+        <v>59799.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="37">
+        <v>3530</v>
+      </c>
+      <c r="J45" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K45" s="33">
+        <f t="shared" si="1"/>
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="37">
+        <v>343</v>
+      </c>
+      <c r="J46" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K46" s="33">
+        <f t="shared" si="1"/>
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="37">
+        <v>2065</v>
+      </c>
+      <c r="J47" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K47" s="33">
+        <f t="shared" si="1"/>
+        <v>1445.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="37">
+        <v>342</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K48" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="37">
+        <v>2236</v>
+      </c>
+      <c r="J49" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K49" s="33">
+        <f t="shared" si="1"/>
+        <v>1565.1999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="48">
+        <v>20220901</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="37">
+        <v>342</v>
+      </c>
+      <c r="J50" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K50" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="37">
+        <v>2427</v>
+      </c>
+      <c r="J51" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K51" s="33">
+        <f t="shared" si="1"/>
+        <v>1698.8999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="37">
+        <v>342</v>
+      </c>
+      <c r="J52" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K52" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="37">
+        <v>1219</v>
+      </c>
+      <c r="J53" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K53" s="33">
+        <f t="shared" si="1"/>
+        <v>853.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="48">
+        <v>20221101</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="37">
+        <v>372</v>
+      </c>
+      <c r="J54" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K54" s="33">
+        <f t="shared" si="1"/>
+        <v>260.39999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="48">
+        <v>20221201</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="37">
+        <v>2624</v>
+      </c>
+      <c r="J55" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K55" s="33">
+        <f t="shared" si="1"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="48">
+        <v>20221201</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="37">
+        <v>386</v>
+      </c>
+      <c r="J56" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K56" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="48">
+        <v>20230101</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="37">
+        <v>2203</v>
+      </c>
+      <c r="J57" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K57" s="33">
+        <f t="shared" si="1"/>
+        <v>1542.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="48">
+        <v>20230101</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="37">
+        <v>387</v>
+      </c>
+      <c r="J58" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K58" s="33">
+        <f t="shared" si="1"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="48">
+        <v>20230201</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="37">
+        <v>2420</v>
+      </c>
+      <c r="J59" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K59" s="33">
+        <f t="shared" si="1"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="35">
+        <f>SUM(K40:K59)</f>
+        <v>197532.99999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A40:A59"/>
+    <mergeCell ref="B40:B59"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B15"/>
@@ -5920,8 +6655,9 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="16" max="16383" man="1"/>
+    <brk id="39" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5930,9 +6666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48418D21-3D32-4263-8E16-B31D83DBE4A6}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5964,6 +6700,9 @@
         <f ca="1">COUNTA(OFFSET(B$7,0,0,COUNTA(A:A)-1,1))&amp;"名"</f>
         <v>11名</v>
       </c>
+      <c r="F1" s="49" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
@@ -5979,49 +6718,49 @@
       <c r="G2" s="12"/>
     </row>
     <row r="5" spans="1:24" s="17" customFormat="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47" t="s">
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
       <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" s="17" customFormat="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="23" t="s">
         <v>9</v>
       </c>

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9493CC77-AB29-4CE6-85E4-FA2319238344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7F95A-7A4D-41F0-AFAC-CC4B6B1EBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="振込額" sheetId="4" r:id="rId2"/>
-    <sheet name="一覧表" sheetId="2" r:id="rId3"/>
+    <sheet name="一覧表" sheetId="2" r:id="rId2"/>
+    <sheet name="振込額" sheetId="4" r:id="rId3"/>
     <sheet name="テンプレ" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">一覧!$A$1:$I$217</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">一覧表!$A$1:$W$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="89">
   <si>
     <t>①ネオdeいりょう</t>
   </si>
@@ -411,6 +412,12 @@
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岡　友亮</t>
+  </si>
+  <si>
+    <t>阿部　渉</t>
   </si>
 </sst>
 </file>
@@ -648,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -731,16 +738,24 @@
     <xf numFmtId="179" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="55" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,20 +766,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,13 +1057,13 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="10" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.08203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
@@ -1087,7 +1088,7 @@
       </c>
       <c r="H1" t="str">
         <f ca="1">一覧表!B1</f>
-        <v>11名</v>
+        <v>13名</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1102,7 +1103,7 @@
       </c>
       <c r="H2" s="7" t="str">
         <f ca="1">一覧表!B2</f>
-        <v>2,734,188円</v>
+        <v>3,168,312円</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4782,35 +4783,1293 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48418D21-3D32-4263-8E16-B31D83DBE4A6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="str">
+        <f ca="1">COUNTA(OFFSET(B$7,0,0,COUNTA(A:A)-1,1))&amp;"名"</f>
+        <v>13名</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="14" t="str">
+        <f ca="1">TEXT(SUM(H22,M22,R22,W22),"#,###")&amp;"円"</f>
+        <v>3,168,312円</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="5" spans="1:24" s="17" customFormat="1">
+      <c r="A5" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" s="17" customFormat="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="15"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="18">
+        <v>44915</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="20">
+        <v>36</v>
+      </c>
+      <c r="D7" s="21">
+        <v>5728</v>
+      </c>
+      <c r="E7" s="21">
+        <v>68736</v>
+      </c>
+      <c r="F7" s="21">
+        <v>62868</v>
+      </c>
+      <c r="G7" s="21">
+        <v>5532</v>
+      </c>
+      <c r="H7" s="21">
+        <v>84996</v>
+      </c>
+      <c r="I7" s="21">
+        <v>915</v>
+      </c>
+      <c r="J7" s="21">
+        <v>10980</v>
+      </c>
+      <c r="K7" s="21">
+        <v>9888</v>
+      </c>
+      <c r="L7" s="21">
+        <v>612</v>
+      </c>
+      <c r="M7" s="21">
+        <v>11112</v>
+      </c>
+      <c r="N7" s="21">
+        <v>7795</v>
+      </c>
+      <c r="O7" s="22">
+        <v>93540</v>
+      </c>
+      <c r="P7" s="22">
+        <v>93168</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>16464</v>
+      </c>
+      <c r="R7" s="21">
+        <v>159024</v>
+      </c>
+      <c r="S7" s="21">
+        <v>2479</v>
+      </c>
+      <c r="T7" s="21">
+        <v>29748</v>
+      </c>
+      <c r="U7" s="21">
+        <v>29160</v>
+      </c>
+      <c r="V7" s="21">
+        <v>1956</v>
+      </c>
+      <c r="W7" s="21">
+        <v>31116</v>
+      </c>
+      <c r="X7" s="15"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="18">
+        <v>44905</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="20">
+        <v>27</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4071</v>
+      </c>
+      <c r="E8" s="21">
+        <v>48852</v>
+      </c>
+      <c r="F8" s="21">
+        <v>44664</v>
+      </c>
+      <c r="G8" s="21">
+        <v>3936</v>
+      </c>
+      <c r="H8" s="21">
+        <v>60408</v>
+      </c>
+      <c r="I8" s="21">
+        <v>719</v>
+      </c>
+      <c r="J8" s="21">
+        <v>8628</v>
+      </c>
+      <c r="K8" s="21">
+        <v>7776</v>
+      </c>
+      <c r="L8" s="21">
+        <v>480</v>
+      </c>
+      <c r="M8" s="21">
+        <v>8736</v>
+      </c>
+      <c r="N8" s="22">
+        <v>6796</v>
+      </c>
+      <c r="O8" s="22">
+        <v>81552</v>
+      </c>
+      <c r="P8" s="22">
+        <v>81228</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>14352</v>
+      </c>
+      <c r="R8" s="22">
+        <v>138636</v>
+      </c>
+      <c r="S8" s="21">
+        <v>1390</v>
+      </c>
+      <c r="T8" s="21">
+        <v>16680</v>
+      </c>
+      <c r="U8" s="21">
+        <v>16344</v>
+      </c>
+      <c r="V8" s="21">
+        <v>1032</v>
+      </c>
+      <c r="W8" s="21">
+        <v>17376</v>
+      </c>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="18">
+        <v>44912</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="20">
+        <v>26</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3920</v>
+      </c>
+      <c r="E9" s="21">
+        <v>47040</v>
+      </c>
+      <c r="F9" s="21">
+        <v>43008</v>
+      </c>
+      <c r="G9" s="21">
+        <v>3792</v>
+      </c>
+      <c r="H9" s="21">
+        <v>58176</v>
+      </c>
+      <c r="I9" s="21">
+        <v>705</v>
+      </c>
+      <c r="J9" s="21">
+        <v>8460</v>
+      </c>
+      <c r="K9" s="21">
+        <v>7620</v>
+      </c>
+      <c r="L9" s="21">
+        <v>468</v>
+      </c>
+      <c r="M9" s="21">
+        <v>8556</v>
+      </c>
+      <c r="N9" s="21">
+        <v>6699</v>
+      </c>
+      <c r="O9" s="22">
+        <v>80388</v>
+      </c>
+      <c r="P9" s="22">
+        <v>80076</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>14148</v>
+      </c>
+      <c r="R9" s="21">
+        <v>136668</v>
+      </c>
+      <c r="S9" s="21">
+        <v>2695</v>
+      </c>
+      <c r="T9" s="21">
+        <v>32340</v>
+      </c>
+      <c r="U9" s="21">
+        <v>31692</v>
+      </c>
+      <c r="V9" s="21">
+        <v>2124</v>
+      </c>
+      <c r="W9" s="21">
+        <v>33816</v>
+      </c>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="18">
+        <v>44903</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20">
+        <v>26</v>
+      </c>
+      <c r="D10" s="21">
+        <v>6210</v>
+      </c>
+      <c r="E10" s="21">
+        <v>74520</v>
+      </c>
+      <c r="F10" s="21">
+        <v>68136</v>
+      </c>
+      <c r="G10" s="21">
+        <v>5988</v>
+      </c>
+      <c r="H10" s="21">
+        <v>92088</v>
+      </c>
+      <c r="I10" s="21">
+        <v>975</v>
+      </c>
+      <c r="J10" s="21">
+        <v>11700</v>
+      </c>
+      <c r="K10" s="21">
+        <v>10536</v>
+      </c>
+      <c r="L10" s="21">
+        <v>648</v>
+      </c>
+      <c r="M10" s="21">
+        <v>11832</v>
+      </c>
+      <c r="N10" s="21">
+        <v>8094</v>
+      </c>
+      <c r="O10" s="22">
+        <v>97128</v>
+      </c>
+      <c r="P10" s="22">
+        <v>96744</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>17100</v>
+      </c>
+      <c r="R10" s="21">
+        <v>165144</v>
+      </c>
+      <c r="S10" s="21">
+        <v>1390</v>
+      </c>
+      <c r="T10" s="21">
+        <v>16680</v>
+      </c>
+      <c r="U10" s="21">
+        <v>16344</v>
+      </c>
+      <c r="V10" s="21">
+        <v>1032</v>
+      </c>
+      <c r="W10" s="21">
+        <v>17376</v>
+      </c>
+      <c r="X10" s="15"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="18">
+        <v>44916</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="20">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5511</v>
+      </c>
+      <c r="E11" s="21">
+        <v>66132</v>
+      </c>
+      <c r="F11" s="21">
+        <v>60480</v>
+      </c>
+      <c r="G11" s="21">
+        <v>5316</v>
+      </c>
+      <c r="H11" s="21">
+        <v>81744</v>
+      </c>
+      <c r="I11" s="21">
+        <v>888</v>
+      </c>
+      <c r="J11" s="21">
+        <v>10656</v>
+      </c>
+      <c r="K11" s="21">
+        <v>9600</v>
+      </c>
+      <c r="L11" s="21">
+        <v>588</v>
+      </c>
+      <c r="M11" s="21">
+        <v>10776</v>
+      </c>
+      <c r="N11" s="21">
+        <v>7662</v>
+      </c>
+      <c r="O11" s="22">
+        <v>91944</v>
+      </c>
+      <c r="P11" s="22">
+        <v>91584</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>16188</v>
+      </c>
+      <c r="R11" s="21">
+        <v>156336</v>
+      </c>
+      <c r="S11" s="21">
+        <v>2479</v>
+      </c>
+      <c r="T11" s="21">
+        <v>29748</v>
+      </c>
+      <c r="U11" s="21">
+        <v>29160</v>
+      </c>
+      <c r="V11" s="21">
+        <v>1956</v>
+      </c>
+      <c r="W11" s="21">
+        <v>31116</v>
+      </c>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="18">
+        <v>44931</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="20">
+        <v>30</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="21">
+        <v>7147</v>
+      </c>
+      <c r="O12" s="21">
+        <v>85764</v>
+      </c>
+      <c r="P12" s="21">
+        <v>85428</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>15096</v>
+      </c>
+      <c r="R12" s="21">
+        <v>145812</v>
+      </c>
+      <c r="S12" s="21">
+        <v>0</v>
+      </c>
+      <c r="T12" s="21">
+        <v>0</v>
+      </c>
+      <c r="U12" s="21">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21">
+        <v>0</v>
+      </c>
+      <c r="W12" s="21">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="18">
+        <v>44937</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="20">
+        <v>24</v>
+      </c>
+      <c r="D13" s="21">
+        <v>5914</v>
+      </c>
+      <c r="E13" s="21">
+        <v>70968</v>
+      </c>
+      <c r="F13" s="21">
+        <v>64908</v>
+      </c>
+      <c r="G13" s="21">
+        <v>5724</v>
+      </c>
+      <c r="H13" s="21">
+        <v>87804</v>
+      </c>
+      <c r="I13" s="21">
+        <v>903</v>
+      </c>
+      <c r="J13" s="21">
+        <v>10836</v>
+      </c>
+      <c r="K13" s="21">
+        <v>9756</v>
+      </c>
+      <c r="L13" s="21">
+        <v>600</v>
+      </c>
+      <c r="M13" s="21">
+        <v>10956</v>
+      </c>
+      <c r="N13" s="21">
+        <v>11048</v>
+      </c>
+      <c r="O13" s="22">
+        <v>132576</v>
+      </c>
+      <c r="P13" s="22">
+        <v>132048</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>23340</v>
+      </c>
+      <c r="R13" s="21">
+        <v>225408</v>
+      </c>
+      <c r="S13" s="21">
+        <v>2581</v>
+      </c>
+      <c r="T13" s="21">
+        <v>30972</v>
+      </c>
+      <c r="U13" s="21">
+        <v>30360</v>
+      </c>
+      <c r="V13" s="21">
+        <v>2040</v>
+      </c>
+      <c r="W13" s="21">
+        <v>32400</v>
+      </c>
+      <c r="X13" s="15"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="18">
+        <v>44959</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="20">
+        <v>25</v>
+      </c>
+      <c r="D14" s="21">
+        <v>3839</v>
+      </c>
+      <c r="E14" s="21">
+        <v>46068</v>
+      </c>
+      <c r="F14" s="21">
+        <v>42156</v>
+      </c>
+      <c r="G14" s="21">
+        <v>3732</v>
+      </c>
+      <c r="H14" s="21">
+        <v>57084</v>
+      </c>
+      <c r="I14" s="21">
+        <v>692</v>
+      </c>
+      <c r="J14" s="21">
+        <v>8304</v>
+      </c>
+      <c r="K14" s="21">
+        <v>7476</v>
+      </c>
+      <c r="L14" s="21">
+        <v>456</v>
+      </c>
+      <c r="M14" s="21">
+        <v>8388</v>
+      </c>
+      <c r="N14" s="21">
+        <v>8467</v>
+      </c>
+      <c r="O14" s="22">
+        <v>101604</v>
+      </c>
+      <c r="P14" s="22">
+        <v>101208</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>17892</v>
+      </c>
+      <c r="R14" s="21">
+        <v>172776</v>
+      </c>
+      <c r="S14" s="21">
+        <v>2603</v>
+      </c>
+      <c r="T14" s="21">
+        <v>31236</v>
+      </c>
+      <c r="U14" s="21">
+        <v>30612</v>
+      </c>
+      <c r="V14" s="21">
+        <v>2040</v>
+      </c>
+      <c r="W14" s="21">
+        <v>32652</v>
+      </c>
+      <c r="X14" s="15"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="18">
+        <v>44959</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="20">
+        <v>29</v>
+      </c>
+      <c r="D15" s="21">
+        <v>3693</v>
+      </c>
+      <c r="E15" s="21">
+        <v>44316</v>
+      </c>
+      <c r="F15" s="21">
+        <v>40536</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3588</v>
+      </c>
+      <c r="H15" s="21">
+        <v>54888</v>
+      </c>
+      <c r="I15" s="21">
+        <v>944</v>
+      </c>
+      <c r="J15" s="21">
+        <v>11328</v>
+      </c>
+      <c r="K15" s="21">
+        <v>10200</v>
+      </c>
+      <c r="L15" s="21">
+        <v>624</v>
+      </c>
+      <c r="M15" s="21">
+        <v>11448</v>
+      </c>
+      <c r="N15" s="21">
+        <v>12518</v>
+      </c>
+      <c r="O15" s="22">
+        <v>150216</v>
+      </c>
+      <c r="P15" s="22">
+        <v>149616</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>26448</v>
+      </c>
+      <c r="R15" s="21">
+        <v>255408</v>
+      </c>
+      <c r="S15" s="21">
+        <v>2935</v>
+      </c>
+      <c r="T15" s="21">
+        <v>35220</v>
+      </c>
+      <c r="U15" s="21">
+        <v>34512</v>
+      </c>
+      <c r="V15" s="21">
+        <v>2292</v>
+      </c>
+      <c r="W15" s="21">
+        <v>36804</v>
+      </c>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="18">
+        <v>44969</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20">
+        <v>26</v>
+      </c>
+      <c r="D16" s="21">
+        <v>3920</v>
+      </c>
+      <c r="E16" s="21">
+        <v>47040</v>
+      </c>
+      <c r="F16" s="21">
+        <v>43008</v>
+      </c>
+      <c r="G16" s="21">
+        <v>3792</v>
+      </c>
+      <c r="H16" s="21">
+        <v>58176</v>
+      </c>
+      <c r="I16" s="21">
+        <v>705</v>
+      </c>
+      <c r="J16" s="21">
+        <v>8460</v>
+      </c>
+      <c r="K16" s="21">
+        <v>7620</v>
+      </c>
+      <c r="L16" s="21">
+        <v>468</v>
+      </c>
+      <c r="M16" s="21">
+        <v>8556</v>
+      </c>
+      <c r="N16" s="21">
+        <v>6699</v>
+      </c>
+      <c r="O16" s="22">
+        <v>80388</v>
+      </c>
+      <c r="P16" s="22">
+        <v>80076</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>14148</v>
+      </c>
+      <c r="R16" s="21">
+        <v>136668</v>
+      </c>
+      <c r="S16" s="21">
+        <v>2695</v>
+      </c>
+      <c r="T16" s="21">
+        <v>32340</v>
+      </c>
+      <c r="U16" s="21">
+        <v>31692</v>
+      </c>
+      <c r="V16" s="21">
+        <v>2124</v>
+      </c>
+      <c r="W16" s="21">
+        <v>33816</v>
+      </c>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="18">
+        <v>44969</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="20">
+        <v>30</v>
+      </c>
+      <c r="D17" s="21">
+        <v>2741</v>
+      </c>
+      <c r="E17" s="21">
+        <v>32892</v>
+      </c>
+      <c r="F17" s="21">
+        <v>30084</v>
+      </c>
+      <c r="G17" s="21">
+        <v>2664</v>
+      </c>
+      <c r="H17" s="21">
+        <v>40740</v>
+      </c>
+      <c r="I17" s="21">
+        <v>772</v>
+      </c>
+      <c r="J17" s="21">
+        <v>9264</v>
+      </c>
+      <c r="K17" s="21">
+        <v>8340</v>
+      </c>
+      <c r="L17" s="21">
+        <v>516</v>
+      </c>
+      <c r="M17" s="21">
+        <v>9372</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <v>0</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0</v>
+      </c>
+      <c r="R17" s="21">
+        <v>0</v>
+      </c>
+      <c r="S17" s="21">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
+        <v>0</v>
+      </c>
+      <c r="U17" s="21">
+        <v>0</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0</v>
+      </c>
+      <c r="W17" s="21">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="18">
+        <v>45010</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="20">
+        <v>25</v>
+      </c>
+      <c r="D18" s="21">
+        <v>4267</v>
+      </c>
+      <c r="E18" s="21">
+        <v>51204</v>
+      </c>
+      <c r="F18" s="21">
+        <v>46824</v>
+      </c>
+      <c r="G18" s="21">
+        <v>4140</v>
+      </c>
+      <c r="H18" s="21">
+        <v>63384</v>
+      </c>
+      <c r="I18" s="21">
+        <v>692</v>
+      </c>
+      <c r="J18" s="21">
+        <v>8304</v>
+      </c>
+      <c r="K18" s="21">
+        <v>7476</v>
+      </c>
+      <c r="L18" s="21">
+        <v>456</v>
+      </c>
+      <c r="M18" s="21">
+        <v>8388</v>
+      </c>
+      <c r="N18" s="21">
+        <v>6617</v>
+      </c>
+      <c r="O18" s="22">
+        <v>79404</v>
+      </c>
+      <c r="P18" s="22">
+        <v>79092</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>13980</v>
+      </c>
+      <c r="R18" s="21">
+        <v>135012</v>
+      </c>
+      <c r="S18" s="21">
+        <v>1105</v>
+      </c>
+      <c r="T18" s="21">
+        <v>13260</v>
+      </c>
+      <c r="U18" s="21">
+        <v>12996</v>
+      </c>
+      <c r="V18" s="21">
+        <v>780</v>
+      </c>
+      <c r="W18" s="21">
+        <v>13776</v>
+      </c>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="18">
+        <v>45028</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="20">
+        <v>29</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2952</v>
+      </c>
+      <c r="E19" s="21">
+        <v>35424</v>
+      </c>
+      <c r="F19" s="21">
+        <v>32424</v>
+      </c>
+      <c r="G19" s="21">
+        <v>2856</v>
+      </c>
+      <c r="H19" s="21">
+        <v>43848</v>
+      </c>
+      <c r="I19" s="21">
+        <v>752</v>
+      </c>
+      <c r="J19" s="21">
+        <v>9024</v>
+      </c>
+      <c r="K19" s="21">
+        <v>8124</v>
+      </c>
+      <c r="L19" s="21">
+        <v>504</v>
+      </c>
+      <c r="M19" s="21">
+        <v>9132</v>
+      </c>
+      <c r="N19" s="21">
+        <v>7171</v>
+      </c>
+      <c r="O19" s="22">
+        <v>86052</v>
+      </c>
+      <c r="P19" s="22">
+        <v>85716</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>15144</v>
+      </c>
+      <c r="R19" s="21">
+        <v>146292</v>
+      </c>
+      <c r="S19" s="21">
+        <v>1142</v>
+      </c>
+      <c r="T19" s="21">
+        <v>13704</v>
+      </c>
+      <c r="U19" s="21">
+        <v>13428</v>
+      </c>
+      <c r="V19" s="21">
+        <v>864</v>
+      </c>
+      <c r="W19" s="21">
+        <v>14292</v>
+      </c>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="C22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="26">
+        <f ca="1">SUM(OFFSET(D$7,0,0,COUNTA(A:A)-1,1))</f>
+        <v>52766</v>
+      </c>
+      <c r="E22" s="26">
+        <f ca="1">SUM(OFFSET(E$7,0,0,COUNTA(A:A)-1,1))</f>
+        <v>633192</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" ref="F22:W22" ca="1" si="0">SUM(OFFSET(F$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <v>579096</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>51060</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>783336</v>
+      </c>
+      <c r="I22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>9662</v>
+      </c>
+      <c r="J22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>115944</v>
+      </c>
+      <c r="K22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>104412</v>
+      </c>
+      <c r="L22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>6420</v>
+      </c>
+      <c r="M22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>117252</v>
+      </c>
+      <c r="N22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>96713</v>
+      </c>
+      <c r="O22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1160556</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1155984</v>
+      </c>
+      <c r="Q22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>204300</v>
+      </c>
+      <c r="R22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1973184</v>
+      </c>
+      <c r="S22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>23494</v>
+      </c>
+      <c r="T22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>281928</v>
+      </c>
+      <c r="U22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>276300</v>
+      </c>
+      <c r="V22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>18240</v>
+      </c>
+      <c r="W22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>294540</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="23" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F51B99-8B20-4339-8A6F-3A65956D9010}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5">
+    <row r="1" spans="1:11" ht="24">
       <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
@@ -4851,10 +6110,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="39">
+      <c r="A4" s="45">
         <v>44896</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="46">
         <v>44951</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -4869,7 +6128,7 @@
       <c r="F4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="40" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="30" t="s">
@@ -4887,8 +6146,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
         <v>48</v>
       </c>
@@ -4901,7 +6160,7 @@
       <c r="F5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="40" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="30" t="s">
@@ -4919,8 +6178,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="31" t="s">
         <v>48</v>
       </c>
@@ -4933,7 +6192,7 @@
       <c r="F6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="40" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="30" t="s">
@@ -4951,8 +6210,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="31" t="s">
         <v>48</v>
       </c>
@@ -4965,7 +6224,7 @@
       <c r="F7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="40" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="30" t="s">
@@ -4983,8 +6242,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="31" t="s">
         <v>48</v>
       </c>
@@ -4997,7 +6256,7 @@
       <c r="F8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="40" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="30" t="s">
@@ -5015,8 +6274,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="31" t="s">
         <v>48</v>
       </c>
@@ -5029,7 +6288,7 @@
       <c r="F9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="40" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="30" t="s">
@@ -5047,8 +6306,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="31" t="s">
         <v>48</v>
       </c>
@@ -5061,7 +6320,7 @@
       <c r="F10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="40" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="30" t="s">
@@ -5079,8 +6338,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="31" t="s">
         <v>48</v>
       </c>
@@ -5093,7 +6352,7 @@
       <c r="F11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="40" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="30" t="s">
@@ -5111,8 +6370,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="31" t="s">
         <v>48</v>
       </c>
@@ -5125,7 +6384,7 @@
       <c r="F12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="40" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="30" t="s">
@@ -5143,8 +6402,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="31" t="s">
         <v>48</v>
       </c>
@@ -5154,7 +6413,7 @@
       <c r="E13" s="32">
         <v>20220901</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="31" t="s">
@@ -5175,8 +6434,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="31" t="s">
         <v>48</v>
       </c>
@@ -5186,7 +6445,7 @@
       <c r="E14" s="32">
         <v>20220901</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="31" t="s">
@@ -5207,8 +6466,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="31" t="s">
         <v>48</v>
       </c>
@@ -5218,7 +6477,7 @@
       <c r="E15" s="32">
         <v>20220901</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="31" t="s">
@@ -5239,28 +6498,28 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="35">
         <f>SUM(K4:K15)</f>
         <v>197131</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="45">
+      <c r="A17" s="43">
         <v>44958</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="36" t="s">
         <v>63</v>
       </c>
@@ -5291,8 +6550,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="36" t="s">
         <v>63</v>
       </c>
@@ -5323,8 +6582,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="36" t="s">
         <v>63</v>
       </c>
@@ -5355,8 +6614,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="36" t="s">
         <v>63</v>
       </c>
@@ -5387,8 +6646,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
@@ -5419,8 +6678,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="36" t="s">
         <v>63</v>
       </c>
@@ -5451,8 +6710,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
         <v>63</v>
       </c>
@@ -5483,8 +6742,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
@@ -5515,8 +6774,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="36" t="s">
         <v>63</v>
       </c>
@@ -5547,8 +6806,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="36" t="s">
         <v>63</v>
       </c>
@@ -5579,8 +6838,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="36" t="s">
         <v>63</v>
       </c>
@@ -5611,8 +6870,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
@@ -5643,8 +6902,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
@@ -5675,8 +6934,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="36" t="s">
         <v>63</v>
       </c>
@@ -5707,8 +6966,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -5739,8 +6998,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="36" t="s">
         <v>63</v>
       </c>
@@ -5771,8 +7030,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="36" t="s">
         <v>63</v>
       </c>
@@ -5803,8 +7062,8 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="36" t="s">
         <v>63</v>
       </c>
@@ -5835,8 +7094,8 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="36" t="s">
         <v>63</v>
       </c>
@@ -5867,8 +7126,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="36" t="s">
         <v>63</v>
       </c>
@@ -5899,8 +7158,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="36" t="s">
         <v>63</v>
       </c>
@@ -5931,8 +7190,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="36" t="s">
         <v>63</v>
       </c>
@@ -5963,44 +7222,44 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="35">
         <f>SUM(K17:K38)</f>
         <v>230605.89999999997</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45">
+      <c r="A40" s="43">
         <v>44986</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="48" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="38">
         <v>20221228</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="48" t="s">
+      <c r="G40" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="48" t="s">
+      <c r="H40" s="38" t="s">
         <v>79</v>
       </c>
       <c r="I40" s="37">
@@ -6015,24 +7274,24 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="48" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="38">
         <v>20230125</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="38" t="s">
         <v>80</v>
       </c>
       <c r="I41" s="37">
@@ -6047,24 +7306,24 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="48" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="38">
         <v>20230125</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="38" t="s">
         <v>80</v>
       </c>
       <c r="I42" s="37">
@@ -6079,24 +7338,24 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="48" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="38">
         <v>20230125</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="38" t="s">
         <v>80</v>
       </c>
       <c r="I43" s="37">
@@ -6111,24 +7370,24 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="48" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="38">
         <v>20230127</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="38" t="s">
         <v>81</v>
       </c>
       <c r="I44" s="37">
@@ -6143,24 +7402,24 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="48" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="38">
         <v>20220901</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="G45" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I45" s="37">
@@ -6175,24 +7434,24 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="48" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="38">
         <v>20220901</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I46" s="37">
@@ -6207,24 +7466,24 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="48" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="38">
         <v>20220901</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="48" t="s">
+      <c r="G47" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="38" t="s">
         <v>60</v>
       </c>
       <c r="I47" s="37">
@@ -6239,24 +7498,24 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="48" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="38">
         <v>20220901</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="38" t="s">
         <v>60</v>
       </c>
       <c r="I48" s="37">
@@ -6271,24 +7530,24 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="48" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="38">
         <v>20220901</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="48" t="s">
+      <c r="H49" s="38" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="37">
@@ -6303,24 +7562,24 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="48" t="s">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="38">
         <v>20220901</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G50" s="48" t="s">
+      <c r="G50" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="H50" s="38" t="s">
         <v>61</v>
       </c>
       <c r="I50" s="37">
@@ -6335,24 +7594,24 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="48" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="38">
         <v>20221101</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="38" t="s">
         <v>71</v>
       </c>
       <c r="I51" s="37">
@@ -6367,24 +7626,24 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="48" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="38">
         <v>20221101</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="38" t="s">
         <v>71</v>
       </c>
       <c r="I52" s="37">
@@ -6399,24 +7658,24 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="48" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="38">
         <v>20221101</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G53" s="48" t="s">
+      <c r="G53" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="H53" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I53" s="37">
@@ -6431,24 +7690,24 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="48" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="38">
         <v>20221101</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G54" s="48" t="s">
+      <c r="G54" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H54" s="48" t="s">
+      <c r="H54" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I54" s="37">
@@ -6463,24 +7722,24 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="48" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="38">
         <v>20221201</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="48" t="s">
+      <c r="G55" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="48" t="s">
+      <c r="H55" s="38" t="s">
         <v>83</v>
       </c>
       <c r="I55" s="37">
@@ -6495,24 +7754,24 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="48" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="38">
         <v>20221201</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="48" t="s">
+      <c r="G56" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="38" t="s">
         <v>83</v>
       </c>
       <c r="I56" s="37">
@@ -6527,24 +7786,24 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="48" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="38">
         <v>20230101</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="48" t="s">
+      <c r="G57" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="48" t="s">
+      <c r="H57" s="38" t="s">
         <v>84</v>
       </c>
       <c r="I57" s="37">
@@ -6559,24 +7818,24 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="48" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="48">
+      <c r="E58" s="38">
         <v>20230101</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G58" s="48" t="s">
+      <c r="G58" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="38" t="s">
         <v>84</v>
       </c>
       <c r="I58" s="37">
@@ -6591,24 +7850,24 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="48" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="38">
         <v>20230201</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="48" t="s">
+      <c r="G59" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="38" t="s">
         <v>85</v>
       </c>
       <c r="I59" s="37">
@@ -6623,18 +7882,18 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="35">
         <f>SUM(K40:K59)</f>
         <v>197532.99999999997</v>
@@ -6662,1111 +7921,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48418D21-3D32-4263-8E16-B31D83DBE4A6}">
-  <dimension ref="A1:X20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.4140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="13" t="str">
-        <f ca="1">COUNTA(OFFSET(B$7,0,0,COUNTA(A:A)-1,1))&amp;"名"</f>
-        <v>11名</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="14" t="str">
-        <f ca="1">TEXT(SUM(H20,M20,R20,W20),"#,###")&amp;"円"</f>
-        <v>2,734,188円</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="5" spans="1:24" s="17" customFormat="1">
-      <c r="A5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="16"/>
-    </row>
-    <row r="6" spans="1:24" s="17" customFormat="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="15"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="18">
-        <v>44915</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="20">
-        <v>36</v>
-      </c>
-      <c r="D7" s="21">
-        <v>5728</v>
-      </c>
-      <c r="E7" s="21">
-        <v>68736</v>
-      </c>
-      <c r="F7" s="21">
-        <v>62868</v>
-      </c>
-      <c r="G7" s="21">
-        <v>5532</v>
-      </c>
-      <c r="H7" s="21">
-        <v>84996</v>
-      </c>
-      <c r="I7" s="21">
-        <v>915</v>
-      </c>
-      <c r="J7" s="21">
-        <v>10980</v>
-      </c>
-      <c r="K7" s="21">
-        <v>9888</v>
-      </c>
-      <c r="L7" s="21">
-        <v>612</v>
-      </c>
-      <c r="M7" s="21">
-        <v>11112</v>
-      </c>
-      <c r="N7" s="21">
-        <v>7795</v>
-      </c>
-      <c r="O7" s="22">
-        <v>93540</v>
-      </c>
-      <c r="P7" s="22">
-        <v>93168</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>16464</v>
-      </c>
-      <c r="R7" s="21">
-        <v>159024</v>
-      </c>
-      <c r="S7" s="21">
-        <v>2479</v>
-      </c>
-      <c r="T7" s="21">
-        <v>29748</v>
-      </c>
-      <c r="U7" s="21">
-        <v>29160</v>
-      </c>
-      <c r="V7" s="21">
-        <v>1956</v>
-      </c>
-      <c r="W7" s="21">
-        <v>31116</v>
-      </c>
-      <c r="X7" s="15"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="18">
-        <v>44905</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="20">
-        <v>27</v>
-      </c>
-      <c r="D8" s="21">
-        <v>4071</v>
-      </c>
-      <c r="E8" s="21">
-        <v>48852</v>
-      </c>
-      <c r="F8" s="21">
-        <v>44664</v>
-      </c>
-      <c r="G8" s="21">
-        <v>3936</v>
-      </c>
-      <c r="H8" s="21">
-        <v>60408</v>
-      </c>
-      <c r="I8" s="21">
-        <v>719</v>
-      </c>
-      <c r="J8" s="21">
-        <v>8628</v>
-      </c>
-      <c r="K8" s="21">
-        <v>7776</v>
-      </c>
-      <c r="L8" s="21">
-        <v>480</v>
-      </c>
-      <c r="M8" s="21">
-        <v>8736</v>
-      </c>
-      <c r="N8" s="22">
-        <v>6796</v>
-      </c>
-      <c r="O8" s="22">
-        <v>81552</v>
-      </c>
-      <c r="P8" s="22">
-        <v>81228</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>14352</v>
-      </c>
-      <c r="R8" s="22">
-        <v>138636</v>
-      </c>
-      <c r="S8" s="21">
-        <v>1390</v>
-      </c>
-      <c r="T8" s="21">
-        <v>16680</v>
-      </c>
-      <c r="U8" s="21">
-        <v>16344</v>
-      </c>
-      <c r="V8" s="21">
-        <v>1032</v>
-      </c>
-      <c r="W8" s="21">
-        <v>17376</v>
-      </c>
-      <c r="X8" s="15"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="18">
-        <v>44912</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="20">
-        <v>26</v>
-      </c>
-      <c r="D9" s="21">
-        <v>3920</v>
-      </c>
-      <c r="E9" s="21">
-        <v>47040</v>
-      </c>
-      <c r="F9" s="21">
-        <v>43008</v>
-      </c>
-      <c r="G9" s="21">
-        <v>3792</v>
-      </c>
-      <c r="H9" s="21">
-        <v>58176</v>
-      </c>
-      <c r="I9" s="21">
-        <v>705</v>
-      </c>
-      <c r="J9" s="21">
-        <v>8460</v>
-      </c>
-      <c r="K9" s="21">
-        <v>7620</v>
-      </c>
-      <c r="L9" s="21">
-        <v>468</v>
-      </c>
-      <c r="M9" s="21">
-        <v>8556</v>
-      </c>
-      <c r="N9" s="21">
-        <v>6699</v>
-      </c>
-      <c r="O9" s="22">
-        <v>80388</v>
-      </c>
-      <c r="P9" s="22">
-        <v>80076</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>14148</v>
-      </c>
-      <c r="R9" s="21">
-        <v>136668</v>
-      </c>
-      <c r="S9" s="21">
-        <v>2695</v>
-      </c>
-      <c r="T9" s="21">
-        <v>32340</v>
-      </c>
-      <c r="U9" s="21">
-        <v>31692</v>
-      </c>
-      <c r="V9" s="21">
-        <v>2124</v>
-      </c>
-      <c r="W9" s="21">
-        <v>33816</v>
-      </c>
-      <c r="X9" s="15"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="18">
-        <v>44903</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20">
-        <v>26</v>
-      </c>
-      <c r="D10" s="21">
-        <v>6210</v>
-      </c>
-      <c r="E10" s="21">
-        <v>74520</v>
-      </c>
-      <c r="F10" s="21">
-        <v>68136</v>
-      </c>
-      <c r="G10" s="21">
-        <v>5988</v>
-      </c>
-      <c r="H10" s="21">
-        <v>92088</v>
-      </c>
-      <c r="I10" s="21">
-        <v>975</v>
-      </c>
-      <c r="J10" s="21">
-        <v>11700</v>
-      </c>
-      <c r="K10" s="21">
-        <v>10536</v>
-      </c>
-      <c r="L10" s="21">
-        <v>648</v>
-      </c>
-      <c r="M10" s="21">
-        <v>11832</v>
-      </c>
-      <c r="N10" s="21">
-        <v>8094</v>
-      </c>
-      <c r="O10" s="22">
-        <v>97128</v>
-      </c>
-      <c r="P10" s="22">
-        <v>96744</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>17100</v>
-      </c>
-      <c r="R10" s="21">
-        <v>165144</v>
-      </c>
-      <c r="S10" s="21">
-        <v>1390</v>
-      </c>
-      <c r="T10" s="21">
-        <v>16680</v>
-      </c>
-      <c r="U10" s="21">
-        <v>16344</v>
-      </c>
-      <c r="V10" s="21">
-        <v>1032</v>
-      </c>
-      <c r="W10" s="21">
-        <v>17376</v>
-      </c>
-      <c r="X10" s="15"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="18">
-        <v>44916</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="20">
-        <v>35</v>
-      </c>
-      <c r="D11" s="21">
-        <v>5511</v>
-      </c>
-      <c r="E11" s="21">
-        <v>66132</v>
-      </c>
-      <c r="F11" s="21">
-        <v>60480</v>
-      </c>
-      <c r="G11" s="21">
-        <v>5316</v>
-      </c>
-      <c r="H11" s="21">
-        <v>81744</v>
-      </c>
-      <c r="I11" s="21">
-        <v>888</v>
-      </c>
-      <c r="J11" s="21">
-        <v>10656</v>
-      </c>
-      <c r="K11" s="21">
-        <v>9600</v>
-      </c>
-      <c r="L11" s="21">
-        <v>588</v>
-      </c>
-      <c r="M11" s="21">
-        <v>10776</v>
-      </c>
-      <c r="N11" s="21">
-        <v>7662</v>
-      </c>
-      <c r="O11" s="22">
-        <v>91944</v>
-      </c>
-      <c r="P11" s="22">
-        <v>91584</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>16188</v>
-      </c>
-      <c r="R11" s="21">
-        <v>156336</v>
-      </c>
-      <c r="S11" s="21">
-        <v>2479</v>
-      </c>
-      <c r="T11" s="21">
-        <v>29748</v>
-      </c>
-      <c r="U11" s="21">
-        <v>29160</v>
-      </c>
-      <c r="V11" s="21">
-        <v>1956</v>
-      </c>
-      <c r="W11" s="21">
-        <v>31116</v>
-      </c>
-      <c r="X11" s="15"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="18">
-        <v>44931</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="20">
-        <v>30</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0</v>
-      </c>
-      <c r="M12" s="21">
-        <v>0</v>
-      </c>
-      <c r="N12" s="21">
-        <v>7147</v>
-      </c>
-      <c r="O12" s="21">
-        <v>85764</v>
-      </c>
-      <c r="P12" s="21">
-        <v>85428</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>15096</v>
-      </c>
-      <c r="R12" s="21">
-        <v>145812</v>
-      </c>
-      <c r="S12" s="21">
-        <v>0</v>
-      </c>
-      <c r="T12" s="21">
-        <v>0</v>
-      </c>
-      <c r="U12" s="21">
-        <v>0</v>
-      </c>
-      <c r="V12" s="21">
-        <v>0</v>
-      </c>
-      <c r="W12" s="21">
-        <v>0</v>
-      </c>
-      <c r="X12" s="15"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="18">
-        <v>44937</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="20">
-        <v>24</v>
-      </c>
-      <c r="D13" s="21">
-        <v>5914</v>
-      </c>
-      <c r="E13" s="21">
-        <v>70968</v>
-      </c>
-      <c r="F13" s="21">
-        <v>64908</v>
-      </c>
-      <c r="G13" s="21">
-        <v>5724</v>
-      </c>
-      <c r="H13" s="21">
-        <v>87804</v>
-      </c>
-      <c r="I13" s="21">
-        <v>903</v>
-      </c>
-      <c r="J13" s="21">
-        <v>10836</v>
-      </c>
-      <c r="K13" s="21">
-        <v>9756</v>
-      </c>
-      <c r="L13" s="21">
-        <v>600</v>
-      </c>
-      <c r="M13" s="21">
-        <v>10956</v>
-      </c>
-      <c r="N13" s="21">
-        <v>11048</v>
-      </c>
-      <c r="O13" s="22">
-        <v>132576</v>
-      </c>
-      <c r="P13" s="22">
-        <v>132048</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>23340</v>
-      </c>
-      <c r="R13" s="21">
-        <v>225408</v>
-      </c>
-      <c r="S13" s="21">
-        <v>2581</v>
-      </c>
-      <c r="T13" s="21">
-        <v>30972</v>
-      </c>
-      <c r="U13" s="21">
-        <v>30360</v>
-      </c>
-      <c r="V13" s="21">
-        <v>2040</v>
-      </c>
-      <c r="W13" s="21">
-        <v>32400</v>
-      </c>
-      <c r="X13" s="15"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="18">
-        <v>44959</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="20">
-        <v>25</v>
-      </c>
-      <c r="D14" s="21">
-        <v>3839</v>
-      </c>
-      <c r="E14" s="21">
-        <v>46068</v>
-      </c>
-      <c r="F14" s="21">
-        <v>42156</v>
-      </c>
-      <c r="G14" s="21">
-        <v>3732</v>
-      </c>
-      <c r="H14" s="21">
-        <v>57084</v>
-      </c>
-      <c r="I14" s="21">
-        <v>692</v>
-      </c>
-      <c r="J14" s="21">
-        <v>8304</v>
-      </c>
-      <c r="K14" s="21">
-        <v>7476</v>
-      </c>
-      <c r="L14" s="21">
-        <v>456</v>
-      </c>
-      <c r="M14" s="21">
-        <v>8388</v>
-      </c>
-      <c r="N14" s="21">
-        <v>8467</v>
-      </c>
-      <c r="O14" s="22">
-        <v>101604</v>
-      </c>
-      <c r="P14" s="22">
-        <v>101208</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>17892</v>
-      </c>
-      <c r="R14" s="21">
-        <v>172776</v>
-      </c>
-      <c r="S14" s="21">
-        <v>2603</v>
-      </c>
-      <c r="T14" s="21">
-        <v>31236</v>
-      </c>
-      <c r="U14" s="21">
-        <v>30612</v>
-      </c>
-      <c r="V14" s="21">
-        <v>2040</v>
-      </c>
-      <c r="W14" s="21">
-        <v>32652</v>
-      </c>
-      <c r="X14" s="15"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="18">
-        <v>44959</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="20">
-        <v>29</v>
-      </c>
-      <c r="D15" s="21">
-        <v>3693</v>
-      </c>
-      <c r="E15" s="21">
-        <v>44316</v>
-      </c>
-      <c r="F15" s="21">
-        <v>40536</v>
-      </c>
-      <c r="G15" s="21">
-        <v>3588</v>
-      </c>
-      <c r="H15" s="21">
-        <v>54888</v>
-      </c>
-      <c r="I15" s="21">
-        <v>944</v>
-      </c>
-      <c r="J15" s="21">
-        <v>11328</v>
-      </c>
-      <c r="K15" s="21">
-        <v>10200</v>
-      </c>
-      <c r="L15" s="21">
-        <v>624</v>
-      </c>
-      <c r="M15" s="21">
-        <v>11448</v>
-      </c>
-      <c r="N15" s="21">
-        <v>12518</v>
-      </c>
-      <c r="O15" s="22">
-        <v>150216</v>
-      </c>
-      <c r="P15" s="22">
-        <v>149616</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>26448</v>
-      </c>
-      <c r="R15" s="21">
-        <v>255408</v>
-      </c>
-      <c r="S15" s="21">
-        <v>2935</v>
-      </c>
-      <c r="T15" s="21">
-        <v>35220</v>
-      </c>
-      <c r="U15" s="21">
-        <v>34512</v>
-      </c>
-      <c r="V15" s="21">
-        <v>2292</v>
-      </c>
-      <c r="W15" s="21">
-        <v>36804</v>
-      </c>
-      <c r="X15" s="15"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="18">
-        <v>44969</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="20">
-        <v>26</v>
-      </c>
-      <c r="D16" s="21">
-        <v>3920</v>
-      </c>
-      <c r="E16" s="21">
-        <v>47040</v>
-      </c>
-      <c r="F16" s="21">
-        <v>43008</v>
-      </c>
-      <c r="G16" s="21">
-        <v>3792</v>
-      </c>
-      <c r="H16" s="21">
-        <v>58176</v>
-      </c>
-      <c r="I16" s="21">
-        <v>705</v>
-      </c>
-      <c r="J16" s="21">
-        <v>8460</v>
-      </c>
-      <c r="K16" s="21">
-        <v>7620</v>
-      </c>
-      <c r="L16" s="21">
-        <v>468</v>
-      </c>
-      <c r="M16" s="21">
-        <v>8556</v>
-      </c>
-      <c r="N16" s="21">
-        <v>6699</v>
-      </c>
-      <c r="O16" s="22">
-        <v>80388</v>
-      </c>
-      <c r="P16" s="22">
-        <v>80076</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>14148</v>
-      </c>
-      <c r="R16" s="21">
-        <v>136668</v>
-      </c>
-      <c r="S16" s="21">
-        <v>2695</v>
-      </c>
-      <c r="T16" s="21">
-        <v>32340</v>
-      </c>
-      <c r="U16" s="21">
-        <v>31692</v>
-      </c>
-      <c r="V16" s="21">
-        <v>2124</v>
-      </c>
-      <c r="W16" s="21">
-        <v>33816</v>
-      </c>
-      <c r="X16" s="15"/>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="18">
-        <v>44969</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="20">
-        <v>30</v>
-      </c>
-      <c r="D17" s="21">
-        <v>2741</v>
-      </c>
-      <c r="E17" s="21">
-        <v>32892</v>
-      </c>
-      <c r="F17" s="21">
-        <v>30084</v>
-      </c>
-      <c r="G17" s="21">
-        <v>2664</v>
-      </c>
-      <c r="H17" s="21">
-        <v>40740</v>
-      </c>
-      <c r="I17" s="21">
-        <v>772</v>
-      </c>
-      <c r="J17" s="21">
-        <v>9264</v>
-      </c>
-      <c r="K17" s="21">
-        <v>8340</v>
-      </c>
-      <c r="L17" s="21">
-        <v>516</v>
-      </c>
-      <c r="M17" s="21">
-        <v>9372</v>
-      </c>
-      <c r="N17" s="21">
-        <v>0</v>
-      </c>
-      <c r="O17" s="21">
-        <v>0</v>
-      </c>
-      <c r="P17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>0</v>
-      </c>
-      <c r="R17" s="21">
-        <v>0</v>
-      </c>
-      <c r="S17" s="21">
-        <v>0</v>
-      </c>
-      <c r="T17" s="21">
-        <v>0</v>
-      </c>
-      <c r="U17" s="21">
-        <v>0</v>
-      </c>
-      <c r="V17" s="21">
-        <v>0</v>
-      </c>
-      <c r="W17" s="21">
-        <v>0</v>
-      </c>
-      <c r="X17" s="15"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="15"/>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="15"/>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="C20" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="26">
-        <f ca="1">SUM(OFFSET(D$7,0,0,COUNTA(A:A)-1,1))</f>
-        <v>45547</v>
-      </c>
-      <c r="E20" s="26">
-        <f ca="1">SUM(OFFSET(E$7,0,0,COUNTA(A:A)-1,1))</f>
-        <v>546564</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" ref="F20:W20" ca="1" si="0">SUM(OFFSET(F$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>499848</v>
-      </c>
-      <c r="G20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>44064</v>
-      </c>
-      <c r="H20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>676104</v>
-      </c>
-      <c r="I20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>8218</v>
-      </c>
-      <c r="J20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>98616</v>
-      </c>
-      <c r="K20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>88812</v>
-      </c>
-      <c r="L20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>5460</v>
-      </c>
-      <c r="M20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>99732</v>
-      </c>
-      <c r="N20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>82925</v>
-      </c>
-      <c r="O20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>995100</v>
-      </c>
-      <c r="P20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>991176</v>
-      </c>
-      <c r="Q20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>175176</v>
-      </c>
-      <c r="R20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>1691880</v>
-      </c>
-      <c r="S20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>21247</v>
-      </c>
-      <c r="T20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>254964</v>
-      </c>
-      <c r="U20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>249876</v>
-      </c>
-      <c r="V20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>16596</v>
-      </c>
-      <c r="W20" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>266472</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:M5"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627AD4C1-29C6-4F75-90FF-BA32C0A8F5DD}">
   <dimension ref="A1:I37"/>
@@ -7775,7 +7929,7 @@
       <selection sqref="A1:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="7"/>

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7F95A-7A4D-41F0-AFAC-CC4B6B1EBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0936AF5-0C02-4A47-B0CB-C44CFA8656D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="99">
   <si>
     <t>①ネオdeいりょう</t>
   </si>
@@ -418,6 +418,47 @@
   </si>
   <si>
     <t>阿部　渉</t>
+  </si>
+  <si>
+    <t>玉内  一樹</t>
+  </si>
+  <si>
+    <t>山本  匠真</t>
+  </si>
+  <si>
+    <t>八木  ＊行</t>
+  </si>
+  <si>
+    <t>山口  ＊人</t>
+  </si>
+  <si>
+    <t>玉内  ＊樹</t>
+  </si>
+  <si>
+    <t>堀田  ＊貴</t>
+  </si>
+  <si>
+    <t>野崎  ＊梨華</t>
+  </si>
+  <si>
+    <t>岡  ＊亮</t>
+  </si>
+  <si>
+    <t>FPL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023年5月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4787,9 +4828,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6021,6 +6062,1253 @@
         <v>294540</v>
       </c>
     </row>
+    <row r="61" spans="3:11">
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <v>20230101</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61">
+        <v>43008</v>
+      </c>
+      <c r="J61">
+        <v>0.7</v>
+      </c>
+      <c r="K61">
+        <v>27368</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11">
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62">
+        <v>20230101</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62">
+        <v>7620</v>
+      </c>
+      <c r="J62">
+        <v>0.7</v>
+      </c>
+      <c r="K62">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11">
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63">
+        <v>20230101</v>
+      </c>
+      <c r="F63" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63">
+        <v>80076</v>
+      </c>
+      <c r="J63">
+        <v>0.7</v>
+      </c>
+      <c r="K63">
+        <v>50957</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11">
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64">
+        <v>20230101</v>
+      </c>
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>60480</v>
+      </c>
+      <c r="J64">
+        <v>0.7</v>
+      </c>
+      <c r="K64">
+        <v>38487</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <v>20230301</v>
+      </c>
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65">
+        <v>43008</v>
+      </c>
+      <c r="J65">
+        <v>0.7</v>
+      </c>
+      <c r="K65">
+        <v>27368</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66">
+        <v>20230301</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66">
+        <v>7620</v>
+      </c>
+      <c r="J66">
+        <v>0.7</v>
+      </c>
+      <c r="K66">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67">
+        <v>20230301</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67">
+        <v>80076</v>
+      </c>
+      <c r="J67">
+        <v>0.7</v>
+      </c>
+      <c r="K67">
+        <v>50957</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <v>20220901</v>
+      </c>
+      <c r="F68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68">
+        <v>-17297</v>
+      </c>
+      <c r="J68">
+        <v>0.7</v>
+      </c>
+      <c r="K68">
+        <v>-12107</v>
+      </c>
+      <c r="L68">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12">
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69">
+        <v>20220901</v>
+      </c>
+      <c r="F69" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69">
+        <v>3530</v>
+      </c>
+      <c r="J69">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12">
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70">
+        <v>20220901</v>
+      </c>
+      <c r="F70" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70">
+        <v>-1680</v>
+      </c>
+      <c r="J70">
+        <v>0.7</v>
+      </c>
+      <c r="K70">
+        <v>-1176</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12">
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71">
+        <v>20220901</v>
+      </c>
+      <c r="F71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71">
+        <v>343</v>
+      </c>
+      <c r="J71">
+        <v>0.7</v>
+      </c>
+      <c r="K71">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12">
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72">
+        <v>20220901</v>
+      </c>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72">
+        <v>2065</v>
+      </c>
+      <c r="J72">
+        <v>0.7</v>
+      </c>
+      <c r="K72">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12">
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73">
+        <v>20220901</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73">
+        <v>342</v>
+      </c>
+      <c r="J73">
+        <v>0.7</v>
+      </c>
+      <c r="K73">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12">
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74">
+        <v>20220901</v>
+      </c>
+      <c r="F74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74">
+        <v>2236</v>
+      </c>
+      <c r="J74">
+        <v>0.7</v>
+      </c>
+      <c r="K74">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12">
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75">
+        <v>20220901</v>
+      </c>
+      <c r="F75" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75">
+        <v>342</v>
+      </c>
+      <c r="J75">
+        <v>0.7</v>
+      </c>
+      <c r="K75">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12">
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76">
+        <v>20221101</v>
+      </c>
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>2427</v>
+      </c>
+      <c r="J76">
+        <v>0.7</v>
+      </c>
+      <c r="K76">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12">
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77">
+        <v>20221101</v>
+      </c>
+      <c r="F77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>342</v>
+      </c>
+      <c r="J77">
+        <v>0.7</v>
+      </c>
+      <c r="K77">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12">
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78">
+        <v>20221101</v>
+      </c>
+      <c r="F78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78">
+        <v>1219</v>
+      </c>
+      <c r="J78">
+        <v>0.7</v>
+      </c>
+      <c r="K78">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12">
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79">
+        <v>20221101</v>
+      </c>
+      <c r="F79" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79">
+        <v>372</v>
+      </c>
+      <c r="J79">
+        <v>0.7</v>
+      </c>
+      <c r="K79">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12">
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80">
+        <v>20221201</v>
+      </c>
+      <c r="F80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>83</v>
+      </c>
+      <c r="I80">
+        <v>2624</v>
+      </c>
+      <c r="J80">
+        <v>0.7</v>
+      </c>
+      <c r="K80">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11">
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81">
+        <v>20221201</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81">
+        <v>386</v>
+      </c>
+      <c r="J81">
+        <v>0.7</v>
+      </c>
+      <c r="K81">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11">
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82">
+        <v>20230101</v>
+      </c>
+      <c r="F82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82">
+        <v>1065</v>
+      </c>
+      <c r="J82">
+        <v>0.7</v>
+      </c>
+      <c r="K82">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11">
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83">
+        <v>20230101</v>
+      </c>
+      <c r="F83" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83">
+        <v>387</v>
+      </c>
+      <c r="J83">
+        <v>0.7</v>
+      </c>
+      <c r="K83">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11">
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84">
+        <v>20230101</v>
+      </c>
+      <c r="F84" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84">
+        <v>2624</v>
+      </c>
+      <c r="J84">
+        <v>0.7</v>
+      </c>
+      <c r="K84">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11">
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85">
+        <v>20230101</v>
+      </c>
+      <c r="F85" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85">
+        <v>386</v>
+      </c>
+      <c r="J85">
+        <v>0.7</v>
+      </c>
+      <c r="K85">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11">
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86">
+        <v>20230101</v>
+      </c>
+      <c r="F86" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" t="s">
+        <v>93</v>
+      </c>
+      <c r="I86">
+        <v>2519</v>
+      </c>
+      <c r="J86">
+        <v>0.7</v>
+      </c>
+      <c r="K86">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11">
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87">
+        <v>20230101</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87">
+        <v>386</v>
+      </c>
+      <c r="J87">
+        <v>0.7</v>
+      </c>
+      <c r="K87">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11">
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88">
+        <v>20230101</v>
+      </c>
+      <c r="F88" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" t="s">
+        <v>93</v>
+      </c>
+      <c r="I88">
+        <v>2519</v>
+      </c>
+      <c r="J88">
+        <v>0.7</v>
+      </c>
+      <c r="K88">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11">
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89">
+        <v>20230101</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s">
+        <v>93</v>
+      </c>
+      <c r="I89">
+        <v>386</v>
+      </c>
+      <c r="J89">
+        <v>0.7</v>
+      </c>
+      <c r="K89">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11">
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90">
+        <v>20230101</v>
+      </c>
+      <c r="F90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90">
+        <v>2519</v>
+      </c>
+      <c r="J90">
+        <v>0.7</v>
+      </c>
+      <c r="K90">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11">
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91">
+        <v>20230101</v>
+      </c>
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" t="s">
+        <v>82</v>
+      </c>
+      <c r="H91" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91">
+        <v>386</v>
+      </c>
+      <c r="J91">
+        <v>0.7</v>
+      </c>
+      <c r="K91">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11">
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92">
+        <v>20230101</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92">
+        <v>2286</v>
+      </c>
+      <c r="J92">
+        <v>0.7</v>
+      </c>
+      <c r="K92">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11">
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93">
+        <v>20230101</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93">
+        <v>387</v>
+      </c>
+      <c r="J93">
+        <v>0.7</v>
+      </c>
+      <c r="K93">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11">
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94">
+        <v>20230101</v>
+      </c>
+      <c r="F94" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94">
+        <v>2203</v>
+      </c>
+      <c r="J94">
+        <v>0.7</v>
+      </c>
+      <c r="K94">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11">
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95">
+        <v>20230101</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95">
+        <v>387</v>
+      </c>
+      <c r="J95">
+        <v>0.7</v>
+      </c>
+      <c r="K95">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11">
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96">
+        <v>20230201</v>
+      </c>
+      <c r="F96" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" t="s">
+        <v>95</v>
+      </c>
+      <c r="I96">
+        <v>2396</v>
+      </c>
+      <c r="J96">
+        <v>0.7</v>
+      </c>
+      <c r="K96">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11">
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97">
+        <v>20230201</v>
+      </c>
+      <c r="F97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" t="s">
+        <v>95</v>
+      </c>
+      <c r="I97">
+        <v>387</v>
+      </c>
+      <c r="J97">
+        <v>0.7</v>
+      </c>
+      <c r="K97">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11">
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98">
+        <v>20230201</v>
+      </c>
+      <c r="F98" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" t="s">
+        <v>68</v>
+      </c>
+      <c r="H98" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98">
+        <v>2420</v>
+      </c>
+      <c r="J98">
+        <v>0.7</v>
+      </c>
+      <c r="K98">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11">
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99">
+        <v>20230201</v>
+      </c>
+      <c r="F99" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99">
+        <v>386</v>
+      </c>
+      <c r="J99">
+        <v>0.7</v>
+      </c>
+      <c r="K99">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11">
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100">
+        <v>20230401</v>
+      </c>
+      <c r="F100" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100">
+        <v>1188</v>
+      </c>
+      <c r="J100">
+        <v>0.7</v>
+      </c>
+      <c r="K100">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11">
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101">
+        <v>20230401</v>
+      </c>
+      <c r="F101" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>387</v>
+      </c>
+      <c r="J101">
+        <v>0.7</v>
+      </c>
+      <c r="K101">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11">
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102">
+        <v>20230401</v>
+      </c>
+      <c r="F102" t="s">
+        <v>57</v>
+      </c>
+      <c r="G102" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102" t="s">
+        <v>96</v>
+      </c>
+      <c r="I102">
+        <v>805</v>
+      </c>
+      <c r="J102">
+        <v>0.7</v>
+      </c>
+      <c r="K102">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11">
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103">
+        <v>20230401</v>
+      </c>
+      <c r="F103" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s">
+        <v>96</v>
+      </c>
+      <c r="I103">
+        <v>386</v>
+      </c>
+      <c r="J103">
+        <v>0.7</v>
+      </c>
+      <c r="K103">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="N5:R5"/>
@@ -6034,7 +7322,12 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="60" max="16383" man="1"/>
+    <brk id="68" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="1" max="1048575" man="1"/>
     <brk id="23" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
@@ -6045,19 +7338,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
@@ -7301,7 +8591,7 @@
         <v>0.7</v>
       </c>
       <c r="K41" s="33">
-        <f t="shared" ref="K41:K59" si="1">I41*J41</f>
+        <f t="shared" ref="K41:K103" si="1">I41*J41</f>
         <v>44007.6</v>
       </c>
     </row>
@@ -7899,25 +9189,1428 @@
         <v>197532.99999999997</v>
       </c>
     </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="43">
+        <v>45047</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="37">
+        <v>43008</v>
+      </c>
+      <c r="J61" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K61" s="33">
+        <f t="shared" si="1"/>
+        <v>30105.599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62" s="37">
+        <v>7620</v>
+      </c>
+      <c r="J62" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K62" s="33">
+        <f t="shared" si="1"/>
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="37">
+        <v>80076</v>
+      </c>
+      <c r="J63" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K63" s="33">
+        <f t="shared" si="1"/>
+        <v>56053.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" s="37">
+        <v>60480</v>
+      </c>
+      <c r="J64" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K64" s="33">
+        <f t="shared" si="1"/>
+        <v>42336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="37">
+        <v>43008</v>
+      </c>
+      <c r="J65" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K65" s="33">
+        <f t="shared" si="1"/>
+        <v>30105.599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="37">
+        <v>7620</v>
+      </c>
+      <c r="J66" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K66" s="33">
+        <f t="shared" si="1"/>
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" s="37">
+        <v>80076</v>
+      </c>
+      <c r="J67" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K67" s="33">
+        <f t="shared" si="1"/>
+        <v>56053.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="37">
+        <v>-17297</v>
+      </c>
+      <c r="J68" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K68" s="33">
+        <f t="shared" si="1"/>
+        <v>-12107.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="37">
+        <v>3530</v>
+      </c>
+      <c r="J69" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K69" s="33">
+        <f t="shared" si="1"/>
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="37">
+        <v>-1680</v>
+      </c>
+      <c r="J70" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K70" s="33">
+        <f t="shared" si="1"/>
+        <v>-1176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="37">
+        <v>343</v>
+      </c>
+      <c r="J71" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K71" s="33">
+        <f t="shared" si="1"/>
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72" s="37">
+        <v>2065</v>
+      </c>
+      <c r="J72" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K72" s="33">
+        <f t="shared" si="1"/>
+        <v>1445.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="37">
+        <v>342</v>
+      </c>
+      <c r="J73" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K73" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74" s="37">
+        <v>2236</v>
+      </c>
+      <c r="J74" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K74" s="33">
+        <f t="shared" si="1"/>
+        <v>1565.1999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75" s="37">
+        <v>342</v>
+      </c>
+      <c r="J75" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K75" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76" s="37">
+        <v>2427</v>
+      </c>
+      <c r="J76" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K76" s="33">
+        <f t="shared" si="1"/>
+        <v>1698.8999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77" s="37">
+        <v>342</v>
+      </c>
+      <c r="J77" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K77" s="33">
+        <f t="shared" si="1"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78" s="37">
+        <v>1219</v>
+      </c>
+      <c r="J78" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K78" s="33">
+        <f t="shared" si="1"/>
+        <v>853.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79" s="37">
+        <v>372</v>
+      </c>
+      <c r="J79" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K79" s="33">
+        <f t="shared" si="1"/>
+        <v>260.39999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="38">
+        <v>20221201</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I80" s="37">
+        <v>2624</v>
+      </c>
+      <c r="J80" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K80" s="33">
+        <f t="shared" si="1"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="38">
+        <v>20221201</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81" s="37">
+        <v>386</v>
+      </c>
+      <c r="J81" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K81" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="37">
+        <v>1065</v>
+      </c>
+      <c r="J82" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K82" s="33">
+        <f t="shared" si="1"/>
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="37">
+        <v>387</v>
+      </c>
+      <c r="J83" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K83" s="33">
+        <f t="shared" si="1"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="37">
+        <v>2624</v>
+      </c>
+      <c r="J84" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K84" s="33">
+        <f t="shared" si="1"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="37">
+        <v>386</v>
+      </c>
+      <c r="J85" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K85" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I86" s="37">
+        <v>2519</v>
+      </c>
+      <c r="J86" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K86" s="33">
+        <f t="shared" si="1"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87" s="37">
+        <v>386</v>
+      </c>
+      <c r="J87" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K87" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I88" s="37">
+        <v>2519</v>
+      </c>
+      <c r="J88" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K88" s="33">
+        <f t="shared" si="1"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I89" s="37">
+        <v>386</v>
+      </c>
+      <c r="J89" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K89" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90" s="37">
+        <v>2519</v>
+      </c>
+      <c r="J90" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K90" s="33">
+        <f t="shared" si="1"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91" s="37">
+        <v>386</v>
+      </c>
+      <c r="J91" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K91" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92" s="37">
+        <v>2286</v>
+      </c>
+      <c r="J92" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K92" s="33">
+        <f t="shared" si="1"/>
+        <v>1600.1999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93" s="37">
+        <v>387</v>
+      </c>
+      <c r="J93" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K93" s="33">
+        <f t="shared" si="1"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="37">
+        <v>2203</v>
+      </c>
+      <c r="J94" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K94" s="33">
+        <f t="shared" si="1"/>
+        <v>1542.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" s="37">
+        <v>387</v>
+      </c>
+      <c r="J95" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K95" s="33">
+        <f t="shared" si="1"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="38">
+        <v>20230201</v>
+      </c>
+      <c r="F96" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I96" s="37">
+        <v>2396</v>
+      </c>
+      <c r="J96" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K96" s="33">
+        <f t="shared" si="1"/>
+        <v>1677.1999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="38">
+        <v>20230201</v>
+      </c>
+      <c r="F97" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I97" s="37">
+        <v>387</v>
+      </c>
+      <c r="J97" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K97" s="33">
+        <f t="shared" si="1"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="38">
+        <v>20230201</v>
+      </c>
+      <c r="F98" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H98" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98" s="37">
+        <v>2420</v>
+      </c>
+      <c r="J98" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K98" s="33">
+        <f t="shared" si="1"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="38">
+        <v>20230201</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99" s="37">
+        <v>386</v>
+      </c>
+      <c r="J99" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K99" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="38">
+        <v>20230401</v>
+      </c>
+      <c r="F100" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" s="37">
+        <v>1188</v>
+      </c>
+      <c r="J100" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K100" s="33">
+        <f t="shared" si="1"/>
+        <v>831.59999999999991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="38">
+        <v>20230401</v>
+      </c>
+      <c r="F101" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101" s="37">
+        <v>387</v>
+      </c>
+      <c r="J101" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K101" s="33">
+        <f t="shared" si="1"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="38">
+        <v>20230401</v>
+      </c>
+      <c r="F102" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G102" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I102" s="37">
+        <v>805</v>
+      </c>
+      <c r="J102" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K102" s="33">
+        <f t="shared" si="1"/>
+        <v>563.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103" s="38">
+        <v>20230401</v>
+      </c>
+      <c r="F103" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I103" s="37">
+        <v>386</v>
+      </c>
+      <c r="J103" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K103" s="33">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="35">
+        <f>SUM(K61:K103)</f>
+        <v>242153.8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A40:A59"/>
-    <mergeCell ref="B40:B59"/>
-    <mergeCell ref="A60:J60"/>
+  <mergeCells count="12">
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A17:A38"/>
     <mergeCell ref="B17:B38"/>
+    <mergeCell ref="A61:A103"/>
+    <mergeCell ref="B61:B103"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A40:A59"/>
+    <mergeCell ref="B40:B59"/>
+    <mergeCell ref="A60:J60"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="16" max="16383" man="1"/>
     <brk id="39" max="16383" man="1"/>
+    <brk id="60" max="16383" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="1" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0936AF5-0C02-4A47-B0CB-C44CFA8656D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B198253-360F-4A61-B981-2471D34865A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">一覧!$A$1:$I$217</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">一覧表!$A$1:$W$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">一覧表!$A$1:$W$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="100">
   <si>
     <t>①ネオdeいりょう</t>
   </si>
@@ -460,6 +460,9 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>中西　達哉</t>
+  </si>
 </sst>
 </file>
 
@@ -790,13 +793,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="55" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,7 +1132,7 @@
       </c>
       <c r="H1" t="str">
         <f ca="1">一覧表!B1</f>
-        <v>13名</v>
+        <v>14名</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1144,7 +1147,7 @@
       </c>
       <c r="H2" s="7" t="str">
         <f ca="1">一覧表!B2</f>
-        <v>3,168,312円</v>
+        <v>3,181,824円</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4828,11 +4831,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X103"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4864,7 +4867,7 @@
       </c>
       <c r="B1" s="13" t="str">
         <f ca="1">COUNTA(OFFSET(B$7,0,0,COUNTA(A:A)-1,1))&amp;"名"</f>
-        <v>13名</v>
+        <v>14名</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>77</v>
@@ -4875,8 +4878,8 @@
         <v>34</v>
       </c>
       <c r="B2" s="14" t="str">
-        <f ca="1">TEXT(SUM(H22,M22,R22,W22),"#,###")&amp;"円"</f>
-        <v>3,168,312円</v>
+        <f ca="1">TEXT(SUM(H30,M30,R30,W30),"#,###")&amp;"円"</f>
+        <v>3,181,824円</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -5926,29 +5929,75 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
+      <c r="A20" s="18">
+        <v>45079</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="20">
+        <v>22</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21">
+        <v>1082</v>
+      </c>
+      <c r="T20" s="21">
+        <v>12984</v>
+      </c>
+      <c r="U20" s="21">
+        <v>12732</v>
+      </c>
+      <c r="V20" s="21">
+        <v>780</v>
+      </c>
+      <c r="W20" s="21">
+        <v>13512</v>
+      </c>
       <c r="X20" s="15"/>
     </row>
     <row r="21" spans="1:24">
@@ -5978,323 +6027,296 @@
       <c r="X21" s="15"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="15"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="15"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="15"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="15"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="15"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="C30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D30" s="26">
         <f ca="1">SUM(OFFSET(D$7,0,0,COUNTA(A:A)-1,1))</f>
         <v>52766</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E30" s="26">
         <f ca="1">SUM(OFFSET(E$7,0,0,COUNTA(A:A)-1,1))</f>
         <v>633192</v>
       </c>
-      <c r="F22" s="26">
-        <f t="shared" ref="F22:W22" ca="1" si="0">SUM(OFFSET(F$7,0,0,COUNTA($A:$A)-1,1))</f>
+      <c r="F30" s="26">
+        <f ca="1">SUM(OFFSET(F$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>579096</v>
       </c>
-      <c r="G22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G30" s="26">
+        <f ca="1">SUM(OFFSET(G$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>51060</v>
       </c>
-      <c r="H22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H30" s="26">
+        <f ca="1">SUM(OFFSET(H$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>783336</v>
       </c>
-      <c r="I22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I30" s="26">
+        <f ca="1">SUM(OFFSET(I$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>9662</v>
       </c>
-      <c r="J22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="J30" s="26">
+        <f ca="1">SUM(OFFSET(J$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>115944</v>
       </c>
-      <c r="K22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K30" s="26">
+        <f ca="1">SUM(OFFSET(K$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>104412</v>
       </c>
-      <c r="L22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L30" s="26">
+        <f ca="1">SUM(OFFSET(L$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>6420</v>
       </c>
-      <c r="M22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="M30" s="26">
+        <f ca="1">SUM(OFFSET(M$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>117252</v>
       </c>
-      <c r="N22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N30" s="26">
+        <f ca="1">SUM(OFFSET(N$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>96713</v>
       </c>
-      <c r="O22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="O30" s="26">
+        <f ca="1">SUM(OFFSET(O$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>1160556</v>
       </c>
-      <c r="P22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P30" s="26">
+        <f ca="1">SUM(OFFSET(P$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>1155984</v>
       </c>
-      <c r="Q22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Q30" s="26">
+        <f ca="1">SUM(OFFSET(Q$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>204300</v>
       </c>
-      <c r="R22" s="26">
-        <f t="shared" ca="1" si="0"/>
+      <c r="R30" s="26">
+        <f ca="1">SUM(OFFSET(R$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>1973184</v>
       </c>
-      <c r="S22" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>23494</v>
-      </c>
-      <c r="T22" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>281928</v>
-      </c>
-      <c r="U22" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>276300</v>
-      </c>
-      <c r="V22" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>18240</v>
-      </c>
-      <c r="W22" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>294540</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11">
-      <c r="C61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61">
-        <v>20230101</v>
-      </c>
-      <c r="F61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G61" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61">
-        <v>43008</v>
-      </c>
-      <c r="J61">
-        <v>0.7</v>
-      </c>
-      <c r="K61">
-        <v>27368</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11">
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62">
-        <v>20230101</v>
-      </c>
-      <c r="F62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" t="s">
-        <v>53</v>
-      </c>
-      <c r="H62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62">
-        <v>7620</v>
-      </c>
-      <c r="J62">
-        <v>0.7</v>
-      </c>
-      <c r="K62">
-        <v>4849</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11">
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63">
-        <v>20230101</v>
-      </c>
-      <c r="F63" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" t="s">
-        <v>54</v>
-      </c>
-      <c r="H63" t="s">
-        <v>89</v>
-      </c>
-      <c r="I63">
-        <v>80076</v>
-      </c>
-      <c r="J63">
-        <v>0.7</v>
-      </c>
-      <c r="K63">
-        <v>50957</v>
-      </c>
-    </row>
-    <row r="64" spans="3:11">
-      <c r="C64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64">
-        <v>20230101</v>
-      </c>
-      <c r="F64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" t="s">
-        <v>51</v>
-      </c>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-      <c r="I64">
-        <v>60480</v>
-      </c>
-      <c r="J64">
-        <v>0.7</v>
-      </c>
-      <c r="K64">
-        <v>38487</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12">
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65">
-        <v>20230301</v>
-      </c>
-      <c r="F65" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" t="s">
-        <v>90</v>
-      </c>
-      <c r="I65">
-        <v>43008</v>
-      </c>
-      <c r="J65">
-        <v>0.7</v>
-      </c>
-      <c r="K65">
-        <v>27368</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12">
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66">
-        <v>20230301</v>
-      </c>
-      <c r="F66" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" t="s">
-        <v>53</v>
-      </c>
-      <c r="H66" t="s">
-        <v>90</v>
-      </c>
-      <c r="I66">
-        <v>7620</v>
-      </c>
-      <c r="J66">
-        <v>0.7</v>
-      </c>
-      <c r="K66">
-        <v>4849</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12">
-      <c r="C67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67">
-        <v>20230301</v>
-      </c>
-      <c r="F67" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" t="s">
-        <v>54</v>
-      </c>
-      <c r="H67" t="s">
-        <v>90</v>
-      </c>
-      <c r="I67">
-        <v>80076</v>
-      </c>
-      <c r="J67">
-        <v>0.7</v>
-      </c>
-      <c r="K67">
-        <v>50957</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12">
-      <c r="C68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68">
-        <v>20220901</v>
-      </c>
-      <c r="F68" t="s">
-        <v>57</v>
-      </c>
-      <c r="G68" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" t="s">
-        <v>59</v>
-      </c>
-      <c r="I68">
-        <v>-17297</v>
-      </c>
-      <c r="J68">
-        <v>0.7</v>
-      </c>
-      <c r="K68">
-        <v>-12107</v>
-      </c>
-      <c r="L68">
-        <v>2471</v>
+      <c r="S30" s="26">
+        <f ca="1">SUM(OFFSET(S$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <v>24576</v>
+      </c>
+      <c r="T30" s="26">
+        <f ca="1">SUM(OFFSET(T$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <v>294912</v>
+      </c>
+      <c r="U30" s="26">
+        <f ca="1">SUM(OFFSET(U$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <v>289032</v>
+      </c>
+      <c r="V30" s="26">
+        <f ca="1">SUM(OFFSET(V$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <v>19020</v>
+      </c>
+      <c r="W30" s="26">
+        <f ca="1">SUM(OFFSET(W$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <v>308052</v>
       </c>
     </row>
     <row r="69" spans="3:12">
@@ -6305,22 +6327,25 @@
         <v>49</v>
       </c>
       <c r="E69">
-        <v>20220901</v>
+        <v>20230101</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I69">
-        <v>3530</v>
+        <v>43008</v>
       </c>
       <c r="J69">
         <v>0.7</v>
+      </c>
+      <c r="K69">
+        <v>27368</v>
       </c>
     </row>
     <row r="70" spans="3:12">
@@ -6331,25 +6356,25 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>20220901</v>
+        <v>20230101</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H70" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I70">
-        <v>-1680</v>
+        <v>7620</v>
       </c>
       <c r="J70">
         <v>0.7</v>
       </c>
       <c r="K70">
-        <v>-1176</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="71" spans="3:12">
@@ -6360,25 +6385,25 @@
         <v>49</v>
       </c>
       <c r="E71">
-        <v>20220901</v>
+        <v>20230101</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I71">
-        <v>343</v>
+        <v>80076</v>
       </c>
       <c r="J71">
         <v>0.7</v>
       </c>
       <c r="K71">
-        <v>240</v>
+        <v>50957</v>
       </c>
     </row>
     <row r="72" spans="3:12">
@@ -6389,25 +6414,25 @@
         <v>49</v>
       </c>
       <c r="E72">
-        <v>20220901</v>
+        <v>20230101</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I72">
-        <v>2065</v>
+        <v>60480</v>
       </c>
       <c r="J72">
         <v>0.7</v>
       </c>
       <c r="K72">
-        <v>1445</v>
+        <v>38487</v>
       </c>
     </row>
     <row r="73" spans="3:12">
@@ -6418,25 +6443,25 @@
         <v>49</v>
       </c>
       <c r="E73">
-        <v>20220901</v>
+        <v>20230301</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I73">
-        <v>342</v>
+        <v>43008</v>
       </c>
       <c r="J73">
         <v>0.7</v>
       </c>
       <c r="K73">
-        <v>239</v>
+        <v>27368</v>
       </c>
     </row>
     <row r="74" spans="3:12">
@@ -6447,25 +6472,25 @@
         <v>49</v>
       </c>
       <c r="E74">
-        <v>20220901</v>
+        <v>20230301</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I74">
-        <v>2236</v>
+        <v>7620</v>
       </c>
       <c r="J74">
         <v>0.7</v>
       </c>
       <c r="K74">
-        <v>1565</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="75" spans="3:12">
@@ -6476,36 +6501,36 @@
         <v>49</v>
       </c>
       <c r="E75">
-        <v>20220901</v>
+        <v>20230301</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H75" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I75">
-        <v>342</v>
+        <v>80076</v>
       </c>
       <c r="J75">
         <v>0.7</v>
       </c>
       <c r="K75">
-        <v>239</v>
+        <v>50957</v>
       </c>
     </row>
     <row r="76" spans="3:12">
       <c r="C76" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
       </c>
       <c r="E76">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F76" t="s">
         <v>57</v>
@@ -6514,16 +6539,19 @@
         <v>68</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I76">
-        <v>2427</v>
+        <v>-17297</v>
       </c>
       <c r="J76">
         <v>0.7</v>
       </c>
       <c r="K76">
-        <v>1698</v>
+        <v>-12107</v>
+      </c>
+      <c r="L76">
+        <v>2471</v>
       </c>
     </row>
     <row r="77" spans="3:12">
@@ -6534,25 +6562,22 @@
         <v>49</v>
       </c>
       <c r="E77">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F77" t="s">
         <v>57</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H77" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I77">
-        <v>342</v>
+        <v>3530</v>
       </c>
       <c r="J77">
         <v>0.7</v>
-      </c>
-      <c r="K77">
-        <v>239</v>
       </c>
     </row>
     <row r="78" spans="3:12">
@@ -6563,25 +6588,25 @@
         <v>49</v>
       </c>
       <c r="E78">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F78" t="s">
         <v>57</v>
       </c>
       <c r="G78" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I78">
-        <v>1219</v>
+        <v>-1680</v>
       </c>
       <c r="J78">
         <v>0.7</v>
       </c>
       <c r="K78">
-        <v>853</v>
+        <v>-1176</v>
       </c>
     </row>
     <row r="79" spans="3:12">
@@ -6592,7 +6617,7 @@
         <v>49</v>
       </c>
       <c r="E79">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F79" t="s">
         <v>57</v>
@@ -6601,16 +6626,16 @@
         <v>82</v>
       </c>
       <c r="H79" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I79">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="J79">
         <v>0.7</v>
       </c>
       <c r="K79">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="3:12">
@@ -6621,7 +6646,7 @@
         <v>49</v>
       </c>
       <c r="E80">
-        <v>20221201</v>
+        <v>20220901</v>
       </c>
       <c r="F80" t="s">
         <v>57</v>
@@ -6630,16 +6655,16 @@
         <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I80">
-        <v>2624</v>
+        <v>2065</v>
       </c>
       <c r="J80">
         <v>0.7</v>
       </c>
       <c r="K80">
-        <v>1836</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="81" spans="3:11">
@@ -6650,7 +6675,7 @@
         <v>49</v>
       </c>
       <c r="E81">
-        <v>20221201</v>
+        <v>20220901</v>
       </c>
       <c r="F81" t="s">
         <v>57</v>
@@ -6659,16 +6684,16 @@
         <v>82</v>
       </c>
       <c r="H81" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I81">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="J81">
         <v>0.7</v>
       </c>
       <c r="K81">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="3:11">
@@ -6679,7 +6704,7 @@
         <v>49</v>
       </c>
       <c r="E82">
-        <v>20230101</v>
+        <v>20220901</v>
       </c>
       <c r="F82" t="s">
         <v>57</v>
@@ -6688,16 +6713,16 @@
         <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I82">
-        <v>1065</v>
+        <v>2236</v>
       </c>
       <c r="J82">
         <v>0.7</v>
       </c>
       <c r="K82">
-        <v>745</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="83" spans="3:11">
@@ -6708,7 +6733,7 @@
         <v>49</v>
       </c>
       <c r="E83">
-        <v>20230101</v>
+        <v>20220901</v>
       </c>
       <c r="F83" t="s">
         <v>57</v>
@@ -6717,16 +6742,16 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I83">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="J83">
         <v>0.7</v>
       </c>
       <c r="K83">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="3:11">
@@ -6737,7 +6762,7 @@
         <v>49</v>
       </c>
       <c r="E84">
-        <v>20230101</v>
+        <v>20221101</v>
       </c>
       <c r="F84" t="s">
         <v>57</v>
@@ -6746,16 +6771,16 @@
         <v>68</v>
       </c>
       <c r="H84" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I84">
-        <v>2624</v>
+        <v>2427</v>
       </c>
       <c r="J84">
         <v>0.7</v>
       </c>
       <c r="K84">
-        <v>1836</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="85" spans="3:11">
@@ -6766,7 +6791,7 @@
         <v>49</v>
       </c>
       <c r="E85">
-        <v>20230101</v>
+        <v>20221101</v>
       </c>
       <c r="F85" t="s">
         <v>57</v>
@@ -6775,16 +6800,16 @@
         <v>82</v>
       </c>
       <c r="H85" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I85">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="J85">
         <v>0.7</v>
       </c>
       <c r="K85">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="3:11">
@@ -6795,7 +6820,7 @@
         <v>49</v>
       </c>
       <c r="E86">
-        <v>20230101</v>
+        <v>20221101</v>
       </c>
       <c r="F86" t="s">
         <v>57</v>
@@ -6804,16 +6829,16 @@
         <v>68</v>
       </c>
       <c r="H86" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I86">
-        <v>2519</v>
+        <v>1219</v>
       </c>
       <c r="J86">
         <v>0.7</v>
       </c>
       <c r="K86">
-        <v>1763</v>
+        <v>853</v>
       </c>
     </row>
     <row r="87" spans="3:11">
@@ -6824,7 +6849,7 @@
         <v>49</v>
       </c>
       <c r="E87">
-        <v>20230101</v>
+        <v>20221101</v>
       </c>
       <c r="F87" t="s">
         <v>57</v>
@@ -6833,16 +6858,16 @@
         <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I87">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="J87">
         <v>0.7</v>
       </c>
       <c r="K87">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="3:11">
@@ -6853,7 +6878,7 @@
         <v>49</v>
       </c>
       <c r="E88">
-        <v>20230101</v>
+        <v>20221201</v>
       </c>
       <c r="F88" t="s">
         <v>57</v>
@@ -6862,16 +6887,16 @@
         <v>68</v>
       </c>
       <c r="H88" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I88">
-        <v>2519</v>
+        <v>2624</v>
       </c>
       <c r="J88">
         <v>0.7</v>
       </c>
       <c r="K88">
-        <v>1763</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="89" spans="3:11">
@@ -6882,7 +6907,7 @@
         <v>49</v>
       </c>
       <c r="E89">
-        <v>20230101</v>
+        <v>20221201</v>
       </c>
       <c r="F89" t="s">
         <v>57</v>
@@ -6891,7 +6916,7 @@
         <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I89">
         <v>386</v>
@@ -6920,16 +6945,16 @@
         <v>68</v>
       </c>
       <c r="H90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I90">
-        <v>2519</v>
+        <v>1065</v>
       </c>
       <c r="J90">
         <v>0.7</v>
       </c>
       <c r="K90">
-        <v>1763</v>
+        <v>745</v>
       </c>
     </row>
     <row r="91" spans="3:11">
@@ -6949,10 +6974,10 @@
         <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I91">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J91">
         <v>0.7</v>
@@ -6978,16 +7003,16 @@
         <v>68</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I92">
-        <v>2286</v>
+        <v>2624</v>
       </c>
       <c r="J92">
         <v>0.7</v>
       </c>
       <c r="K92">
-        <v>1600</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="93" spans="3:11">
@@ -7007,10 +7032,10 @@
         <v>82</v>
       </c>
       <c r="H93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I93">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J93">
         <v>0.7</v>
@@ -7036,16 +7061,16 @@
         <v>68</v>
       </c>
       <c r="H94" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I94">
-        <v>2203</v>
+        <v>2519</v>
       </c>
       <c r="J94">
         <v>0.7</v>
       </c>
       <c r="K94">
-        <v>1542</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="95" spans="3:11">
@@ -7065,10 +7090,10 @@
         <v>82</v>
       </c>
       <c r="H95" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I95">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J95">
         <v>0.7</v>
@@ -7085,7 +7110,7 @@
         <v>49</v>
       </c>
       <c r="E96">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F96" t="s">
         <v>57</v>
@@ -7094,16 +7119,16 @@
         <v>68</v>
       </c>
       <c r="H96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I96">
-        <v>2396</v>
+        <v>2519</v>
       </c>
       <c r="J96">
         <v>0.7</v>
       </c>
       <c r="K96">
-        <v>1677</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="97" spans="3:11">
@@ -7114,7 +7139,7 @@
         <v>49</v>
       </c>
       <c r="E97">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F97" t="s">
         <v>57</v>
@@ -7123,10 +7148,10 @@
         <v>82</v>
       </c>
       <c r="H97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I97">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J97">
         <v>0.7</v>
@@ -7143,7 +7168,7 @@
         <v>49</v>
       </c>
       <c r="E98">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F98" t="s">
         <v>57</v>
@@ -7152,16 +7177,16 @@
         <v>68</v>
       </c>
       <c r="H98" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I98">
-        <v>2420</v>
+        <v>2519</v>
       </c>
       <c r="J98">
         <v>0.7</v>
       </c>
       <c r="K98">
-        <v>1694</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="99" spans="3:11">
@@ -7172,7 +7197,7 @@
         <v>49</v>
       </c>
       <c r="E99">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F99" t="s">
         <v>57</v>
@@ -7181,7 +7206,7 @@
         <v>82</v>
       </c>
       <c r="H99" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I99">
         <v>386</v>
@@ -7201,7 +7226,7 @@
         <v>49</v>
       </c>
       <c r="E100">
-        <v>20230401</v>
+        <v>20230101</v>
       </c>
       <c r="F100" t="s">
         <v>57</v>
@@ -7210,16 +7235,16 @@
         <v>68</v>
       </c>
       <c r="H100" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I100">
-        <v>1188</v>
+        <v>2286</v>
       </c>
       <c r="J100">
         <v>0.7</v>
       </c>
       <c r="K100">
-        <v>831</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="101" spans="3:11">
@@ -7230,7 +7255,7 @@
         <v>49</v>
       </c>
       <c r="E101">
-        <v>20230401</v>
+        <v>20230101</v>
       </c>
       <c r="F101" t="s">
         <v>57</v>
@@ -7239,7 +7264,7 @@
         <v>82</v>
       </c>
       <c r="H101" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I101">
         <v>387</v>
@@ -7259,7 +7284,7 @@
         <v>49</v>
       </c>
       <c r="E102">
-        <v>20230401</v>
+        <v>20230101</v>
       </c>
       <c r="F102" t="s">
         <v>57</v>
@@ -7268,16 +7293,16 @@
         <v>68</v>
       </c>
       <c r="H102" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I102">
-        <v>805</v>
+        <v>2203</v>
       </c>
       <c r="J102">
         <v>0.7</v>
       </c>
       <c r="K102">
-        <v>563</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="103" spans="3:11">
@@ -7288,7 +7313,7 @@
         <v>49</v>
       </c>
       <c r="E103">
-        <v>20230401</v>
+        <v>20230101</v>
       </c>
       <c r="F103" t="s">
         <v>57</v>
@@ -7297,15 +7322,247 @@
         <v>82</v>
       </c>
       <c r="H103" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103">
+        <v>387</v>
+      </c>
+      <c r="J103">
+        <v>0.7</v>
+      </c>
+      <c r="K103">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11">
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104">
+        <v>20230201</v>
+      </c>
+      <c r="F104" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" t="s">
+        <v>95</v>
+      </c>
+      <c r="I104">
+        <v>2396</v>
+      </c>
+      <c r="J104">
+        <v>0.7</v>
+      </c>
+      <c r="K104">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11">
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105">
+        <v>20230201</v>
+      </c>
+      <c r="F105" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" t="s">
+        <v>82</v>
+      </c>
+      <c r="H105" t="s">
+        <v>95</v>
+      </c>
+      <c r="I105">
+        <v>387</v>
+      </c>
+      <c r="J105">
+        <v>0.7</v>
+      </c>
+      <c r="K105">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106">
+        <v>20230201</v>
+      </c>
+      <c r="F106" t="s">
+        <v>57</v>
+      </c>
+      <c r="G106" t="s">
+        <v>68</v>
+      </c>
+      <c r="H106" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106">
+        <v>2420</v>
+      </c>
+      <c r="J106">
+        <v>0.7</v>
+      </c>
+      <c r="K106">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107">
+        <v>20230201</v>
+      </c>
+      <c r="F107" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107">
+        <v>386</v>
+      </c>
+      <c r="J107">
+        <v>0.7</v>
+      </c>
+      <c r="K107">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108">
+        <v>20230401</v>
+      </c>
+      <c r="F108" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>1188</v>
+      </c>
+      <c r="J108">
+        <v>0.7</v>
+      </c>
+      <c r="K108">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11">
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109">
+        <v>20230401</v>
+      </c>
+      <c r="F109" t="s">
+        <v>57</v>
+      </c>
+      <c r="G109" t="s">
+        <v>82</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>387</v>
+      </c>
+      <c r="J109">
+        <v>0.7</v>
+      </c>
+      <c r="K109">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110">
+        <v>20230401</v>
+      </c>
+      <c r="F110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" t="s">
+        <v>68</v>
+      </c>
+      <c r="H110" t="s">
         <v>96</v>
       </c>
-      <c r="I103">
+      <c r="I110">
+        <v>805</v>
+      </c>
+      <c r="J110">
+        <v>0.7</v>
+      </c>
+      <c r="K110">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11">
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111">
+        <v>20230401</v>
+      </c>
+      <c r="F111" t="s">
+        <v>57</v>
+      </c>
+      <c r="G111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" t="s">
+        <v>96</v>
+      </c>
+      <c r="I111">
         <v>386</v>
       </c>
-      <c r="J103">
-        <v>0.7</v>
-      </c>
-      <c r="K103">
+      <c r="J111">
+        <v>0.7</v>
+      </c>
+      <c r="K111">
         <v>270</v>
       </c>
     </row>
@@ -7323,8 +7580,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="60" max="16383" man="1"/>
     <brk id="68" max="16383" man="1"/>
+    <brk id="76" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="1048575" man="1"/>
@@ -7340,7 +7597,7 @@
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A68" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
@@ -7400,7 +7657,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>44896</v>
       </c>
       <c r="B4" s="46">
@@ -7436,7 +7693,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
         <v>48</v>
@@ -7468,7 +7725,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="47"/>
       <c r="C6" s="31" t="s">
         <v>48</v>
@@ -7500,7 +7757,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="47"/>
       <c r="C7" s="31" t="s">
         <v>48</v>
@@ -7532,7 +7789,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="47"/>
       <c r="C8" s="31" t="s">
         <v>48</v>
@@ -7564,7 +7821,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="47"/>
       <c r="C9" s="31" t="s">
         <v>48</v>
@@ -7596,7 +7853,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="47"/>
       <c r="C10" s="31" t="s">
         <v>48</v>
@@ -7628,7 +7885,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="47"/>
       <c r="C11" s="31" t="s">
         <v>48</v>
@@ -7660,7 +7917,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="47"/>
       <c r="C12" s="31" t="s">
         <v>48</v>
@@ -7692,7 +7949,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="47"/>
       <c r="C13" s="31" t="s">
         <v>48</v>
@@ -7724,7 +7981,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="47"/>
       <c r="C14" s="31" t="s">
         <v>48</v>
@@ -7756,7 +8013,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="48"/>
       <c r="C15" s="31" t="s">
         <v>48</v>
@@ -7788,28 +8045,28 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="35">
         <f>SUM(K4:K15)</f>
         <v>197131</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="43">
+      <c r="A17" s="45">
         <v>44958</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="36" t="s">
         <v>63</v>
       </c>
@@ -7840,8 +8097,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="36" t="s">
         <v>63</v>
       </c>
@@ -7872,8 +8129,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="36" t="s">
         <v>63</v>
       </c>
@@ -7904,8 +8161,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="36" t="s">
         <v>63</v>
       </c>
@@ -7936,8 +8193,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
@@ -7968,8 +8225,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="36" t="s">
         <v>63</v>
       </c>
@@ -8000,8 +8257,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="36" t="s">
         <v>63</v>
       </c>
@@ -8032,8 +8289,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
@@ -8064,8 +8321,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="36" t="s">
         <v>63</v>
       </c>
@@ -8096,8 +8353,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="36" t="s">
         <v>63</v>
       </c>
@@ -8128,8 +8385,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="36" t="s">
         <v>63</v>
       </c>
@@ -8160,8 +8417,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
@@ -8192,8 +8449,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
@@ -8224,8 +8481,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="36" t="s">
         <v>63</v>
       </c>
@@ -8256,8 +8513,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -8288,8 +8545,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="36" t="s">
         <v>63</v>
       </c>
@@ -8320,8 +8577,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="36" t="s">
         <v>63</v>
       </c>
@@ -8352,8 +8609,8 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="36" t="s">
         <v>63</v>
       </c>
@@ -8384,8 +8641,8 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="36" t="s">
         <v>63</v>
       </c>
@@ -8416,8 +8673,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="36" t="s">
         <v>63</v>
       </c>
@@ -8448,8 +8705,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="36" t="s">
         <v>63</v>
       </c>
@@ -8480,8 +8737,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="36" t="s">
         <v>63</v>
       </c>
@@ -8512,28 +8769,28 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="35">
         <f>SUM(K17:K38)</f>
         <v>230605.89999999997</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="43">
+      <c r="A40" s="45">
         <v>44986</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="38" t="s">
         <v>63</v>
       </c>
@@ -8564,8 +8821,8 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="38" t="s">
         <v>63</v>
       </c>
@@ -8596,8 +8853,8 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="38" t="s">
         <v>63</v>
       </c>
@@ -8628,8 +8885,8 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="38" t="s">
         <v>63</v>
       </c>
@@ -8660,8 +8917,8 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="38" t="s">
         <v>63</v>
       </c>
@@ -8692,8 +8949,8 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="38" t="s">
         <v>63</v>
       </c>
@@ -8724,8 +8981,8 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="38" t="s">
         <v>63</v>
       </c>
@@ -8756,8 +9013,8 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="38" t="s">
         <v>63</v>
       </c>
@@ -8788,8 +9045,8 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="38" t="s">
         <v>63</v>
       </c>
@@ -8820,8 +9077,8 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="38" t="s">
         <v>63</v>
       </c>
@@ -8852,8 +9109,8 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="38" t="s">
         <v>63</v>
       </c>
@@ -8884,8 +9141,8 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="38" t="s">
         <v>63</v>
       </c>
@@ -8916,8 +9173,8 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="38" t="s">
         <v>63</v>
       </c>
@@ -8948,8 +9205,8 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="38" t="s">
         <v>63</v>
       </c>
@@ -8980,8 +9237,8 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="38" t="s">
         <v>63</v>
       </c>
@@ -9012,8 +9269,8 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="38" t="s">
         <v>63</v>
       </c>
@@ -9044,8 +9301,8 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="38" t="s">
         <v>63</v>
       </c>
@@ -9076,8 +9333,8 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="38" t="s">
         <v>63</v>
       </c>
@@ -9108,8 +9365,8 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="38" t="s">
         <v>63</v>
       </c>
@@ -9140,8 +9397,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="38" t="s">
         <v>63</v>
       </c>
@@ -9172,28 +9429,28 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
       <c r="K60" s="35">
         <f>SUM(K40:K59)</f>
         <v>197532.99999999997</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="43">
+      <c r="A61" s="45">
         <v>45047</v>
       </c>
-      <c r="B61" s="43"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="38" t="s">
         <v>63</v>
       </c>
@@ -9224,8 +9481,8 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="38" t="s">
         <v>63</v>
       </c>
@@ -9256,8 +9513,8 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="38" t="s">
         <v>63</v>
       </c>
@@ -9288,8 +9545,8 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="38" t="s">
         <v>63</v>
       </c>
@@ -9320,8 +9577,8 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="38" t="s">
         <v>63</v>
       </c>
@@ -9352,8 +9609,8 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="38" t="s">
         <v>63</v>
       </c>
@@ -9384,8 +9641,8 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="38" t="s">
         <v>63</v>
       </c>
@@ -9416,8 +9673,8 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="38" t="s">
         <v>97</v>
       </c>
@@ -9448,8 +9705,8 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="38" t="s">
         <v>63</v>
       </c>
@@ -9480,8 +9737,8 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="38" t="s">
         <v>63</v>
       </c>
@@ -9512,8 +9769,8 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="38" t="s">
         <v>63</v>
       </c>
@@ -9544,8 +9801,8 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="38" t="s">
         <v>63</v>
       </c>
@@ -9576,8 +9833,8 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="38" t="s">
         <v>63</v>
       </c>
@@ -9608,8 +9865,8 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="38" t="s">
         <v>63</v>
       </c>
@@ -9640,8 +9897,8 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="38" t="s">
         <v>63</v>
       </c>
@@ -9672,8 +9929,8 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="38" t="s">
         <v>63</v>
       </c>
@@ -9704,8 +9961,8 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="38" t="s">
         <v>63</v>
       </c>
@@ -9736,8 +9993,8 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
@@ -9768,8 +10025,8 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="38" t="s">
         <v>63</v>
       </c>
@@ -9800,8 +10057,8 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="38" t="s">
         <v>63</v>
       </c>
@@ -9832,8 +10089,8 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="38" t="s">
         <v>63</v>
       </c>
@@ -9864,8 +10121,8 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="38" t="s">
         <v>63</v>
       </c>
@@ -9896,8 +10153,8 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="38" t="s">
         <v>63</v>
       </c>
@@ -9928,8 +10185,8 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="38" t="s">
         <v>63</v>
       </c>
@@ -9960,8 +10217,8 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="38" t="s">
         <v>63</v>
       </c>
@@ -9992,8 +10249,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="38" t="s">
         <v>63</v>
       </c>
@@ -10024,8 +10281,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="38" t="s">
         <v>63</v>
       </c>
@@ -10056,8 +10313,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="38" t="s">
         <v>63</v>
       </c>
@@ -10088,8 +10345,8 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="38" t="s">
         <v>63</v>
       </c>
@@ -10120,8 +10377,8 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="38" t="s">
         <v>63</v>
       </c>
@@ -10152,8 +10409,8 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="38" t="s">
         <v>63</v>
       </c>
@@ -10184,8 +10441,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="38" t="s">
         <v>63</v>
       </c>
@@ -10216,8 +10473,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="38" t="s">
         <v>63</v>
       </c>
@@ -10248,8 +10505,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="38" t="s">
         <v>63</v>
       </c>
@@ -10280,8 +10537,8 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="38" t="s">
         <v>63</v>
       </c>
@@ -10312,8 +10569,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="38" t="s">
         <v>63</v>
       </c>
@@ -10344,8 +10601,8 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="38" t="s">
         <v>63</v>
       </c>
@@ -10376,8 +10633,8 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="38" t="s">
         <v>63</v>
       </c>
@@ -10408,8 +10665,8 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="38" t="s">
         <v>63</v>
       </c>
@@ -10440,8 +10697,8 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="38" t="s">
         <v>63</v>
       </c>
@@ -10472,8 +10729,8 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="38" t="s">
         <v>63</v>
       </c>
@@ -10504,8 +10761,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="38" t="s">
         <v>63</v>
       </c>
@@ -10536,8 +10793,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="38" t="s">
         <v>63</v>
       </c>
@@ -10568,18 +10825,18 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
       <c r="K104" s="35">
         <f>SUM(K61:K103)</f>
         <v>242153.8</v>
@@ -10587,18 +10844,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A61:A103"/>
+    <mergeCell ref="B61:B103"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A40:A59"/>
+    <mergeCell ref="B40:B59"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A17:A38"/>
     <mergeCell ref="B17:B38"/>
-    <mergeCell ref="A61:A103"/>
-    <mergeCell ref="B61:B103"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A40:A59"/>
-    <mergeCell ref="B40:B59"/>
-    <mergeCell ref="A60:J60"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B198253-360F-4A61-B981-2471D34865A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4EA49F-7DA9-4B59-A68F-9FE1267FF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">一覧!$A$1:$I$217</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">一覧表!$A$1:$W$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">一覧表!$A$1:$W$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="101">
   <si>
     <t>①ネオdeいりょう</t>
   </si>
@@ -463,6 +463,9 @@
   <si>
     <t>中西　達哉</t>
   </si>
+  <si>
+    <t>和田　愛望</t>
+  </si>
 </sst>
 </file>
 
@@ -793,13 +796,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="55" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1135,7 @@
       </c>
       <c r="H1" t="str">
         <f ca="1">一覧表!B1</f>
-        <v>14名</v>
+        <v>15名</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1147,7 +1150,7 @@
       </c>
       <c r="H2" s="7" t="str">
         <f ca="1">一覧表!B2</f>
-        <v>3,181,824円</v>
+        <v>3,443,196円</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4831,11 +4834,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X111"/>
+  <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4867,7 +4870,7 @@
       </c>
       <c r="B1" s="13" t="str">
         <f ca="1">COUNTA(OFFSET(B$7,0,0,COUNTA(A:A)-1,1))&amp;"名"</f>
-        <v>14名</v>
+        <v>15名</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>77</v>
@@ -4878,8 +4881,8 @@
         <v>34</v>
       </c>
       <c r="B2" s="14" t="str">
-        <f ca="1">TEXT(SUM(H30,M30,R30,W30),"#,###")&amp;"円"</f>
-        <v>3,181,824円</v>
+        <f ca="1">TEXT(SUM(H34,M34,R34,W34),"#,###")&amp;"円"</f>
+        <v>3,443,196円</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -6001,29 +6004,75 @@
       <c r="X20" s="15"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
+      <c r="A21" s="18">
+        <v>45091</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="20">
+        <v>29</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3092</v>
+      </c>
+      <c r="E21" s="21">
+        <v>37104</v>
+      </c>
+      <c r="F21" s="21">
+        <v>33948</v>
+      </c>
+      <c r="G21" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H21" s="21">
+        <v>45948</v>
+      </c>
+      <c r="I21" s="21">
+        <v>944</v>
+      </c>
+      <c r="J21" s="21">
+        <v>11328</v>
+      </c>
+      <c r="K21" s="21">
+        <v>10200</v>
+      </c>
+      <c r="L21" s="21">
+        <v>624</v>
+      </c>
+      <c r="M21" s="21">
+        <v>11448</v>
+      </c>
+      <c r="N21" s="21">
+        <v>9311</v>
+      </c>
+      <c r="O21" s="22">
+        <v>111732</v>
+      </c>
+      <c r="P21" s="22">
+        <v>111288</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>19668</v>
+      </c>
+      <c r="R21" s="21">
+        <v>189960</v>
+      </c>
+      <c r="S21" s="21">
+        <v>1126</v>
+      </c>
+      <c r="T21" s="21">
+        <v>13512</v>
+      </c>
+      <c r="U21" s="21">
+        <v>13236</v>
+      </c>
+      <c r="V21" s="21">
+        <v>780</v>
+      </c>
+      <c r="W21" s="21">
+        <v>14016</v>
+      </c>
       <c r="X21" s="15"/>
     </row>
     <row r="22" spans="1:24">
@@ -6235,204 +6284,192 @@
       <c r="X29" s="15"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="15"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="15"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="15"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="15"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="C34" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D34" s="26">
         <f ca="1">SUM(OFFSET(D$7,0,0,COUNTA(A:A)-1,1))</f>
-        <v>52766</v>
-      </c>
-      <c r="E30" s="26">
+        <v>55858</v>
+      </c>
+      <c r="E34" s="26">
         <f ca="1">SUM(OFFSET(E$7,0,0,COUNTA(A:A)-1,1))</f>
-        <v>633192</v>
-      </c>
-      <c r="F30" s="26">
+        <v>670296</v>
+      </c>
+      <c r="F34" s="26">
         <f ca="1">SUM(OFFSET(F$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>579096</v>
-      </c>
-      <c r="G30" s="26">
+        <v>613044</v>
+      </c>
+      <c r="G34" s="26">
         <f ca="1">SUM(OFFSET(G$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>51060</v>
-      </c>
-      <c r="H30" s="26">
+        <v>54060</v>
+      </c>
+      <c r="H34" s="26">
         <f ca="1">SUM(OFFSET(H$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>783336</v>
-      </c>
-      <c r="I30" s="26">
+        <v>829284</v>
+      </c>
+      <c r="I34" s="26">
         <f ca="1">SUM(OFFSET(I$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>9662</v>
-      </c>
-      <c r="J30" s="26">
+        <v>10606</v>
+      </c>
+      <c r="J34" s="26">
         <f ca="1">SUM(OFFSET(J$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>115944</v>
-      </c>
-      <c r="K30" s="26">
+        <v>127272</v>
+      </c>
+      <c r="K34" s="26">
         <f ca="1">SUM(OFFSET(K$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>104412</v>
-      </c>
-      <c r="L30" s="26">
+        <v>114612</v>
+      </c>
+      <c r="L34" s="26">
         <f ca="1">SUM(OFFSET(L$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>6420</v>
-      </c>
-      <c r="M30" s="26">
+        <v>7044</v>
+      </c>
+      <c r="M34" s="26">
         <f ca="1">SUM(OFFSET(M$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>117252</v>
-      </c>
-      <c r="N30" s="26">
+        <v>128700</v>
+      </c>
+      <c r="N34" s="26">
         <f ca="1">SUM(OFFSET(N$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>96713</v>
-      </c>
-      <c r="O30" s="26">
+        <v>106024</v>
+      </c>
+      <c r="O34" s="26">
         <f ca="1">SUM(OFFSET(O$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>1160556</v>
-      </c>
-      <c r="P30" s="26">
+        <v>1272288</v>
+      </c>
+      <c r="P34" s="26">
         <f ca="1">SUM(OFFSET(P$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>1155984</v>
-      </c>
-      <c r="Q30" s="26">
+        <v>1267272</v>
+      </c>
+      <c r="Q34" s="26">
         <f ca="1">SUM(OFFSET(Q$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>204300</v>
-      </c>
-      <c r="R30" s="26">
+        <v>223968</v>
+      </c>
+      <c r="R34" s="26">
         <f ca="1">SUM(OFFSET(R$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>1973184</v>
-      </c>
-      <c r="S30" s="26">
+        <v>2163144</v>
+      </c>
+      <c r="S34" s="26">
         <f ca="1">SUM(OFFSET(S$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>24576</v>
-      </c>
-      <c r="T30" s="26">
+        <v>25702</v>
+      </c>
+      <c r="T34" s="26">
         <f ca="1">SUM(OFFSET(T$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>294912</v>
-      </c>
-      <c r="U30" s="26">
+        <v>308424</v>
+      </c>
+      <c r="U34" s="26">
         <f ca="1">SUM(OFFSET(U$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>289032</v>
-      </c>
-      <c r="V30" s="26">
+        <v>302268</v>
+      </c>
+      <c r="V34" s="26">
         <f ca="1">SUM(OFFSET(V$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>19020</v>
-      </c>
-      <c r="W30" s="26">
+        <v>19800</v>
+      </c>
+      <c r="W34" s="26">
         <f ca="1">SUM(OFFSET(W$7,0,0,COUNTA($A:$A)-1,1))</f>
-        <v>308052</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12">
-      <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69">
-        <v>20230101</v>
-      </c>
-      <c r="F69" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H69" t="s">
-        <v>89</v>
-      </c>
-      <c r="I69">
-        <v>43008</v>
-      </c>
-      <c r="J69">
-        <v>0.7</v>
-      </c>
-      <c r="K69">
-        <v>27368</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12">
-      <c r="C70" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70">
-        <v>20230101</v>
-      </c>
-      <c r="F70" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" t="s">
-        <v>53</v>
-      </c>
-      <c r="H70" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70">
-        <v>7620</v>
-      </c>
-      <c r="J70">
-        <v>0.7</v>
-      </c>
-      <c r="K70">
-        <v>4849</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12">
-      <c r="C71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71">
-        <v>20230101</v>
-      </c>
-      <c r="F71" t="s">
-        <v>50</v>
-      </c>
-      <c r="G71" t="s">
-        <v>54</v>
-      </c>
-      <c r="H71" t="s">
-        <v>89</v>
-      </c>
-      <c r="I71">
-        <v>80076</v>
-      </c>
-      <c r="J71">
-        <v>0.7</v>
-      </c>
-      <c r="K71">
-        <v>50957</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12">
-      <c r="C72" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72">
-        <v>20230101</v>
-      </c>
-      <c r="F72" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72" t="s">
-        <v>51</v>
-      </c>
-      <c r="H72" t="s">
-        <v>79</v>
-      </c>
-      <c r="I72">
-        <v>60480</v>
-      </c>
-      <c r="J72">
-        <v>0.7</v>
-      </c>
-      <c r="K72">
-        <v>38487</v>
+        <v>322068</v>
       </c>
     </row>
     <row r="73" spans="3:12">
@@ -6443,7 +6480,7 @@
         <v>49</v>
       </c>
       <c r="E73">
-        <v>20230301</v>
+        <v>20230101</v>
       </c>
       <c r="F73" t="s">
         <v>50</v>
@@ -6452,7 +6489,7 @@
         <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I73">
         <v>43008</v>
@@ -6472,7 +6509,7 @@
         <v>49</v>
       </c>
       <c r="E74">
-        <v>20230301</v>
+        <v>20230101</v>
       </c>
       <c r="F74" t="s">
         <v>50</v>
@@ -6481,7 +6518,7 @@
         <v>53</v>
       </c>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I74">
         <v>7620</v>
@@ -6501,7 +6538,7 @@
         <v>49</v>
       </c>
       <c r="E75">
-        <v>20230301</v>
+        <v>20230101</v>
       </c>
       <c r="F75" t="s">
         <v>50</v>
@@ -6510,7 +6547,7 @@
         <v>54</v>
       </c>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I75">
         <v>80076</v>
@@ -6524,34 +6561,31 @@
     </row>
     <row r="76" spans="3:12">
       <c r="C76" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
       </c>
       <c r="E76">
-        <v>20220901</v>
+        <v>20230101</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I76">
-        <v>-17297</v>
+        <v>60480</v>
       </c>
       <c r="J76">
         <v>0.7</v>
       </c>
       <c r="K76">
-        <v>-12107</v>
-      </c>
-      <c r="L76">
-        <v>2471</v>
+        <v>38487</v>
       </c>
     </row>
     <row r="77" spans="3:12">
@@ -6562,22 +6596,25 @@
         <v>49</v>
       </c>
       <c r="E77">
-        <v>20220901</v>
+        <v>20230301</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I77">
-        <v>3530</v>
+        <v>43008</v>
       </c>
       <c r="J77">
         <v>0.7</v>
+      </c>
+      <c r="K77">
+        <v>27368</v>
       </c>
     </row>
     <row r="78" spans="3:12">
@@ -6588,25 +6625,25 @@
         <v>49</v>
       </c>
       <c r="E78">
-        <v>20220901</v>
+        <v>20230301</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I78">
-        <v>-1680</v>
+        <v>7620</v>
       </c>
       <c r="J78">
         <v>0.7</v>
       </c>
       <c r="K78">
-        <v>-1176</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="79" spans="3:12">
@@ -6617,30 +6654,30 @@
         <v>49</v>
       </c>
       <c r="E79">
-        <v>20220901</v>
+        <v>20230301</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H79" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I79">
-        <v>343</v>
+        <v>80076</v>
       </c>
       <c r="J79">
         <v>0.7</v>
       </c>
       <c r="K79">
-        <v>240</v>
+        <v>50957</v>
       </c>
     </row>
     <row r="80" spans="3:12">
       <c r="C80" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
         <v>49</v>
@@ -6655,16 +6692,19 @@
         <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I80">
-        <v>2065</v>
+        <v>-17297</v>
       </c>
       <c r="J80">
         <v>0.7</v>
       </c>
       <c r="K80">
-        <v>1445</v>
+        <v>-12107</v>
+      </c>
+      <c r="L80">
+        <v>2471</v>
       </c>
     </row>
     <row r="81" spans="3:11">
@@ -6681,19 +6721,16 @@
         <v>57</v>
       </c>
       <c r="G81" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I81">
-        <v>342</v>
+        <v>3530</v>
       </c>
       <c r="J81">
         <v>0.7</v>
-      </c>
-      <c r="K81">
-        <v>239</v>
       </c>
     </row>
     <row r="82" spans="3:11">
@@ -6710,19 +6747,19 @@
         <v>57</v>
       </c>
       <c r="G82" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I82">
-        <v>2236</v>
+        <v>-1680</v>
       </c>
       <c r="J82">
         <v>0.7</v>
       </c>
       <c r="K82">
-        <v>1565</v>
+        <v>-1176</v>
       </c>
     </row>
     <row r="83" spans="3:11">
@@ -6742,16 +6779,16 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I83">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J83">
         <v>0.7</v>
       </c>
       <c r="K83">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="3:11">
@@ -6762,7 +6799,7 @@
         <v>49</v>
       </c>
       <c r="E84">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F84" t="s">
         <v>57</v>
@@ -6771,16 +6808,16 @@
         <v>68</v>
       </c>
       <c r="H84" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I84">
-        <v>2427</v>
+        <v>2065</v>
       </c>
       <c r="J84">
         <v>0.7</v>
       </c>
       <c r="K84">
-        <v>1698</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="85" spans="3:11">
@@ -6791,7 +6828,7 @@
         <v>49</v>
       </c>
       <c r="E85">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F85" t="s">
         <v>57</v>
@@ -6800,7 +6837,7 @@
         <v>82</v>
       </c>
       <c r="H85" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I85">
         <v>342</v>
@@ -6820,7 +6857,7 @@
         <v>49</v>
       </c>
       <c r="E86">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F86" t="s">
         <v>57</v>
@@ -6829,16 +6866,16 @@
         <v>68</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I86">
-        <v>1219</v>
+        <v>2236</v>
       </c>
       <c r="J86">
         <v>0.7</v>
       </c>
       <c r="K86">
-        <v>853</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="87" spans="3:11">
@@ -6849,7 +6886,7 @@
         <v>49</v>
       </c>
       <c r="E87">
-        <v>20221101</v>
+        <v>20220901</v>
       </c>
       <c r="F87" t="s">
         <v>57</v>
@@ -6858,16 +6895,16 @@
         <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I87">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="J87">
         <v>0.7</v>
       </c>
       <c r="K87">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="3:11">
@@ -6878,7 +6915,7 @@
         <v>49</v>
       </c>
       <c r="E88">
-        <v>20221201</v>
+        <v>20221101</v>
       </c>
       <c r="F88" t="s">
         <v>57</v>
@@ -6887,16 +6924,16 @@
         <v>68</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I88">
-        <v>2624</v>
+        <v>2427</v>
       </c>
       <c r="J88">
         <v>0.7</v>
       </c>
       <c r="K88">
-        <v>1836</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="89" spans="3:11">
@@ -6907,7 +6944,7 @@
         <v>49</v>
       </c>
       <c r="E89">
-        <v>20221201</v>
+        <v>20221101</v>
       </c>
       <c r="F89" t="s">
         <v>57</v>
@@ -6916,16 +6953,16 @@
         <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I89">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="J89">
         <v>0.7</v>
       </c>
       <c r="K89">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="3:11">
@@ -6936,7 +6973,7 @@
         <v>49</v>
       </c>
       <c r="E90">
-        <v>20230101</v>
+        <v>20221101</v>
       </c>
       <c r="F90" t="s">
         <v>57</v>
@@ -6945,16 +6982,16 @@
         <v>68</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I90">
-        <v>1065</v>
+        <v>1219</v>
       </c>
       <c r="J90">
         <v>0.7</v>
       </c>
       <c r="K90">
-        <v>745</v>
+        <v>853</v>
       </c>
     </row>
     <row r="91" spans="3:11">
@@ -6965,7 +7002,7 @@
         <v>49</v>
       </c>
       <c r="E91">
-        <v>20230101</v>
+        <v>20221101</v>
       </c>
       <c r="F91" t="s">
         <v>57</v>
@@ -6974,16 +7011,16 @@
         <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I91">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J91">
         <v>0.7</v>
       </c>
       <c r="K91">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="3:11">
@@ -6994,7 +7031,7 @@
         <v>49</v>
       </c>
       <c r="E92">
-        <v>20230101</v>
+        <v>20221201</v>
       </c>
       <c r="F92" t="s">
         <v>57</v>
@@ -7003,7 +7040,7 @@
         <v>68</v>
       </c>
       <c r="H92" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I92">
         <v>2624</v>
@@ -7023,7 +7060,7 @@
         <v>49</v>
       </c>
       <c r="E93">
-        <v>20230101</v>
+        <v>20221201</v>
       </c>
       <c r="F93" t="s">
         <v>57</v>
@@ -7032,7 +7069,7 @@
         <v>82</v>
       </c>
       <c r="H93" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I93">
         <v>386</v>
@@ -7061,16 +7098,16 @@
         <v>68</v>
       </c>
       <c r="H94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I94">
-        <v>2519</v>
+        <v>1065</v>
       </c>
       <c r="J94">
         <v>0.7</v>
       </c>
       <c r="K94">
-        <v>1763</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" spans="3:11">
@@ -7090,10 +7127,10 @@
         <v>82</v>
       </c>
       <c r="H95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I95">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J95">
         <v>0.7</v>
@@ -7119,16 +7156,16 @@
         <v>68</v>
       </c>
       <c r="H96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I96">
-        <v>2519</v>
+        <v>2624</v>
       </c>
       <c r="J96">
         <v>0.7</v>
       </c>
       <c r="K96">
-        <v>1763</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="97" spans="3:11">
@@ -7148,7 +7185,7 @@
         <v>82</v>
       </c>
       <c r="H97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I97">
         <v>386</v>
@@ -7235,16 +7272,16 @@
         <v>68</v>
       </c>
       <c r="H100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I100">
-        <v>2286</v>
+        <v>2519</v>
       </c>
       <c r="J100">
         <v>0.7</v>
       </c>
       <c r="K100">
-        <v>1600</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="101" spans="3:11">
@@ -7264,10 +7301,10 @@
         <v>82</v>
       </c>
       <c r="H101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I101">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J101">
         <v>0.7</v>
@@ -7293,16 +7330,16 @@
         <v>68</v>
       </c>
       <c r="H102" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I102">
-        <v>2203</v>
+        <v>2519</v>
       </c>
       <c r="J102">
         <v>0.7</v>
       </c>
       <c r="K102">
-        <v>1542</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="103" spans="3:11">
@@ -7322,10 +7359,10 @@
         <v>82</v>
       </c>
       <c r="H103" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I103">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J103">
         <v>0.7</v>
@@ -7342,7 +7379,7 @@
         <v>49</v>
       </c>
       <c r="E104">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F104" t="s">
         <v>57</v>
@@ -7351,16 +7388,16 @@
         <v>68</v>
       </c>
       <c r="H104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I104">
-        <v>2396</v>
+        <v>2286</v>
       </c>
       <c r="J104">
         <v>0.7</v>
       </c>
       <c r="K104">
-        <v>1677</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="105" spans="3:11">
@@ -7371,7 +7408,7 @@
         <v>49</v>
       </c>
       <c r="E105">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F105" t="s">
         <v>57</v>
@@ -7380,7 +7417,7 @@
         <v>82</v>
       </c>
       <c r="H105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I105">
         <v>387</v>
@@ -7400,7 +7437,7 @@
         <v>49</v>
       </c>
       <c r="E106">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F106" t="s">
         <v>57</v>
@@ -7409,16 +7446,16 @@
         <v>68</v>
       </c>
       <c r="H106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I106">
-        <v>2420</v>
+        <v>2203</v>
       </c>
       <c r="J106">
         <v>0.7</v>
       </c>
       <c r="K106">
-        <v>1694</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="107" spans="3:11">
@@ -7429,7 +7466,7 @@
         <v>49</v>
       </c>
       <c r="E107">
-        <v>20230201</v>
+        <v>20230101</v>
       </c>
       <c r="F107" t="s">
         <v>57</v>
@@ -7438,10 +7475,10 @@
         <v>82</v>
       </c>
       <c r="H107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I107">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J107">
         <v>0.7</v>
@@ -7458,7 +7495,7 @@
         <v>49</v>
       </c>
       <c r="E108">
-        <v>20230401</v>
+        <v>20230201</v>
       </c>
       <c r="F108" t="s">
         <v>57</v>
@@ -7467,16 +7504,16 @@
         <v>68</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I108">
-        <v>1188</v>
+        <v>2396</v>
       </c>
       <c r="J108">
         <v>0.7</v>
       </c>
       <c r="K108">
-        <v>831</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="109" spans="3:11">
@@ -7487,7 +7524,7 @@
         <v>49</v>
       </c>
       <c r="E109">
-        <v>20230401</v>
+        <v>20230201</v>
       </c>
       <c r="F109" t="s">
         <v>57</v>
@@ -7496,7 +7533,7 @@
         <v>82</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I109">
         <v>387</v>
@@ -7516,7 +7553,7 @@
         <v>49</v>
       </c>
       <c r="E110">
-        <v>20230401</v>
+        <v>20230201</v>
       </c>
       <c r="F110" t="s">
         <v>57</v>
@@ -7525,16 +7562,16 @@
         <v>68</v>
       </c>
       <c r="H110" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I110">
-        <v>805</v>
+        <v>2420</v>
       </c>
       <c r="J110">
         <v>0.7</v>
       </c>
       <c r="K110">
-        <v>563</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="111" spans="3:11">
@@ -7545,7 +7582,7 @@
         <v>49</v>
       </c>
       <c r="E111">
-        <v>20230401</v>
+        <v>20230201</v>
       </c>
       <c r="F111" t="s">
         <v>57</v>
@@ -7554,7 +7591,7 @@
         <v>82</v>
       </c>
       <c r="H111" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I111">
         <v>386</v>
@@ -7563,6 +7600,122 @@
         <v>0.7</v>
       </c>
       <c r="K111">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11">
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112">
+        <v>20230401</v>
+      </c>
+      <c r="F112" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" t="s">
+        <v>68</v>
+      </c>
+      <c r="H112" t="s">
+        <v>72</v>
+      </c>
+      <c r="I112">
+        <v>1188</v>
+      </c>
+      <c r="J112">
+        <v>0.7</v>
+      </c>
+      <c r="K112">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11">
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113">
+        <v>20230401</v>
+      </c>
+      <c r="F113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G113" t="s">
+        <v>82</v>
+      </c>
+      <c r="H113" t="s">
+        <v>72</v>
+      </c>
+      <c r="I113">
+        <v>387</v>
+      </c>
+      <c r="J113">
+        <v>0.7</v>
+      </c>
+      <c r="K113">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11">
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114">
+        <v>20230401</v>
+      </c>
+      <c r="F114" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" t="s">
+        <v>68</v>
+      </c>
+      <c r="H114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I114">
+        <v>805</v>
+      </c>
+      <c r="J114">
+        <v>0.7</v>
+      </c>
+      <c r="K114">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11">
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115">
+        <v>20230401</v>
+      </c>
+      <c r="F115" t="s">
+        <v>57</v>
+      </c>
+      <c r="G115" t="s">
+        <v>82</v>
+      </c>
+      <c r="H115" t="s">
+        <v>96</v>
+      </c>
+      <c r="I115">
+        <v>386</v>
+      </c>
+      <c r="J115">
+        <v>0.7</v>
+      </c>
+      <c r="K115">
         <v>270</v>
       </c>
     </row>
@@ -7580,8 +7733,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="68" max="16383" man="1"/>
-    <brk id="76" max="16383" man="1"/>
+    <brk id="72" max="16383" man="1"/>
+    <brk id="80" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="1048575" man="1"/>
@@ -7657,7 +7810,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="44">
+      <c r="A4" s="45">
         <v>44896</v>
       </c>
       <c r="B4" s="46">
@@ -7693,7 +7846,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="45"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
         <v>48</v>
@@ -7725,7 +7878,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="45"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="47"/>
       <c r="C6" s="31" t="s">
         <v>48</v>
@@ -7757,7 +7910,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="47"/>
       <c r="C7" s="31" t="s">
         <v>48</v>
@@ -7789,7 +7942,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="45"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="47"/>
       <c r="C8" s="31" t="s">
         <v>48</v>
@@ -7821,7 +7974,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="45"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="47"/>
       <c r="C9" s="31" t="s">
         <v>48</v>
@@ -7853,7 +8006,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="45"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="47"/>
       <c r="C10" s="31" t="s">
         <v>48</v>
@@ -7885,7 +8038,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="45"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="47"/>
       <c r="C11" s="31" t="s">
         <v>48</v>
@@ -7917,7 +8070,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="45"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="47"/>
       <c r="C12" s="31" t="s">
         <v>48</v>
@@ -7949,7 +8102,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="47"/>
       <c r="C13" s="31" t="s">
         <v>48</v>
@@ -7981,7 +8134,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="47"/>
       <c r="C14" s="31" t="s">
         <v>48</v>
@@ -8013,7 +8166,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="48"/>
       <c r="C15" s="31" t="s">
         <v>48</v>
@@ -8045,28 +8198,28 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="35">
         <f>SUM(K4:K15)</f>
         <v>197131</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="45">
+      <c r="A17" s="43">
         <v>44958</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="36" t="s">
         <v>63</v>
       </c>
@@ -8097,8 +8250,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="36" t="s">
         <v>63</v>
       </c>
@@ -8129,8 +8282,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="36" t="s">
         <v>63</v>
       </c>
@@ -8161,8 +8314,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="36" t="s">
         <v>63</v>
       </c>
@@ -8193,8 +8346,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
@@ -8225,8 +8378,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="36" t="s">
         <v>63</v>
       </c>
@@ -8257,8 +8410,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="36" t="s">
         <v>63</v>
       </c>
@@ -8289,8 +8442,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
@@ -8321,8 +8474,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="36" t="s">
         <v>63</v>
       </c>
@@ -8353,8 +8506,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="36" t="s">
         <v>63</v>
       </c>
@@ -8385,8 +8538,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="36" t="s">
         <v>63</v>
       </c>
@@ -8417,8 +8570,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
@@ -8449,8 +8602,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
@@ -8481,8 +8634,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="36" t="s">
         <v>63</v>
       </c>
@@ -8513,8 +8666,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -8545,8 +8698,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="36" t="s">
         <v>63</v>
       </c>
@@ -8577,8 +8730,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="36" t="s">
         <v>63</v>
       </c>
@@ -8609,8 +8762,8 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="36" t="s">
         <v>63</v>
       </c>
@@ -8641,8 +8794,8 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="36" t="s">
         <v>63</v>
       </c>
@@ -8673,8 +8826,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="36" t="s">
         <v>63</v>
       </c>
@@ -8705,8 +8858,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="36" t="s">
         <v>63</v>
       </c>
@@ -8737,8 +8890,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="36" t="s">
         <v>63</v>
       </c>
@@ -8769,28 +8922,28 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="35">
         <f>SUM(K17:K38)</f>
         <v>230605.89999999997</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45">
+      <c r="A40" s="43">
         <v>44986</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="38" t="s">
         <v>63</v>
       </c>
@@ -8821,8 +8974,8 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="38" t="s">
         <v>63</v>
       </c>
@@ -8853,8 +9006,8 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="38" t="s">
         <v>63</v>
       </c>
@@ -8885,8 +9038,8 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="38" t="s">
         <v>63</v>
       </c>
@@ -8917,8 +9070,8 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="38" t="s">
         <v>63</v>
       </c>
@@ -8949,8 +9102,8 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="38" t="s">
         <v>63</v>
       </c>
@@ -8981,8 +9134,8 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="38" t="s">
         <v>63</v>
       </c>
@@ -9013,8 +9166,8 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="38" t="s">
         <v>63</v>
       </c>
@@ -9045,8 +9198,8 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="38" t="s">
         <v>63</v>
       </c>
@@ -9077,8 +9230,8 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="38" t="s">
         <v>63</v>
       </c>
@@ -9109,8 +9262,8 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="38" t="s">
         <v>63</v>
       </c>
@@ -9141,8 +9294,8 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="38" t="s">
         <v>63</v>
       </c>
@@ -9173,8 +9326,8 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="38" t="s">
         <v>63</v>
       </c>
@@ -9205,8 +9358,8 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="38" t="s">
         <v>63</v>
       </c>
@@ -9237,8 +9390,8 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="38" t="s">
         <v>63</v>
       </c>
@@ -9269,8 +9422,8 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="38" t="s">
         <v>63</v>
       </c>
@@ -9301,8 +9454,8 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="38" t="s">
         <v>63</v>
       </c>
@@ -9333,8 +9486,8 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="38" t="s">
         <v>63</v>
       </c>
@@ -9365,8 +9518,8 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="38" t="s">
         <v>63</v>
       </c>
@@ -9397,8 +9550,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="38" t="s">
         <v>63</v>
       </c>
@@ -9429,28 +9582,28 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="35">
         <f>SUM(K40:K59)</f>
         <v>197532.99999999997</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="45">
+      <c r="A61" s="43">
         <v>45047</v>
       </c>
-      <c r="B61" s="45"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="38" t="s">
         <v>63</v>
       </c>
@@ -9481,8 +9634,8 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="38" t="s">
         <v>63</v>
       </c>
@@ -9513,8 +9666,8 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="38" t="s">
         <v>63</v>
       </c>
@@ -9545,8 +9698,8 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="38" t="s">
         <v>63</v>
       </c>
@@ -9577,8 +9730,8 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="38" t="s">
         <v>63</v>
       </c>
@@ -9609,8 +9762,8 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="38" t="s">
         <v>63</v>
       </c>
@@ -9641,8 +9794,8 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="38" t="s">
         <v>63</v>
       </c>
@@ -9673,8 +9826,8 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="38" t="s">
         <v>97</v>
       </c>
@@ -9705,8 +9858,8 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="38" t="s">
         <v>63</v>
       </c>
@@ -9737,8 +9890,8 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="38" t="s">
         <v>63</v>
       </c>
@@ -9769,8 +9922,8 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="38" t="s">
         <v>63</v>
       </c>
@@ -9801,8 +9954,8 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="38" t="s">
         <v>63</v>
       </c>
@@ -9833,8 +9986,8 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="38" t="s">
         <v>63</v>
       </c>
@@ -9865,8 +10018,8 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="38" t="s">
         <v>63</v>
       </c>
@@ -9897,8 +10050,8 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="38" t="s">
         <v>63</v>
       </c>
@@ -9929,8 +10082,8 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="38" t="s">
         <v>63</v>
       </c>
@@ -9961,8 +10114,8 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="38" t="s">
         <v>63</v>
       </c>
@@ -9993,8 +10146,8 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
@@ -10025,8 +10178,8 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="38" t="s">
         <v>63</v>
       </c>
@@ -10057,8 +10210,8 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="38" t="s">
         <v>63</v>
       </c>
@@ -10089,8 +10242,8 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="38" t="s">
         <v>63</v>
       </c>
@@ -10121,8 +10274,8 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="38" t="s">
         <v>63</v>
       </c>
@@ -10153,8 +10306,8 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="38" t="s">
         <v>63</v>
       </c>
@@ -10185,8 +10338,8 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="38" t="s">
         <v>63</v>
       </c>
@@ -10217,8 +10370,8 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="38" t="s">
         <v>63</v>
       </c>
@@ -10249,8 +10402,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="38" t="s">
         <v>63</v>
       </c>
@@ -10281,8 +10434,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="38" t="s">
         <v>63</v>
       </c>
@@ -10313,8 +10466,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="38" t="s">
         <v>63</v>
       </c>
@@ -10345,8 +10498,8 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="38" t="s">
         <v>63</v>
       </c>
@@ -10377,8 +10530,8 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="38" t="s">
         <v>63</v>
       </c>
@@ -10409,8 +10562,8 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="38" t="s">
         <v>63</v>
       </c>
@@ -10441,8 +10594,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="38" t="s">
         <v>63</v>
       </c>
@@ -10473,8 +10626,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="38" t="s">
         <v>63</v>
       </c>
@@ -10505,8 +10658,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="38" t="s">
         <v>63</v>
       </c>
@@ -10537,8 +10690,8 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="38" t="s">
         <v>63</v>
       </c>
@@ -10569,8 +10722,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="38" t="s">
         <v>63</v>
       </c>
@@ -10601,8 +10754,8 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="38" t="s">
         <v>63</v>
       </c>
@@ -10633,8 +10786,8 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="38" t="s">
         <v>63</v>
       </c>
@@ -10665,8 +10818,8 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="38" t="s">
         <v>63</v>
       </c>
@@ -10697,8 +10850,8 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="38" t="s">
         <v>63</v>
       </c>
@@ -10729,8 +10882,8 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="38" t="s">
         <v>63</v>
       </c>
@@ -10761,8 +10914,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="38" t="s">
         <v>63</v>
       </c>
@@ -10793,8 +10946,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="38" t="s">
         <v>63</v>
       </c>
@@ -10825,18 +10978,18 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
       <c r="K104" s="35">
         <f>SUM(K61:K103)</f>
         <v>242153.8</v>
@@ -10844,18 +10997,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="B17:B38"/>
     <mergeCell ref="A61:A103"/>
     <mergeCell ref="B61:B103"/>
     <mergeCell ref="A104:J104"/>
     <mergeCell ref="A40:A59"/>
     <mergeCell ref="B40:B59"/>
     <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="B17:B38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4EA49F-7DA9-4B59-A68F-9FE1267FF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D7B88-9269-4AF1-B731-C6F886B4FA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">一覧!$A$1:$I$217</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一覧表!$A$1:$W$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">振込額!$A$1:$K$149</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">振込額!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="113">
   <si>
     <t>①ネオdeいりょう</t>
   </si>
@@ -466,6 +468,52 @@
   <si>
     <t>和田　愛望</t>
   </si>
+  <si>
+    <t>⼩椋    ＊太</t>
+  </si>
+  <si>
+    <t>⽟内    ＊樹</t>
+  </si>
+  <si>
+    <t>川⽥    ＊也</t>
+  </si>
+  <si>
+    <t>⽊村  ＊志</t>
+  </si>
+  <si>
+    <t>⼭下  ＊⾥</t>
+  </si>
+  <si>
+    <t>⼭本    ＊真</t>
+  </si>
+  <si>
+    <t>阿部    ＊</t>
+  </si>
+  <si>
+    <t>有我  塁</t>
+  </si>
+  <si>
+    <t>野崎    由梨華</t>
+  </si>
+  <si>
+    <t>藤井  晶</t>
+  </si>
+  <si>
+    <t>阿部    渉</t>
+  </si>
+  <si>
+    <t>2023年6月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -796,13 +844,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="55" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4836,7 +4884,7 @@
   </sheetPr>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6400,75 +6448,75 @@
         <v>670296</v>
       </c>
       <c r="F34" s="26">
-        <f ca="1">SUM(OFFSET(F$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ref="F34:W34" ca="1" si="0">SUM(OFFSET(F$7,0,0,COUNTA($A:$A)-1,1))</f>
         <v>613044</v>
       </c>
       <c r="G34" s="26">
-        <f ca="1">SUM(OFFSET(G$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>54060</v>
       </c>
       <c r="H34" s="26">
-        <f ca="1">SUM(OFFSET(H$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>829284</v>
       </c>
       <c r="I34" s="26">
-        <f ca="1">SUM(OFFSET(I$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10606</v>
       </c>
       <c r="J34" s="26">
-        <f ca="1">SUM(OFFSET(J$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>127272</v>
       </c>
       <c r="K34" s="26">
-        <f ca="1">SUM(OFFSET(K$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>114612</v>
       </c>
       <c r="L34" s="26">
-        <f ca="1">SUM(OFFSET(L$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7044</v>
       </c>
       <c r="M34" s="26">
-        <f ca="1">SUM(OFFSET(M$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>128700</v>
       </c>
       <c r="N34" s="26">
-        <f ca="1">SUM(OFFSET(N$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>106024</v>
       </c>
       <c r="O34" s="26">
-        <f ca="1">SUM(OFFSET(O$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1272288</v>
       </c>
       <c r="P34" s="26">
-        <f ca="1">SUM(OFFSET(P$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1267272</v>
       </c>
       <c r="Q34" s="26">
-        <f ca="1">SUM(OFFSET(Q$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>223968</v>
       </c>
       <c r="R34" s="26">
-        <f ca="1">SUM(OFFSET(R$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2163144</v>
       </c>
       <c r="S34" s="26">
-        <f ca="1">SUM(OFFSET(S$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>25702</v>
       </c>
       <c r="T34" s="26">
-        <f ca="1">SUM(OFFSET(T$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>308424</v>
       </c>
       <c r="U34" s="26">
-        <f ca="1">SUM(OFFSET(U$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>302268</v>
       </c>
       <c r="V34" s="26">
-        <f ca="1">SUM(OFFSET(V$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>19800</v>
       </c>
       <c r="W34" s="26">
-        <f ca="1">SUM(OFFSET(W$7,0,0,COUNTA($A:$A)-1,1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>322068</v>
       </c>
     </row>
@@ -7748,10 +7796,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A68" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7810,7 +7861,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>44896</v>
       </c>
       <c r="B4" s="46">
@@ -7846,7 +7897,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
         <v>48</v>
@@ -7878,7 +7929,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="47"/>
       <c r="C6" s="31" t="s">
         <v>48</v>
@@ -7910,7 +7961,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="47"/>
       <c r="C7" s="31" t="s">
         <v>48</v>
@@ -7942,7 +7993,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="47"/>
       <c r="C8" s="31" t="s">
         <v>48</v>
@@ -7974,7 +8025,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="47"/>
       <c r="C9" s="31" t="s">
         <v>48</v>
@@ -8006,7 +8057,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="47"/>
       <c r="C10" s="31" t="s">
         <v>48</v>
@@ -8038,7 +8089,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="47"/>
       <c r="C11" s="31" t="s">
         <v>48</v>
@@ -8070,7 +8121,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="47"/>
       <c r="C12" s="31" t="s">
         <v>48</v>
@@ -8102,7 +8153,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="47"/>
       <c r="C13" s="31" t="s">
         <v>48</v>
@@ -8134,7 +8185,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="47"/>
       <c r="C14" s="31" t="s">
         <v>48</v>
@@ -8166,7 +8217,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="48"/>
       <c r="C15" s="31" t="s">
         <v>48</v>
@@ -8198,28 +8249,28 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="35">
         <f>SUM(K4:K15)</f>
         <v>197131</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="43">
+      <c r="A17" s="45">
         <v>44958</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="36" t="s">
         <v>63</v>
       </c>
@@ -8250,8 +8301,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="36" t="s">
         <v>63</v>
       </c>
@@ -8282,8 +8333,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="36" t="s">
         <v>63</v>
       </c>
@@ -8314,8 +8365,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="36" t="s">
         <v>63</v>
       </c>
@@ -8346,8 +8397,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
@@ -8378,8 +8429,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="36" t="s">
         <v>63</v>
       </c>
@@ -8410,8 +8461,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="36" t="s">
         <v>63</v>
       </c>
@@ -8442,8 +8493,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
@@ -8474,8 +8525,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="36" t="s">
         <v>63</v>
       </c>
@@ -8506,8 +8557,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="36" t="s">
         <v>63</v>
       </c>
@@ -8538,8 +8589,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="36" t="s">
         <v>63</v>
       </c>
@@ -8570,8 +8621,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
@@ -8602,8 +8653,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
@@ -8634,8 +8685,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="36" t="s">
         <v>63</v>
       </c>
@@ -8666,8 +8717,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="36" t="s">
         <v>63</v>
       </c>
@@ -8698,8 +8749,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="36" t="s">
         <v>63</v>
       </c>
@@ -8730,8 +8781,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="36" t="s">
         <v>63</v>
       </c>
@@ -8762,8 +8813,8 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="36" t="s">
         <v>63</v>
       </c>
@@ -8794,8 +8845,8 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="36" t="s">
         <v>63</v>
       </c>
@@ -8826,8 +8877,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="36" t="s">
         <v>63</v>
       </c>
@@ -8858,8 +8909,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="36" t="s">
         <v>63</v>
       </c>
@@ -8890,8 +8941,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="36" t="s">
         <v>63</v>
       </c>
@@ -8922,28 +8973,28 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="35">
         <f>SUM(K17:K38)</f>
         <v>230605.89999999997</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="43">
+      <c r="A40" s="45">
         <v>44986</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="38" t="s">
         <v>63</v>
       </c>
@@ -8974,8 +9025,8 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="38" t="s">
         <v>63</v>
       </c>
@@ -9001,13 +9052,13 @@
         <v>0.7</v>
       </c>
       <c r="K41" s="33">
-        <f t="shared" ref="K41:K103" si="1">I41*J41</f>
+        <f t="shared" ref="K41:K105" si="1">I41*J41</f>
         <v>44007.6</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="38" t="s">
         <v>63</v>
       </c>
@@ -9038,8 +9089,8 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="38" t="s">
         <v>63</v>
       </c>
@@ -9070,8 +9121,8 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="38" t="s">
         <v>63</v>
       </c>
@@ -9102,8 +9153,8 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="38" t="s">
         <v>63</v>
       </c>
@@ -9134,8 +9185,8 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="38" t="s">
         <v>63</v>
       </c>
@@ -9166,8 +9217,8 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="38" t="s">
         <v>63</v>
       </c>
@@ -9198,8 +9249,8 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="38" t="s">
         <v>63</v>
       </c>
@@ -9230,8 +9281,8 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="38" t="s">
         <v>63</v>
       </c>
@@ -9262,8 +9313,8 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="38" t="s">
         <v>63</v>
       </c>
@@ -9294,8 +9345,8 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="38" t="s">
         <v>63</v>
       </c>
@@ -9326,8 +9377,8 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="38" t="s">
         <v>63</v>
       </c>
@@ -9358,8 +9409,8 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="38" t="s">
         <v>63</v>
       </c>
@@ -9390,8 +9441,8 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="38" t="s">
         <v>63</v>
       </c>
@@ -9422,8 +9473,8 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="38" t="s">
         <v>63</v>
       </c>
@@ -9454,8 +9505,8 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="38" t="s">
         <v>63</v>
       </c>
@@ -9486,8 +9537,8 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="38" t="s">
         <v>63</v>
       </c>
@@ -9518,8 +9569,8 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="38" t="s">
         <v>63</v>
       </c>
@@ -9550,8 +9601,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="38" t="s">
         <v>63</v>
       </c>
@@ -9582,28 +9633,28 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
       <c r="K60" s="35">
         <f>SUM(K40:K59)</f>
         <v>197532.99999999997</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="43">
+      <c r="A61" s="45">
         <v>45047</v>
       </c>
-      <c r="B61" s="43"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="38" t="s">
         <v>63</v>
       </c>
@@ -9634,8 +9685,8 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="38" t="s">
         <v>63</v>
       </c>
@@ -9666,8 +9717,8 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="38" t="s">
         <v>63</v>
       </c>
@@ -9698,8 +9749,8 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="38" t="s">
         <v>63</v>
       </c>
@@ -9730,8 +9781,8 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="38" t="s">
         <v>63</v>
       </c>
@@ -9762,8 +9813,8 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="38" t="s">
         <v>63</v>
       </c>
@@ -9794,8 +9845,8 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="38" t="s">
         <v>63</v>
       </c>
@@ -9826,8 +9877,8 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="38" t="s">
         <v>97</v>
       </c>
@@ -9858,8 +9909,8 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="38" t="s">
         <v>63</v>
       </c>
@@ -9890,8 +9941,8 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="38" t="s">
         <v>63</v>
       </c>
@@ -9922,8 +9973,8 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="38" t="s">
         <v>63</v>
       </c>
@@ -9954,8 +10005,8 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="38" t="s">
         <v>63</v>
       </c>
@@ -9986,8 +10037,8 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="38" t="s">
         <v>63</v>
       </c>
@@ -10018,8 +10069,8 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="38" t="s">
         <v>63</v>
       </c>
@@ -10050,8 +10101,8 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="38" t="s">
         <v>63</v>
       </c>
@@ -10082,8 +10133,8 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="38" t="s">
         <v>63</v>
       </c>
@@ -10114,8 +10165,8 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="38" t="s">
         <v>63</v>
       </c>
@@ -10146,8 +10197,8 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
@@ -10178,8 +10229,8 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="38" t="s">
         <v>63</v>
       </c>
@@ -10210,8 +10261,8 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="38" t="s">
         <v>63</v>
       </c>
@@ -10242,8 +10293,8 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="38" t="s">
         <v>63</v>
       </c>
@@ -10274,8 +10325,8 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="38" t="s">
         <v>63</v>
       </c>
@@ -10306,8 +10357,8 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="38" t="s">
         <v>63</v>
       </c>
@@ -10338,8 +10389,8 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="38" t="s">
         <v>63</v>
       </c>
@@ -10370,8 +10421,8 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="38" t="s">
         <v>63</v>
       </c>
@@ -10402,8 +10453,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="38" t="s">
         <v>63</v>
       </c>
@@ -10434,8 +10485,8 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="38" t="s">
         <v>63</v>
       </c>
@@ -10466,8 +10517,8 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="38" t="s">
         <v>63</v>
       </c>
@@ -10498,8 +10549,8 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="38" t="s">
         <v>63</v>
       </c>
@@ -10530,8 +10581,8 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="38" t="s">
         <v>63</v>
       </c>
@@ -10562,8 +10613,8 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="38" t="s">
         <v>63</v>
       </c>
@@ -10594,8 +10645,8 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="38" t="s">
         <v>63</v>
       </c>
@@ -10626,8 +10677,8 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="38" t="s">
         <v>63</v>
       </c>
@@ -10658,8 +10709,8 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="38" t="s">
         <v>63</v>
       </c>
@@ -10690,8 +10741,8 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="38" t="s">
         <v>63</v>
       </c>
@@ -10722,8 +10773,8 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="38" t="s">
         <v>63</v>
       </c>
@@ -10754,8 +10805,8 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="38" t="s">
         <v>63</v>
       </c>
@@ -10786,8 +10837,8 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="38" t="s">
         <v>63</v>
       </c>
@@ -10818,8 +10869,8 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="38" t="s">
         <v>63</v>
       </c>
@@ -10850,8 +10901,8 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="38" t="s">
         <v>63</v>
       </c>
@@ -10882,8 +10933,8 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="38" t="s">
         <v>63</v>
       </c>
@@ -10914,8 +10965,8 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="38" t="s">
         <v>63</v>
       </c>
@@ -10946,8 +10997,8 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="38" t="s">
         <v>63</v>
       </c>
@@ -10978,45 +11029,1478 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
       <c r="K104" s="35">
         <f>SUM(K61:K103)</f>
         <v>242153.8</v>
       </c>
     </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="45">
+        <v>45078</v>
+      </c>
+      <c r="B105" s="45"/>
+      <c r="C105" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I105" s="37">
+        <v>2065</v>
+      </c>
+      <c r="J105" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K105" s="33">
+        <f t="shared" si="1"/>
+        <v>1445.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F106" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H106" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I106" s="37">
+        <v>342</v>
+      </c>
+      <c r="J106" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K106" s="33">
+        <f t="shared" ref="K106:K148" si="2">I106*J106</f>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F107" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G107" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107" s="37">
+        <v>2236</v>
+      </c>
+      <c r="J107" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K107" s="33">
+        <f t="shared" si="2"/>
+        <v>1565.1999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F108" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G108" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H108" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I108" s="37">
+        <v>342</v>
+      </c>
+      <c r="J108" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K108" s="33">
+        <f t="shared" si="2"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G109" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I109" s="37">
+        <v>2427</v>
+      </c>
+      <c r="J109" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K109" s="33">
+        <f t="shared" si="2"/>
+        <v>1698.8999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F110" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G110" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H110" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I110" s="37">
+        <v>342</v>
+      </c>
+      <c r="J110" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K110" s="33">
+        <f t="shared" si="2"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F111" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G111" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111" s="37">
+        <v>1219</v>
+      </c>
+      <c r="J111" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K111" s="33">
+        <f t="shared" si="2"/>
+        <v>853.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" s="38">
+        <v>20221101</v>
+      </c>
+      <c r="F112" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G112" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I112" s="37">
+        <v>372</v>
+      </c>
+      <c r="J112" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K112" s="33">
+        <f t="shared" si="2"/>
+        <v>260.39999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="38">
+        <v>20221201</v>
+      </c>
+      <c r="F113" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I113" s="37">
+        <v>2624</v>
+      </c>
+      <c r="J113" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K113" s="33">
+        <f t="shared" si="2"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" s="38">
+        <v>20221201</v>
+      </c>
+      <c r="F114" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I114" s="37">
+        <v>386</v>
+      </c>
+      <c r="J114" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K114" s="33">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I115" s="37">
+        <v>1065</v>
+      </c>
+      <c r="J115" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K115" s="33">
+        <f t="shared" si="2"/>
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F116" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G116" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116" s="37">
+        <v>387</v>
+      </c>
+      <c r="J116" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K116" s="33">
+        <f t="shared" si="2"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I117" s="37">
+        <v>2624</v>
+      </c>
+      <c r="J117" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K117" s="33">
+        <f t="shared" si="2"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F118" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G118" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118" s="37">
+        <v>386</v>
+      </c>
+      <c r="J118" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K118" s="33">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G119" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I119" s="37">
+        <v>2519</v>
+      </c>
+      <c r="J119" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K119" s="33">
+        <f t="shared" si="2"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="45"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F120" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G120" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I120" s="37">
+        <v>386</v>
+      </c>
+      <c r="J120" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K120" s="33">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G121" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I121" s="37">
+        <v>2286</v>
+      </c>
+      <c r="J121" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K121" s="33">
+        <f t="shared" si="2"/>
+        <v>1600.1999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="45"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F122" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G122" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122" s="37">
+        <v>387</v>
+      </c>
+      <c r="J122" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K122" s="33">
+        <f t="shared" si="2"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F123" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G123" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I123" s="37">
+        <v>2203</v>
+      </c>
+      <c r="J123" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K123" s="33">
+        <f t="shared" si="2"/>
+        <v>1542.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="38">
+        <v>20230101</v>
+      </c>
+      <c r="F124" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G124" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H124" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I124" s="37">
+        <v>387</v>
+      </c>
+      <c r="J124" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K124" s="33">
+        <f t="shared" si="2"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="38">
+        <v>20230201</v>
+      </c>
+      <c r="F125" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G125" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H125" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I125" s="37">
+        <v>2420</v>
+      </c>
+      <c r="J125" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K125" s="33">
+        <f t="shared" si="2"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="38">
+        <v>20230201</v>
+      </c>
+      <c r="F126" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G126" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I126" s="37">
+        <v>386</v>
+      </c>
+      <c r="J126" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K126" s="33">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F127" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G127" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I127" s="37">
+        <v>2745</v>
+      </c>
+      <c r="J127" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K127" s="33">
+        <f t="shared" si="2"/>
+        <v>1921.4999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F128" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G128" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I128" s="37">
+        <v>419</v>
+      </c>
+      <c r="J128" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K128" s="33">
+        <f t="shared" si="2"/>
+        <v>293.29999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F129" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G129" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I129" s="37">
+        <v>2519</v>
+      </c>
+      <c r="J129" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K129" s="33">
+        <f t="shared" si="2"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F130" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G130" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H130" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I130" s="37">
+        <v>386</v>
+      </c>
+      <c r="J130" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K130" s="33">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E131" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F131" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G131" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I131" s="37">
+        <v>2519</v>
+      </c>
+      <c r="J131" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K131" s="33">
+        <f t="shared" si="2"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F132" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G132" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I132" s="37">
+        <v>386</v>
+      </c>
+      <c r="J132" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K132" s="33">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="38">
+        <v>20230501</v>
+      </c>
+      <c r="F133" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G133" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I133" s="37">
+        <v>845</v>
+      </c>
+      <c r="J133" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K133" s="33">
+        <f t="shared" si="2"/>
+        <v>591.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E134" s="38">
+        <v>20230501</v>
+      </c>
+      <c r="F134" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H134" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I134" s="37">
+        <v>386</v>
+      </c>
+      <c r="J134" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K134" s="33">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E135" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H135" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I135" s="37">
+        <v>-30461</v>
+      </c>
+      <c r="J135" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K135" s="33">
+        <f t="shared" si="2"/>
+        <v>-21322.699999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F136" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H136" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I136" s="37">
+        <v>-27195</v>
+      </c>
+      <c r="J136" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K136" s="33">
+        <f t="shared" si="2"/>
+        <v>-19036.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F137" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H137" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I137" s="37">
+        <v>-4250</v>
+      </c>
+      <c r="J137" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K137" s="33">
+        <f t="shared" si="2"/>
+        <v>-2975</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F138" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G138" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H138" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I138" s="37">
+        <v>-4760</v>
+      </c>
+      <c r="J138" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K138" s="33">
+        <f t="shared" si="2"/>
+        <v>-3332</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E139" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F139" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G139" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H139" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I139" s="37">
+        <v>-53094</v>
+      </c>
+      <c r="J139" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K139" s="33">
+        <f t="shared" si="2"/>
+        <v>-37165.799999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" s="38">
+        <v>20220901</v>
+      </c>
+      <c r="F140" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H140" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I140" s="37">
+        <v>-47405</v>
+      </c>
+      <c r="J140" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K140" s="33">
+        <f t="shared" si="2"/>
+        <v>-33183.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E141" s="38">
+        <v>20230401</v>
+      </c>
+      <c r="F141" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G141" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H141" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I141" s="37">
+        <v>66228</v>
+      </c>
+      <c r="J141" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K141" s="33">
+        <f t="shared" si="2"/>
+        <v>46359.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="38">
+        <v>20230401</v>
+      </c>
+      <c r="F142" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G142" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H142" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I142" s="37">
+        <v>9840</v>
+      </c>
+      <c r="J142" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K142" s="33">
+        <f t="shared" si="2"/>
+        <v>6888</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E143" s="38">
+        <v>20230401</v>
+      </c>
+      <c r="F143" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G143" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H143" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I143" s="37">
+        <v>135276</v>
+      </c>
+      <c r="J143" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K143" s="33">
+        <f t="shared" si="2"/>
+        <v>94693.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F144" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G144" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H144" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I144" s="37">
+        <v>30084</v>
+      </c>
+      <c r="J144" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K144" s="33">
+        <f t="shared" si="2"/>
+        <v>21058.799999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E145" s="38">
+        <v>20230301</v>
+      </c>
+      <c r="F145" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G145" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H145" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I145" s="37">
+        <v>8340</v>
+      </c>
+      <c r="J145" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K145" s="33">
+        <f t="shared" si="2"/>
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E146" s="38">
+        <v>20230501</v>
+      </c>
+      <c r="F146" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G146" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H146" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I146" s="37">
+        <v>32424</v>
+      </c>
+      <c r="J146" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K146" s="33">
+        <f t="shared" si="2"/>
+        <v>22696.799999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E147" s="38">
+        <v>20230501</v>
+      </c>
+      <c r="F147" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G147" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H147" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I147" s="37">
+        <v>8124</v>
+      </c>
+      <c r="J147" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K147" s="33">
+        <f t="shared" si="2"/>
+        <v>5686.7999999999993</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E148" s="38">
+        <v>20230501</v>
+      </c>
+      <c r="F148" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G148" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H148" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I148" s="37">
+        <v>85716</v>
+      </c>
+      <c r="J148" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="K148" s="33">
+        <f t="shared" si="2"/>
+        <v>60001.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="35">
+        <f>SUM(K105:K148)</f>
+        <v>172804.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A105:A148"/>
+    <mergeCell ref="B105:B148"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A61:A103"/>
+    <mergeCell ref="B61:B103"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A40:A59"/>
+    <mergeCell ref="B40:B59"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A17:A38"/>
     <mergeCell ref="B17:B38"/>
-    <mergeCell ref="A61:A103"/>
-    <mergeCell ref="B61:B103"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A40:A59"/>
-    <mergeCell ref="B40:B59"/>
-    <mergeCell ref="A60:J60"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
+  <rowBreaks count="5" manualBreakCount="5">
     <brk id="16" max="16383" man="1"/>
     <brk id="39" max="16383" man="1"/>
     <brk id="60" max="16383" man="1"/>
+    <brk id="104" max="10" man="1"/>
+    <brk id="149" max="10" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="1" max="1048575" man="1"/>

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF826435-8ECA-41FD-9D52-CF3CBD8223BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8638BB-5512-4A9B-B0C1-0D2772B6CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表" sheetId="2" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
   </sheetPr>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3941,11 +3941,11 @@
   </sheetPr>
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H131" sqref="H131"/>
+      <selection pane="bottomRight" activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8619,6 +8619,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A105:A148"/>
+    <mergeCell ref="B105:B148"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A61:A103"/>
+    <mergeCell ref="B61:B103"/>
+    <mergeCell ref="A104:J104"/>
     <mergeCell ref="A40:A59"/>
     <mergeCell ref="B40:B59"/>
     <mergeCell ref="A60:J60"/>
@@ -8628,12 +8634,6 @@
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A17:A38"/>
     <mergeCell ref="B17:B38"/>
-    <mergeCell ref="A105:A148"/>
-    <mergeCell ref="B105:B148"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A61:A103"/>
-    <mergeCell ref="B61:B103"/>
-    <mergeCell ref="A104:J104"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8638BB-5512-4A9B-B0C1-0D2772B6CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C7AD0-F2F4-42C2-9557-702F24C4BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">一覧表!$A$1:$W$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">振込額!$A$1:$K$149</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">振込額!$A$1:$K$189</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">振込額!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="107">
   <si>
     <t>次年度AC</t>
   </si>
@@ -450,6 +450,31 @@
   </si>
   <si>
     <t>2023年6月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山下  ＊里</t>
+  </si>
+  <si>
+    <t>山本  ＊真</t>
+  </si>
+  <si>
+    <t>山口  達人</t>
+  </si>
+  <si>
+    <t>岡  友亮</t>
+  </si>
+  <si>
+    <t>2023年7月の合計</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
@@ -647,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -739,6 +764,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,9 +1061,9 @@
   </sheetPr>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3939,13 +3973,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C133" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K149" sqref="K149"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7251,7 +7285,7 @@
         <v>0.7</v>
       </c>
       <c r="K106" s="23">
-        <f t="shared" ref="K106:K148" si="2">I106*J106</f>
+        <f t="shared" ref="K106:K169" si="2">I106*J106</f>
         <v>239.39999999999998</v>
       </c>
     </row>
@@ -8617,14 +8651,1331 @@
         <v>172804.1</v>
       </c>
     </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="35">
+        <v>45108</v>
+      </c>
+      <c r="B150" s="35"/>
+      <c r="C150" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H150" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150" s="27">
+        <v>2065</v>
+      </c>
+      <c r="J150" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K150" s="23">
+        <f t="shared" si="2"/>
+        <v>1445.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="40"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G151" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H151" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I151" s="27">
+        <v>342</v>
+      </c>
+      <c r="J151" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K151" s="23">
+        <f t="shared" si="2"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="40"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H152" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I152" s="27">
+        <v>2236</v>
+      </c>
+      <c r="J152" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K152" s="23">
+        <f t="shared" si="2"/>
+        <v>1565.1999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="40"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I153" s="27">
+        <v>342</v>
+      </c>
+      <c r="J153" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K153" s="23">
+        <f t="shared" si="2"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="40"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H154" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I154" s="27">
+        <v>2427</v>
+      </c>
+      <c r="J154" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K154" s="23">
+        <f t="shared" si="2"/>
+        <v>1698.8999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I155" s="27">
+        <v>342</v>
+      </c>
+      <c r="J155" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K155" s="23">
+        <f t="shared" si="2"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="40"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E156" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H156" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I156" s="27">
+        <v>1219</v>
+      </c>
+      <c r="J156" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K156" s="23">
+        <f t="shared" si="2"/>
+        <v>853.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="40"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G157" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I157" s="27">
+        <v>372</v>
+      </c>
+      <c r="J157" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K157" s="23">
+        <f t="shared" si="2"/>
+        <v>260.39999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="40"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E158" s="28">
+        <v>20221201</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H158" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158" s="27">
+        <v>2624</v>
+      </c>
+      <c r="J158" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K158" s="23">
+        <f t="shared" si="2"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="40"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D159" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" s="28">
+        <v>20221201</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159" s="27">
+        <v>386</v>
+      </c>
+      <c r="J159" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K159" s="23">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="40"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H160" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I160" s="27">
+        <v>1065</v>
+      </c>
+      <c r="J160" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K160" s="23">
+        <f t="shared" si="2"/>
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="40"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E161" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F161" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G161" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I161" s="27">
+        <v>387</v>
+      </c>
+      <c r="J161" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K161" s="23">
+        <f t="shared" si="2"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="40"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E162" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G162" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H162" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I162" s="27">
+        <v>2624</v>
+      </c>
+      <c r="J162" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K162" s="23">
+        <f t="shared" si="2"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="40"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F163" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G163" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163" s="27">
+        <v>386</v>
+      </c>
+      <c r="J163" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K163" s="23">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="40"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H164" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I164" s="27">
+        <v>2519</v>
+      </c>
+      <c r="J164" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K164" s="23">
+        <f t="shared" si="2"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="40"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F165" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H165" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I165" s="27">
+        <v>386</v>
+      </c>
+      <c r="J165" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K165" s="23">
+        <f t="shared" si="2"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="40"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H166" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I166" s="27">
+        <v>2286</v>
+      </c>
+      <c r="J166" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K166" s="23">
+        <f t="shared" si="2"/>
+        <v>1600.1999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="40"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I167" s="27">
+        <v>387</v>
+      </c>
+      <c r="J167" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K167" s="23">
+        <f t="shared" si="2"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="40"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E168" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G168" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H168" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I168" s="27">
+        <v>2203</v>
+      </c>
+      <c r="J168" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K168" s="23">
+        <f t="shared" si="2"/>
+        <v>1542.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="40"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E169" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G169" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H169" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169" s="27">
+        <v>387</v>
+      </c>
+      <c r="J169" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K169" s="23">
+        <f t="shared" si="2"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="40"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E170" s="28">
+        <v>20230201</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H170" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170" s="27">
+        <v>2420</v>
+      </c>
+      <c r="J170" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K170" s="23">
+        <f t="shared" ref="K170:K188" si="3">I170*J170</f>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="40"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E171" s="28">
+        <v>20230201</v>
+      </c>
+      <c r="F171" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I171" s="27">
+        <v>386</v>
+      </c>
+      <c r="J171" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K171" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="40"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E172" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F172" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H172" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I172" s="27">
+        <v>2745</v>
+      </c>
+      <c r="J172" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K172" s="23">
+        <f t="shared" si="3"/>
+        <v>1921.4999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="40"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E173" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F173" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G173" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I173" s="27">
+        <v>419</v>
+      </c>
+      <c r="J173" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K173" s="23">
+        <f t="shared" si="3"/>
+        <v>293.29999999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="40"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F174" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H174" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I174" s="27">
+        <v>2519</v>
+      </c>
+      <c r="J174" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K174" s="23">
+        <f t="shared" si="3"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="40"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F175" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G175" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I175" s="27">
+        <v>386</v>
+      </c>
+      <c r="J175" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K175" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="40"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E176" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F176" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G176" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H176" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I176" s="27">
+        <v>1188</v>
+      </c>
+      <c r="J176" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K176" s="23">
+        <f t="shared" si="3"/>
+        <v>831.59999999999991</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="40"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E177" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F177" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G177" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I177" s="27">
+        <v>387</v>
+      </c>
+      <c r="J177" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K177" s="23">
+        <f t="shared" si="3"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="40"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E178" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F178" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G178" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H178" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I178" s="27">
+        <v>805</v>
+      </c>
+      <c r="J178" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K178" s="23">
+        <f t="shared" si="3"/>
+        <v>563.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="40"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F179" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G179" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H179" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I179" s="27">
+        <v>386</v>
+      </c>
+      <c r="J179" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K179" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="40"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D180" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E180" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F180" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H180" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I180" s="27">
+        <v>-14888</v>
+      </c>
+      <c r="J180" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K180" s="23">
+        <f t="shared" si="3"/>
+        <v>-10421.599999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="40"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D181" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E181" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F181" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G181" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H181" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I181" s="27">
+        <v>-29776</v>
+      </c>
+      <c r="J181" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K181" s="23">
+        <f t="shared" si="3"/>
+        <v>-20843.199999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="40"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D182" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E182" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F182" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H182" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I182" s="27">
+        <v>-5184</v>
+      </c>
+      <c r="J182" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K182" s="23">
+        <f t="shared" si="3"/>
+        <v>-3628.7999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="40"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F183" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H183" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I183" s="27">
+        <v>-2592</v>
+      </c>
+      <c r="J183" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K183" s="23">
+        <f t="shared" si="3"/>
+        <v>-1814.3999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="40"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F184" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H184" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I184" s="27">
+        <v>-27076</v>
+      </c>
+      <c r="J184" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K184" s="23">
+        <f t="shared" si="3"/>
+        <v>-18953.199999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="40"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E185" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F185" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H185" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I185" s="27">
+        <v>-54152</v>
+      </c>
+      <c r="J185" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K185" s="23">
+        <f t="shared" si="3"/>
+        <v>-37906.399999999994</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="40"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F186" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G186" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H186" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I186" s="27">
+        <v>46824</v>
+      </c>
+      <c r="J186" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K186" s="23">
+        <f t="shared" si="3"/>
+        <v>32776.799999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="40"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E187" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F187" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H187" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I187" s="27">
+        <v>7476</v>
+      </c>
+      <c r="J187" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K187" s="23">
+        <f t="shared" si="3"/>
+        <v>5233.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="41"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E188" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F188" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H188" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I188" s="27">
+        <v>79092</v>
+      </c>
+      <c r="J188" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K188" s="23">
+        <f t="shared" si="3"/>
+        <v>55364.399999999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B189" s="34"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="34"/>
+      <c r="J189" s="34"/>
+      <c r="K189" s="25">
+        <f>SUM(K150:K188)</f>
+        <v>25444.999999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="23"/>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="23"/>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="23"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A105:A148"/>
-    <mergeCell ref="B105:B148"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A61:A103"/>
-    <mergeCell ref="B61:B103"/>
-    <mergeCell ref="A104:J104"/>
+  <mergeCells count="18">
+    <mergeCell ref="A150:A188"/>
+    <mergeCell ref="B150:B188"/>
+    <mergeCell ref="A189:J189"/>
     <mergeCell ref="A40:A59"/>
     <mergeCell ref="B40:B59"/>
     <mergeCell ref="A60:J60"/>
@@ -8634,6 +9985,12 @@
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A17:A38"/>
     <mergeCell ref="B17:B38"/>
+    <mergeCell ref="A105:A148"/>
+    <mergeCell ref="B105:B148"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A61:A103"/>
+    <mergeCell ref="B61:B103"/>
+    <mergeCell ref="A104:J104"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/作業フォルダー/保険一覧.xlsx
+++ b/作業フォルダー/保険一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C7AD0-F2F4-42C2-9557-702F24C4BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3019742-6A5F-4493-BBD7-B485EF919956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">一覧表!$A$1:$W$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">振込額!$A$1:$K$189</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">振込額!$A$1:$K$235</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">振込額!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="111">
   <si>
     <t>次年度AC</t>
   </si>
@@ -486,6 +486,28 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>和⽥    ＊望</t>
+  </si>
+  <si>
+    <t>堀⽥    輝貴</t>
+  </si>
+  <si>
+    <t>和⽥    愛望</t>
+  </si>
+  <si>
+    <t>2023年8月の合計</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -672,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -765,9 +787,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="55" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,28 +1080,28 @@
   </sheetPr>
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="10.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
@@ -3973,31 +3992,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="13.58203125" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24">
+    <row r="1" spans="1:11" ht="22.5">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
@@ -5190,7 +5209,7 @@
       <c r="H40" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="23">
         <v>9600</v>
       </c>
       <c r="J40" s="24">
@@ -5222,7 +5241,7 @@
       <c r="H41" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="23">
         <v>62868</v>
       </c>
       <c r="J41" s="24">
@@ -5254,7 +5273,7 @@
       <c r="H42" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="23">
         <v>9888</v>
       </c>
       <c r="J42" s="24">
@@ -5286,7 +5305,7 @@
       <c r="H43" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="23">
         <v>93168</v>
       </c>
       <c r="J43" s="24">
@@ -5318,7 +5337,7 @@
       <c r="H44" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="23">
         <v>85428</v>
       </c>
       <c r="J44" s="24">
@@ -5350,7 +5369,7 @@
       <c r="H45" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="23">
         <v>3530</v>
       </c>
       <c r="J45" s="24">
@@ -5382,7 +5401,7 @@
       <c r="H46" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="23">
         <v>343</v>
       </c>
       <c r="J46" s="24">
@@ -5414,7 +5433,7 @@
       <c r="H47" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="23">
         <v>2065</v>
       </c>
       <c r="J47" s="24">
@@ -5446,7 +5465,7 @@
       <c r="H48" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="23">
         <v>342</v>
       </c>
       <c r="J48" s="24">
@@ -5478,7 +5497,7 @@
       <c r="H49" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="23">
         <v>2236</v>
       </c>
       <c r="J49" s="24">
@@ -5510,7 +5529,7 @@
       <c r="H50" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="23">
         <v>342</v>
       </c>
       <c r="J50" s="24">
@@ -5542,7 +5561,7 @@
       <c r="H51" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I51" s="23">
         <v>2427</v>
       </c>
       <c r="J51" s="24">
@@ -5574,7 +5593,7 @@
       <c r="H52" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="23">
         <v>342</v>
       </c>
       <c r="J52" s="24">
@@ -5606,7 +5625,7 @@
       <c r="H53" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="23">
         <v>1219</v>
       </c>
       <c r="J53" s="24">
@@ -5638,7 +5657,7 @@
       <c r="H54" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="23">
         <v>372</v>
       </c>
       <c r="J54" s="24">
@@ -5670,7 +5689,7 @@
       <c r="H55" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="23">
         <v>2624</v>
       </c>
       <c r="J55" s="24">
@@ -5702,7 +5721,7 @@
       <c r="H56" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="23">
         <v>386</v>
       </c>
       <c r="J56" s="24">
@@ -5734,7 +5753,7 @@
       <c r="H57" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="23">
         <v>2203</v>
       </c>
       <c r="J57" s="24">
@@ -5766,7 +5785,7 @@
       <c r="H58" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="23">
         <v>387</v>
       </c>
       <c r="J58" s="24">
@@ -5798,7 +5817,7 @@
       <c r="H59" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="23">
         <v>2420</v>
       </c>
       <c r="J59" s="24">
@@ -5850,7 +5869,7 @@
       <c r="H61" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="23">
         <v>43008</v>
       </c>
       <c r="J61" s="24">
@@ -5882,7 +5901,7 @@
       <c r="H62" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="23">
         <v>7620</v>
       </c>
       <c r="J62" s="24">
@@ -5914,7 +5933,7 @@
       <c r="H63" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="23">
         <v>80076</v>
       </c>
       <c r="J63" s="24">
@@ -5946,7 +5965,7 @@
       <c r="H64" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="23">
         <v>60480</v>
       </c>
       <c r="J64" s="24">
@@ -5978,7 +5997,7 @@
       <c r="H65" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="23">
         <v>43008</v>
       </c>
       <c r="J65" s="24">
@@ -6010,7 +6029,7 @@
       <c r="H66" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I66" s="23">
         <v>7620</v>
       </c>
       <c r="J66" s="24">
@@ -6042,7 +6061,7 @@
       <c r="H67" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I67" s="27">
+      <c r="I67" s="23">
         <v>80076</v>
       </c>
       <c r="J67" s="24">
@@ -6074,7 +6093,7 @@
       <c r="H68" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I68" s="27">
+      <c r="I68" s="23">
         <v>-17297</v>
       </c>
       <c r="J68" s="24">
@@ -6106,7 +6125,7 @@
       <c r="H69" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I69" s="23">
         <v>3530</v>
       </c>
       <c r="J69" s="24">
@@ -6138,7 +6157,7 @@
       <c r="H70" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I70" s="23">
         <v>-1680</v>
       </c>
       <c r="J70" s="24">
@@ -6170,7 +6189,7 @@
       <c r="H71" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I71" s="27">
+      <c r="I71" s="23">
         <v>343</v>
       </c>
       <c r="J71" s="24">
@@ -6202,7 +6221,7 @@
       <c r="H72" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="23">
         <v>2065</v>
       </c>
       <c r="J72" s="24">
@@ -6234,7 +6253,7 @@
       <c r="H73" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="23">
         <v>342</v>
       </c>
       <c r="J73" s="24">
@@ -6266,7 +6285,7 @@
       <c r="H74" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I74" s="27">
+      <c r="I74" s="23">
         <v>2236</v>
       </c>
       <c r="J74" s="24">
@@ -6298,7 +6317,7 @@
       <c r="H75" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I75" s="27">
+      <c r="I75" s="23">
         <v>342</v>
       </c>
       <c r="J75" s="24">
@@ -6330,7 +6349,7 @@
       <c r="H76" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="27">
+      <c r="I76" s="23">
         <v>2427</v>
       </c>
       <c r="J76" s="24">
@@ -6362,7 +6381,7 @@
       <c r="H77" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="27">
+      <c r="I77" s="23">
         <v>342</v>
       </c>
       <c r="J77" s="24">
@@ -6394,7 +6413,7 @@
       <c r="H78" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I78" s="27">
+      <c r="I78" s="23">
         <v>1219</v>
       </c>
       <c r="J78" s="24">
@@ -6426,7 +6445,7 @@
       <c r="H79" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I79" s="27">
+      <c r="I79" s="23">
         <v>372</v>
       </c>
       <c r="J79" s="24">
@@ -6458,7 +6477,7 @@
       <c r="H80" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I80" s="27">
+      <c r="I80" s="23">
         <v>2624</v>
       </c>
       <c r="J80" s="24">
@@ -6490,7 +6509,7 @@
       <c r="H81" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I81" s="27">
+      <c r="I81" s="23">
         <v>386</v>
       </c>
       <c r="J81" s="24">
@@ -6522,7 +6541,7 @@
       <c r="H82" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I82" s="27">
+      <c r="I82" s="23">
         <v>1065</v>
       </c>
       <c r="J82" s="24">
@@ -6554,7 +6573,7 @@
       <c r="H83" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I83" s="27">
+      <c r="I83" s="23">
         <v>387</v>
       </c>
       <c r="J83" s="24">
@@ -6586,7 +6605,7 @@
       <c r="H84" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I84" s="27">
+      <c r="I84" s="23">
         <v>2624</v>
       </c>
       <c r="J84" s="24">
@@ -6618,7 +6637,7 @@
       <c r="H85" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I85" s="27">
+      <c r="I85" s="23">
         <v>386</v>
       </c>
       <c r="J85" s="24">
@@ -6650,7 +6669,7 @@
       <c r="H86" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I86" s="27">
+      <c r="I86" s="23">
         <v>2519</v>
       </c>
       <c r="J86" s="24">
@@ -6682,7 +6701,7 @@
       <c r="H87" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I87" s="27">
+      <c r="I87" s="23">
         <v>386</v>
       </c>
       <c r="J87" s="24">
@@ -6714,7 +6733,7 @@
       <c r="H88" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I88" s="27">
+      <c r="I88" s="23">
         <v>2519</v>
       </c>
       <c r="J88" s="24">
@@ -6746,7 +6765,7 @@
       <c r="H89" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I89" s="27">
+      <c r="I89" s="23">
         <v>386</v>
       </c>
       <c r="J89" s="24">
@@ -6778,7 +6797,7 @@
       <c r="H90" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I90" s="27">
+      <c r="I90" s="23">
         <v>2519</v>
       </c>
       <c r="J90" s="24">
@@ -6810,7 +6829,7 @@
       <c r="H91" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I91" s="23">
         <v>386</v>
       </c>
       <c r="J91" s="24">
@@ -6842,7 +6861,7 @@
       <c r="H92" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I92" s="27">
+      <c r="I92" s="23">
         <v>2286</v>
       </c>
       <c r="J92" s="24">
@@ -6874,7 +6893,7 @@
       <c r="H93" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I93" s="27">
+      <c r="I93" s="23">
         <v>387</v>
       </c>
       <c r="J93" s="24">
@@ -6906,7 +6925,7 @@
       <c r="H94" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I94" s="27">
+      <c r="I94" s="23">
         <v>2203</v>
       </c>
       <c r="J94" s="24">
@@ -6938,7 +6957,7 @@
       <c r="H95" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I95" s="27">
+      <c r="I95" s="23">
         <v>387</v>
       </c>
       <c r="J95" s="24">
@@ -6970,7 +6989,7 @@
       <c r="H96" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I96" s="27">
+      <c r="I96" s="23">
         <v>2396</v>
       </c>
       <c r="J96" s="24">
@@ -7002,7 +7021,7 @@
       <c r="H97" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I97" s="27">
+      <c r="I97" s="23">
         <v>387</v>
       </c>
       <c r="J97" s="24">
@@ -7034,7 +7053,7 @@
       <c r="H98" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I98" s="27">
+      <c r="I98" s="23">
         <v>2420</v>
       </c>
       <c r="J98" s="24">
@@ -7066,7 +7085,7 @@
       <c r="H99" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I99" s="27">
+      <c r="I99" s="23">
         <v>386</v>
       </c>
       <c r="J99" s="24">
@@ -7098,7 +7117,7 @@
       <c r="H100" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I100" s="27">
+      <c r="I100" s="23">
         <v>1188</v>
       </c>
       <c r="J100" s="24">
@@ -7130,7 +7149,7 @@
       <c r="H101" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I101" s="27">
+      <c r="I101" s="23">
         <v>387</v>
       </c>
       <c r="J101" s="24">
@@ -7162,7 +7181,7 @@
       <c r="H102" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I102" s="27">
+      <c r="I102" s="23">
         <v>805</v>
       </c>
       <c r="J102" s="24">
@@ -7194,7 +7213,7 @@
       <c r="H103" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I103" s="27">
+      <c r="I103" s="23">
         <v>386</v>
       </c>
       <c r="J103" s="24">
@@ -7246,7 +7265,7 @@
       <c r="H105" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I105" s="27">
+      <c r="I105" s="23">
         <v>2065</v>
       </c>
       <c r="J105" s="24">
@@ -7278,7 +7297,7 @@
       <c r="H106" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I106" s="27">
+      <c r="I106" s="23">
         <v>342</v>
       </c>
       <c r="J106" s="24">
@@ -7310,7 +7329,7 @@
       <c r="H107" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I107" s="27">
+      <c r="I107" s="23">
         <v>2236</v>
       </c>
       <c r="J107" s="24">
@@ -7342,7 +7361,7 @@
       <c r="H108" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I108" s="27">
+      <c r="I108" s="23">
         <v>342</v>
       </c>
       <c r="J108" s="24">
@@ -7374,7 +7393,7 @@
       <c r="H109" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I109" s="27">
+      <c r="I109" s="23">
         <v>2427</v>
       </c>
       <c r="J109" s="24">
@@ -7406,7 +7425,7 @@
       <c r="H110" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I110" s="27">
+      <c r="I110" s="23">
         <v>342</v>
       </c>
       <c r="J110" s="24">
@@ -7438,7 +7457,7 @@
       <c r="H111" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I111" s="27">
+      <c r="I111" s="23">
         <v>1219</v>
       </c>
       <c r="J111" s="24">
@@ -7470,7 +7489,7 @@
       <c r="H112" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I112" s="27">
+      <c r="I112" s="23">
         <v>372</v>
       </c>
       <c r="J112" s="24">
@@ -7502,7 +7521,7 @@
       <c r="H113" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I113" s="27">
+      <c r="I113" s="23">
         <v>2624</v>
       </c>
       <c r="J113" s="24">
@@ -7534,7 +7553,7 @@
       <c r="H114" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I114" s="27">
+      <c r="I114" s="23">
         <v>386</v>
       </c>
       <c r="J114" s="24">
@@ -7566,7 +7585,7 @@
       <c r="H115" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I115" s="27">
+      <c r="I115" s="23">
         <v>1065</v>
       </c>
       <c r="J115" s="24">
@@ -7598,7 +7617,7 @@
       <c r="H116" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I116" s="27">
+      <c r="I116" s="23">
         <v>387</v>
       </c>
       <c r="J116" s="24">
@@ -7630,7 +7649,7 @@
       <c r="H117" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I117" s="27">
+      <c r="I117" s="23">
         <v>2624</v>
       </c>
       <c r="J117" s="24">
@@ -7662,7 +7681,7 @@
       <c r="H118" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I118" s="27">
+      <c r="I118" s="23">
         <v>386</v>
       </c>
       <c r="J118" s="24">
@@ -7694,7 +7713,7 @@
       <c r="H119" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I119" s="27">
+      <c r="I119" s="23">
         <v>2519</v>
       </c>
       <c r="J119" s="24">
@@ -7726,7 +7745,7 @@
       <c r="H120" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I120" s="27">
+      <c r="I120" s="23">
         <v>386</v>
       </c>
       <c r="J120" s="24">
@@ -7758,7 +7777,7 @@
       <c r="H121" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I121" s="27">
+      <c r="I121" s="23">
         <v>2286</v>
       </c>
       <c r="J121" s="24">
@@ -7790,7 +7809,7 @@
       <c r="H122" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I122" s="27">
+      <c r="I122" s="23">
         <v>387</v>
       </c>
       <c r="J122" s="24">
@@ -7822,7 +7841,7 @@
       <c r="H123" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I123" s="27">
+      <c r="I123" s="23">
         <v>2203</v>
       </c>
       <c r="J123" s="24">
@@ -7854,7 +7873,7 @@
       <c r="H124" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I124" s="27">
+      <c r="I124" s="23">
         <v>387</v>
       </c>
       <c r="J124" s="24">
@@ -7886,7 +7905,7 @@
       <c r="H125" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I125" s="27">
+      <c r="I125" s="23">
         <v>2420</v>
       </c>
       <c r="J125" s="24">
@@ -7918,7 +7937,7 @@
       <c r="H126" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I126" s="27">
+      <c r="I126" s="23">
         <v>386</v>
       </c>
       <c r="J126" s="24">
@@ -7950,7 +7969,7 @@
       <c r="H127" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I127" s="27">
+      <c r="I127" s="23">
         <v>2745</v>
       </c>
       <c r="J127" s="24">
@@ -7982,7 +8001,7 @@
       <c r="H128" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I128" s="27">
+      <c r="I128" s="23">
         <v>419</v>
       </c>
       <c r="J128" s="24">
@@ -8014,7 +8033,7 @@
       <c r="H129" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I129" s="27">
+      <c r="I129" s="23">
         <v>2519</v>
       </c>
       <c r="J129" s="24">
@@ -8046,7 +8065,7 @@
       <c r="H130" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I130" s="27">
+      <c r="I130" s="23">
         <v>386</v>
       </c>
       <c r="J130" s="24">
@@ -8078,7 +8097,7 @@
       <c r="H131" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I131" s="27">
+      <c r="I131" s="23">
         <v>2519</v>
       </c>
       <c r="J131" s="24">
@@ -8110,7 +8129,7 @@
       <c r="H132" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I132" s="27">
+      <c r="I132" s="23">
         <v>386</v>
       </c>
       <c r="J132" s="24">
@@ -8142,7 +8161,7 @@
       <c r="H133" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I133" s="27">
+      <c r="I133" s="23">
         <v>845</v>
       </c>
       <c r="J133" s="24">
@@ -8174,7 +8193,7 @@
       <c r="H134" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I134" s="27">
+      <c r="I134" s="23">
         <v>386</v>
       </c>
       <c r="J134" s="24">
@@ -8206,7 +8225,7 @@
       <c r="H135" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I135" s="27">
+      <c r="I135" s="23">
         <v>-30461</v>
       </c>
       <c r="J135" s="24">
@@ -8238,7 +8257,7 @@
       <c r="H136" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I136" s="27">
+      <c r="I136" s="23">
         <v>-27195</v>
       </c>
       <c r="J136" s="24">
@@ -8270,7 +8289,7 @@
       <c r="H137" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I137" s="27">
+      <c r="I137" s="23">
         <v>-4250</v>
       </c>
       <c r="J137" s="24">
@@ -8302,7 +8321,7 @@
       <c r="H138" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I138" s="27">
+      <c r="I138" s="23">
         <v>-4760</v>
       </c>
       <c r="J138" s="24">
@@ -8334,7 +8353,7 @@
       <c r="H139" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I139" s="27">
+      <c r="I139" s="23">
         <v>-53094</v>
       </c>
       <c r="J139" s="24">
@@ -8366,7 +8385,7 @@
       <c r="H140" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I140" s="27">
+      <c r="I140" s="23">
         <v>-47405</v>
       </c>
       <c r="J140" s="24">
@@ -8398,7 +8417,7 @@
       <c r="H141" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I141" s="27">
+      <c r="I141" s="23">
         <v>66228</v>
       </c>
       <c r="J141" s="24">
@@ -8430,7 +8449,7 @@
       <c r="H142" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I142" s="27">
+      <c r="I142" s="23">
         <v>9840</v>
       </c>
       <c r="J142" s="24">
@@ -8462,7 +8481,7 @@
       <c r="H143" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I143" s="27">
+      <c r="I143" s="23">
         <v>135276</v>
       </c>
       <c r="J143" s="24">
@@ -8494,7 +8513,7 @@
       <c r="H144" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I144" s="27">
+      <c r="I144" s="23">
         <v>30084</v>
       </c>
       <c r="J144" s="24">
@@ -8526,7 +8545,7 @@
       <c r="H145" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I145" s="27">
+      <c r="I145" s="23">
         <v>8340</v>
       </c>
       <c r="J145" s="24">
@@ -8558,7 +8577,7 @@
       <c r="H146" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I146" s="27">
+      <c r="I146" s="23">
         <v>32424</v>
       </c>
       <c r="J146" s="24">
@@ -8590,7 +8609,7 @@
       <c r="H147" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I147" s="27">
+      <c r="I147" s="23">
         <v>8124</v>
       </c>
       <c r="J147" s="24">
@@ -8622,7 +8641,7 @@
       <c r="H148" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I148" s="27">
+      <c r="I148" s="23">
         <v>85716</v>
       </c>
       <c r="J148" s="24">
@@ -8674,7 +8693,7 @@
       <c r="H150" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I150" s="27">
+      <c r="I150" s="23">
         <v>2065</v>
       </c>
       <c r="J150" s="24">
@@ -8686,8 +8705,8 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="40"/>
-      <c r="B151" s="40"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="28" t="s">
         <v>52</v>
       </c>
@@ -8706,7 +8725,7 @@
       <c r="H151" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I151" s="27">
+      <c r="I151" s="23">
         <v>342</v>
       </c>
       <c r="J151" s="24">
@@ -8718,8 +8737,8 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="40"/>
-      <c r="B152" s="40"/>
+      <c r="A152" s="39"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="28" t="s">
         <v>52</v>
       </c>
@@ -8738,7 +8757,7 @@
       <c r="H152" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I152" s="27">
+      <c r="I152" s="23">
         <v>2236</v>
       </c>
       <c r="J152" s="24">
@@ -8750,8 +8769,8 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="40"/>
-      <c r="B153" s="40"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="28" t="s">
         <v>52</v>
       </c>
@@ -8770,7 +8789,7 @@
       <c r="H153" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I153" s="27">
+      <c r="I153" s="23">
         <v>342</v>
       </c>
       <c r="J153" s="24">
@@ -8782,8 +8801,8 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="40"/>
-      <c r="B154" s="40"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="28" t="s">
         <v>52</v>
       </c>
@@ -8802,7 +8821,7 @@
       <c r="H154" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I154" s="27">
+      <c r="I154" s="23">
         <v>2427</v>
       </c>
       <c r="J154" s="24">
@@ -8814,8 +8833,8 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="40"/>
-      <c r="B155" s="40"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="28" t="s">
         <v>52</v>
       </c>
@@ -8834,7 +8853,7 @@
       <c r="H155" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I155" s="27">
+      <c r="I155" s="23">
         <v>342</v>
       </c>
       <c r="J155" s="24">
@@ -8846,8 +8865,8 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="40"/>
-      <c r="B156" s="40"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="28" t="s">
         <v>52</v>
       </c>
@@ -8866,7 +8885,7 @@
       <c r="H156" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I156" s="27">
+      <c r="I156" s="23">
         <v>1219</v>
       </c>
       <c r="J156" s="24">
@@ -8878,8 +8897,8 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="40"/>
-      <c r="B157" s="40"/>
+      <c r="A157" s="39"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="28" t="s">
         <v>52</v>
       </c>
@@ -8898,7 +8917,7 @@
       <c r="H157" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I157" s="27">
+      <c r="I157" s="23">
         <v>372</v>
       </c>
       <c r="J157" s="24">
@@ -8910,8 +8929,8 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="40"/>
-      <c r="B158" s="40"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="28" t="s">
         <v>52</v>
       </c>
@@ -8930,7 +8949,7 @@
       <c r="H158" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I158" s="27">
+      <c r="I158" s="23">
         <v>2624</v>
       </c>
       <c r="J158" s="24">
@@ -8942,8 +8961,8 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="40"/>
-      <c r="B159" s="40"/>
+      <c r="A159" s="39"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="28" t="s">
         <v>52</v>
       </c>
@@ -8962,7 +8981,7 @@
       <c r="H159" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I159" s="27">
+      <c r="I159" s="23">
         <v>386</v>
       </c>
       <c r="J159" s="24">
@@ -8974,8 +8993,8 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="40"/>
-      <c r="B160" s="40"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="28" t="s">
         <v>52</v>
       </c>
@@ -8994,7 +9013,7 @@
       <c r="H160" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I160" s="27">
+      <c r="I160" s="23">
         <v>1065</v>
       </c>
       <c r="J160" s="24">
@@ -9006,8 +9025,8 @@
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="40"/>
-      <c r="B161" s="40"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="28" t="s">
         <v>52</v>
       </c>
@@ -9026,7 +9045,7 @@
       <c r="H161" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I161" s="27">
+      <c r="I161" s="23">
         <v>387</v>
       </c>
       <c r="J161" s="24">
@@ -9038,8 +9057,8 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="40"/>
-      <c r="B162" s="40"/>
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="28" t="s">
         <v>52</v>
       </c>
@@ -9058,7 +9077,7 @@
       <c r="H162" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I162" s="27">
+      <c r="I162" s="23">
         <v>2624</v>
       </c>
       <c r="J162" s="24">
@@ -9070,8 +9089,8 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="40"/>
-      <c r="B163" s="40"/>
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="28" t="s">
         <v>52</v>
       </c>
@@ -9090,7 +9109,7 @@
       <c r="H163" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I163" s="27">
+      <c r="I163" s="23">
         <v>386</v>
       </c>
       <c r="J163" s="24">
@@ -9102,8 +9121,8 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="40"/>
-      <c r="B164" s="40"/>
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="28" t="s">
         <v>52</v>
       </c>
@@ -9122,7 +9141,7 @@
       <c r="H164" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I164" s="27">
+      <c r="I164" s="23">
         <v>2519</v>
       </c>
       <c r="J164" s="24">
@@ -9134,8 +9153,8 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="40"/>
-      <c r="B165" s="40"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="28" t="s">
         <v>52</v>
       </c>
@@ -9154,7 +9173,7 @@
       <c r="H165" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I165" s="27">
+      <c r="I165" s="23">
         <v>386</v>
       </c>
       <c r="J165" s="24">
@@ -9166,8 +9185,8 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="28" t="s">
         <v>52</v>
       </c>
@@ -9186,7 +9205,7 @@
       <c r="H166" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I166" s="27">
+      <c r="I166" s="23">
         <v>2286</v>
       </c>
       <c r="J166" s="24">
@@ -9198,8 +9217,8 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="40"/>
-      <c r="B167" s="40"/>
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="28" t="s">
         <v>52</v>
       </c>
@@ -9218,7 +9237,7 @@
       <c r="H167" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I167" s="27">
+      <c r="I167" s="23">
         <v>387</v>
       </c>
       <c r="J167" s="24">
@@ -9230,8 +9249,8 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="40"/>
-      <c r="B168" s="40"/>
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="28" t="s">
         <v>52</v>
       </c>
@@ -9250,7 +9269,7 @@
       <c r="H168" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I168" s="27">
+      <c r="I168" s="23">
         <v>2203</v>
       </c>
       <c r="J168" s="24">
@@ -9262,8 +9281,8 @@
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="40"/>
-      <c r="B169" s="40"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="28" t="s">
         <v>52</v>
       </c>
@@ -9282,7 +9301,7 @@
       <c r="H169" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I169" s="27">
+      <c r="I169" s="23">
         <v>387</v>
       </c>
       <c r="J169" s="24">
@@ -9294,8 +9313,8 @@
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="40"/>
-      <c r="B170" s="40"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="28" t="s">
         <v>52</v>
       </c>
@@ -9314,20 +9333,20 @@
       <c r="H170" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I170" s="27">
+      <c r="I170" s="23">
         <v>2420</v>
       </c>
       <c r="J170" s="24">
         <v>0.7</v>
       </c>
       <c r="K170" s="23">
-        <f t="shared" ref="K170:K188" si="3">I170*J170</f>
+        <f t="shared" ref="K170:K233" si="3">I170*J170</f>
         <v>1694</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="40"/>
-      <c r="B171" s="40"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="28" t="s">
         <v>52</v>
       </c>
@@ -9346,7 +9365,7 @@
       <c r="H171" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I171" s="27">
+      <c r="I171" s="23">
         <v>386</v>
       </c>
       <c r="J171" s="24">
@@ -9358,8 +9377,8 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="40"/>
-      <c r="B172" s="40"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="28" t="s">
         <v>52</v>
       </c>
@@ -9378,7 +9397,7 @@
       <c r="H172" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="I172" s="27">
+      <c r="I172" s="23">
         <v>2745</v>
       </c>
       <c r="J172" s="24">
@@ -9390,8 +9409,8 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="40"/>
-      <c r="B173" s="40"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="28" t="s">
         <v>52</v>
       </c>
@@ -9410,7 +9429,7 @@
       <c r="H173" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="I173" s="27">
+      <c r="I173" s="23">
         <v>419</v>
       </c>
       <c r="J173" s="24">
@@ -9422,8 +9441,8 @@
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="40"/>
-      <c r="B174" s="40"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="28" t="s">
         <v>52</v>
       </c>
@@ -9442,7 +9461,7 @@
       <c r="H174" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="I174" s="27">
+      <c r="I174" s="23">
         <v>2519</v>
       </c>
       <c r="J174" s="24">
@@ -9454,8 +9473,8 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="40"/>
-      <c r="B175" s="40"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="28" t="s">
         <v>52</v>
       </c>
@@ -9474,7 +9493,7 @@
       <c r="H175" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="I175" s="27">
+      <c r="I175" s="23">
         <v>386</v>
       </c>
       <c r="J175" s="24">
@@ -9486,8 +9505,8 @@
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="28" t="s">
         <v>52</v>
       </c>
@@ -9506,7 +9525,7 @@
       <c r="H176" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I176" s="27">
+      <c r="I176" s="23">
         <v>1188</v>
       </c>
       <c r="J176" s="24">
@@ -9518,8 +9537,8 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="40"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="28" t="s">
         <v>52</v>
       </c>
@@ -9538,7 +9557,7 @@
       <c r="H177" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I177" s="27">
+      <c r="I177" s="23">
         <v>387</v>
       </c>
       <c r="J177" s="24">
@@ -9550,8 +9569,8 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="28" t="s">
         <v>52</v>
       </c>
@@ -9570,7 +9589,7 @@
       <c r="H178" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I178" s="27">
+      <c r="I178" s="23">
         <v>805</v>
       </c>
       <c r="J178" s="24">
@@ -9582,8 +9601,8 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="40"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="28" t="s">
         <v>52</v>
       </c>
@@ -9602,7 +9621,7 @@
       <c r="H179" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I179" s="27">
+      <c r="I179" s="23">
         <v>386</v>
       </c>
       <c r="J179" s="24">
@@ -9614,8 +9633,8 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
+      <c r="A180" s="39"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="28" t="s">
         <v>52</v>
       </c>
@@ -9634,7 +9653,7 @@
       <c r="H180" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I180" s="27">
+      <c r="I180" s="23">
         <v>-14888</v>
       </c>
       <c r="J180" s="24">
@@ -9646,8 +9665,8 @@
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="40"/>
-      <c r="B181" s="40"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="28" t="s">
         <v>52</v>
       </c>
@@ -9666,7 +9685,7 @@
       <c r="H181" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I181" s="27">
+      <c r="I181" s="23">
         <v>-29776</v>
       </c>
       <c r="J181" s="24">
@@ -9678,8 +9697,8 @@
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="40"/>
-      <c r="B182" s="40"/>
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="28" t="s">
         <v>52</v>
       </c>
@@ -9698,7 +9717,7 @@
       <c r="H182" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I182" s="27">
+      <c r="I182" s="23">
         <v>-5184</v>
       </c>
       <c r="J182" s="24">
@@ -9710,8 +9729,8 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="40"/>
-      <c r="B183" s="40"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="28" t="s">
         <v>52</v>
       </c>
@@ -9730,7 +9749,7 @@
       <c r="H183" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I183" s="27">
+      <c r="I183" s="23">
         <v>-2592</v>
       </c>
       <c r="J183" s="24">
@@ -9742,8 +9761,8 @@
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="40"/>
-      <c r="B184" s="40"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="28" t="s">
         <v>52</v>
       </c>
@@ -9762,7 +9781,7 @@
       <c r="H184" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I184" s="27">
+      <c r="I184" s="23">
         <v>-27076</v>
       </c>
       <c r="J184" s="24">
@@ -9774,8 +9793,8 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="40"/>
-      <c r="B185" s="40"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="28" t="s">
         <v>52</v>
       </c>
@@ -9794,7 +9813,7 @@
       <c r="H185" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I185" s="27">
+      <c r="I185" s="23">
         <v>-54152</v>
       </c>
       <c r="J185" s="24">
@@ -9806,8 +9825,8 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="28" t="s">
         <v>52</v>
       </c>
@@ -9826,7 +9845,7 @@
       <c r="H186" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I186" s="27">
+      <c r="I186" s="23">
         <v>46824</v>
       </c>
       <c r="J186" s="24">
@@ -9838,8 +9857,8 @@
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="28" t="s">
         <v>52</v>
       </c>
@@ -9858,7 +9877,7 @@
       <c r="H187" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I187" s="27">
+      <c r="I187" s="23">
         <v>7476</v>
       </c>
       <c r="J187" s="24">
@@ -9870,8 +9889,8 @@
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="41"/>
-      <c r="B188" s="41"/>
+      <c r="A188" s="40"/>
+      <c r="B188" s="40"/>
       <c r="C188" s="28" t="s">
         <v>52</v>
       </c>
@@ -9890,7 +9909,7 @@
       <c r="H188" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I188" s="27">
+      <c r="I188" s="23">
         <v>79092</v>
       </c>
       <c r="J188" s="24">
@@ -9920,87 +9939,1499 @@
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="24"/>
-      <c r="K190" s="23"/>
+      <c r="A190" s="33">
+        <v>45139</v>
+      </c>
+      <c r="B190" s="33"/>
+      <c r="C190" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E190" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F190" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G190" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H190" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I190" s="23">
+        <v>2065</v>
+      </c>
+      <c r="J190" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K190" s="23">
+        <f t="shared" si="3"/>
+        <v>1445.5</v>
+      </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="24"/>
-      <c r="K191" s="23"/>
+      <c r="A191" s="33"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D191" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F191" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G191" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H191" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I191" s="23">
+        <v>342</v>
+      </c>
+      <c r="J191" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K191" s="23">
+        <f t="shared" si="3"/>
+        <v>239.39999999999998</v>
+      </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="28"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="24"/>
-      <c r="K192" s="23"/>
+      <c r="A192" s="33"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G192" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H192" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I192" s="23">
+        <v>2236</v>
+      </c>
+      <c r="J192" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K192" s="23">
+        <f t="shared" si="3"/>
+        <v>1565.1999999999998</v>
+      </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="28"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="24"/>
-      <c r="K193" s="23"/>
+      <c r="A193" s="33"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D193" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E193" s="28">
+        <v>20220901</v>
+      </c>
+      <c r="F193" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G193" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H193" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I193" s="23">
+        <v>342</v>
+      </c>
+      <c r="J193" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K193" s="23">
+        <f t="shared" si="3"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="33"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E194" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F194" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G194" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H194" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I194" s="23">
+        <v>2427</v>
+      </c>
+      <c r="J194" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K194" s="23">
+        <f t="shared" si="3"/>
+        <v>1698.8999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="33"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D195" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F195" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G195" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H195" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I195" s="23">
+        <v>342</v>
+      </c>
+      <c r="J195" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K195" s="23">
+        <f t="shared" si="3"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="33"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D196" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F196" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G196" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H196" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I196" s="23">
+        <v>1219</v>
+      </c>
+      <c r="J196" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K196" s="23">
+        <f t="shared" si="3"/>
+        <v>853.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="33"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" s="28">
+        <v>20221101</v>
+      </c>
+      <c r="F197" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G197" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H197" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I197" s="23">
+        <v>372</v>
+      </c>
+      <c r="J197" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K197" s="23">
+        <f t="shared" si="3"/>
+        <v>260.39999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="33"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E198" s="28">
+        <v>20221201</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G198" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H198" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I198" s="23">
+        <v>2624</v>
+      </c>
+      <c r="J198" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K198" s="23">
+        <f t="shared" si="3"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E199" s="28">
+        <v>20221201</v>
+      </c>
+      <c r="F199" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G199" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H199" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I199" s="23">
+        <v>386</v>
+      </c>
+      <c r="J199" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K199" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="33"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E200" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F200" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G200" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H200" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I200" s="23">
+        <v>1065</v>
+      </c>
+      <c r="J200" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K200" s="23">
+        <f t="shared" si="3"/>
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E201" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F201" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G201" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H201" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I201" s="23">
+        <v>387</v>
+      </c>
+      <c r="J201" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K201" s="23">
+        <f t="shared" si="3"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="33"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E202" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F202" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G202" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H202" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I202" s="23">
+        <v>2624</v>
+      </c>
+      <c r="J202" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K202" s="23">
+        <f t="shared" si="3"/>
+        <v>1836.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="33"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E203" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F203" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G203" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H203" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I203" s="23">
+        <v>386</v>
+      </c>
+      <c r="J203" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K203" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="33"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E204" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F204" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G204" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H204" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I204" s="23">
+        <v>2519</v>
+      </c>
+      <c r="J204" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K204" s="23">
+        <f t="shared" si="3"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E205" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F205" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G205" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H205" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I205" s="23">
+        <v>386</v>
+      </c>
+      <c r="J205" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K205" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="33"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E206" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F206" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G206" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H206" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I206" s="23">
+        <v>2286</v>
+      </c>
+      <c r="J206" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K206" s="23">
+        <f t="shared" si="3"/>
+        <v>1600.1999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="33"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E207" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F207" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G207" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H207" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I207" s="23">
+        <v>-10968</v>
+      </c>
+      <c r="J207" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K207" s="23">
+        <f t="shared" si="3"/>
+        <v>-7677.5999999999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="33"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E208" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F208" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G208" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H208" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I208" s="23">
+        <v>387</v>
+      </c>
+      <c r="J208" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K208" s="23">
+        <f t="shared" si="3"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="33"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E209" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F209" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G209" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H209" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I209" s="23">
+        <v>-1860</v>
+      </c>
+      <c r="J209" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K209" s="23">
+        <f t="shared" si="3"/>
+        <v>-1302</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="33"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E210" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F210" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G210" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H210" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I210" s="23">
+        <v>2203</v>
+      </c>
+      <c r="J210" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K210" s="23">
+        <f t="shared" si="3"/>
+        <v>1542.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="33"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D211" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E211" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F211" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G211" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H211" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I211" s="23">
+        <v>387</v>
+      </c>
+      <c r="J211" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K211" s="23">
+        <f t="shared" si="3"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="33"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E212" s="28">
+        <v>20230201</v>
+      </c>
+      <c r="F212" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H212" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I212" s="23">
+        <v>2420</v>
+      </c>
+      <c r="J212" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K212" s="23">
+        <f t="shared" si="3"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="33"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E213" s="28">
+        <v>20230201</v>
+      </c>
+      <c r="F213" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H213" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I213" s="23">
+        <v>386</v>
+      </c>
+      <c r="J213" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K213" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="33"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E214" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F214" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G214" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H214" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I214" s="23">
+        <v>2745</v>
+      </c>
+      <c r="J214" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K214" s="23">
+        <f t="shared" si="3"/>
+        <v>1921.4999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="33"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D215" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E215" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F215" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G215" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H215" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I215" s="23">
+        <v>419</v>
+      </c>
+      <c r="J215" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K215" s="23">
+        <f t="shared" si="3"/>
+        <v>293.29999999999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="33"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D216" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E216" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F216" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G216" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H216" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I216" s="23">
+        <v>2519</v>
+      </c>
+      <c r="J216" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K216" s="23">
+        <f t="shared" si="3"/>
+        <v>1763.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="33"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E217" s="28">
+        <v>20230301</v>
+      </c>
+      <c r="F217" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G217" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H217" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I217" s="23">
+        <v>386</v>
+      </c>
+      <c r="J217" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K217" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="33"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E218" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F218" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G218" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H218" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I218" s="23">
+        <v>1188</v>
+      </c>
+      <c r="J218" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K218" s="23">
+        <f t="shared" si="3"/>
+        <v>831.59999999999991</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="33"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D219" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E219" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F219" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G219" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H219" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I219" s="23">
+        <v>387</v>
+      </c>
+      <c r="J219" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K219" s="23">
+        <f t="shared" si="3"/>
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="33"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E220" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F220" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G220" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H220" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I220" s="23">
+        <v>805</v>
+      </c>
+      <c r="J220" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K220" s="23">
+        <f t="shared" si="3"/>
+        <v>563.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="33"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D221" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E221" s="28">
+        <v>20230401</v>
+      </c>
+      <c r="F221" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G221" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H221" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I221" s="23">
+        <v>386</v>
+      </c>
+      <c r="J221" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K221" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="33"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E222" s="28">
+        <v>20230501</v>
+      </c>
+      <c r="F222" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G222" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H222" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I222" s="23">
+        <v>845</v>
+      </c>
+      <c r="J222" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K222" s="23">
+        <f t="shared" si="3"/>
+        <v>591.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="33"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E223" s="28">
+        <v>20230501</v>
+      </c>
+      <c r="F223" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G223" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H223" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I223" s="23">
+        <v>386</v>
+      </c>
+      <c r="J223" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K223" s="23">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="33"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E224" s="28">
+        <v>20230701</v>
+      </c>
+      <c r="F224" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G224" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H224" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I224" s="23">
+        <v>794</v>
+      </c>
+      <c r="J224" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K224" s="23">
+        <f t="shared" si="3"/>
+        <v>555.79999999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="33"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E225" s="28">
+        <v>20230701</v>
+      </c>
+      <c r="F225" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G225" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H225" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I225" s="23">
+        <v>419</v>
+      </c>
+      <c r="J225" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K225" s="23">
+        <f t="shared" si="3"/>
+        <v>293.29999999999995</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="33"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E226" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F226" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G226" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H226" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I226" s="23">
+        <v>-26195</v>
+      </c>
+      <c r="J226" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K226" s="23">
+        <f t="shared" si="3"/>
+        <v>-18336.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="33"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E227" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F227" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G227" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H227" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I227" s="23">
+        <v>-36673</v>
+      </c>
+      <c r="J227" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K227" s="23">
+        <f t="shared" si="3"/>
+        <v>-25671.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="33"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D228" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E228" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F228" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G228" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H228" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I228" s="23">
+        <v>-5768</v>
+      </c>
+      <c r="J228" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K228" s="23">
+        <f t="shared" si="3"/>
+        <v>-4037.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="33"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E229" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F229" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G229" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H229" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I229" s="23">
+        <v>-4120</v>
+      </c>
+      <c r="J229" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K229" s="23">
+        <f t="shared" si="3"/>
+        <v>-2884</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="33"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E230" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F230" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G230" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H230" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I230" s="23">
+        <v>-54348</v>
+      </c>
+      <c r="J230" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K230" s="23">
+        <f t="shared" si="3"/>
+        <v>-38043.599999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="33"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E231" s="28">
+        <v>20230101</v>
+      </c>
+      <c r="F231" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G231" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H231" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I231" s="23">
+        <v>-38820</v>
+      </c>
+      <c r="J231" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K231" s="23">
+        <f t="shared" si="3"/>
+        <v>-27174</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="33"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E232" s="28">
+        <v>20230701</v>
+      </c>
+      <c r="F232" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G232" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H232" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I232" s="23">
+        <v>33948</v>
+      </c>
+      <c r="J232" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K232" s="23">
+        <f t="shared" si="3"/>
+        <v>23763.599999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="33"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E233" s="28">
+        <v>20230701</v>
+      </c>
+      <c r="F233" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G233" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H233" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I233" s="23">
+        <v>10200</v>
+      </c>
+      <c r="J233" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K233" s="23">
+        <f t="shared" si="3"/>
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="33"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E234" s="28">
+        <v>20230701</v>
+      </c>
+      <c r="F234" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G234" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H234" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I234" s="23">
+        <v>111288</v>
+      </c>
+      <c r="J234" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="K234" s="23">
+        <f t="shared" ref="K234" si="4">I234*J234</f>
+        <v>77901.599999999991</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B235" s="34"/>
+      <c r="C235" s="34"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="34"/>
+      <c r="G235" s="34"/>
+      <c r="H235" s="34"/>
+      <c r="I235" s="34"/>
+      <c r="J235" s="34"/>
+      <c r="K235" s="25">
+        <f>SUM(K190:K234)</f>
+        <v>11027.800000000003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="B105:B148"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A61:A103"/>
+    <mergeCell ref="B61:B103"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A190:A234"/>
+    <mergeCell ref="B190:B234"/>
+    <mergeCell ref="A235:J235"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="B17:B38"/>
     <mergeCell ref="A150:A188"/>
     <mergeCell ref="B150:B188"/>
     <mergeCell ref="A189:J189"/>
     <mergeCell ref="A40:A59"/>
     <mergeCell ref="B40:B59"/>
     <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="B17:B38"/>
     <mergeCell ref="A105:A148"/>
-    <mergeCell ref="B105:B148"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A61:A103"/>
-    <mergeCell ref="B61:B103"/>
-    <mergeCell ref="A104:J104"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="5" manualBreakCount="5">
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="6" manualBreakCount="6">
     <brk id="16" max="16383" man="1"/>
     <brk id="39" max="16383" man="1"/>
     <brk id="60" max="16383" man="1"/>
     <brk id="104" max="10" man="1"/>
     <brk id="149" max="10" man="1"/>
+    <brk id="189" max="10" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="1" max="1048575" man="1"/>
